--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE08790-1838-41CE-BE08-38EAE4B4DA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E57600-6080-42A6-8EA8-2CA09AA5D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="45" windowWidth="20745" windowHeight="13455" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="9585" yWindow="5565" windowWidth="18645" windowHeight="9315" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>BRK/A</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>7203 JP</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>RIL IN</t>
+  </si>
+  <si>
+    <t>Contemporary Amperex</t>
+  </si>
+  <si>
+    <t>300750 CH</t>
   </si>
 </sst>
 </file>
@@ -409,16 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -448,6 +470,30 @@
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E57600-6080-42A6-8EA8-2CA09AA5D3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860F871-C2E5-497E-9D7C-ECCDBA7586E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="5565" windowWidth="18645" windowHeight="9315" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="53040" yWindow="1665" windowWidth="20310" windowHeight="17790" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Services" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -77,13 +81,419 @@
   </si>
   <si>
     <t>300750 CH</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>EV/E 22</t>
+  </si>
+  <si>
+    <t>EV/E 23</t>
+  </si>
+  <si>
+    <t>EV/E 24</t>
+  </si>
+  <si>
+    <t>EPS 22</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>ACN US</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>UPS US</t>
+  </si>
+  <si>
+    <t>International Holding</t>
+  </si>
+  <si>
+    <t>IHC UH</t>
+  </si>
+  <si>
+    <t>TCS IN</t>
+  </si>
+  <si>
+    <t>Tata Consultancy</t>
+  </si>
+  <si>
+    <t>Linde</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>Byd Co</t>
+  </si>
+  <si>
+    <t>1211 HK</t>
+  </si>
+  <si>
+    <t>Union Pac</t>
+  </si>
+  <si>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>BHP Group</t>
+  </si>
+  <si>
+    <t>BHP AU</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>Caterpiller</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Deere</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Rio Tinto</t>
+  </si>
+  <si>
+    <t>RIO AU</t>
+  </si>
+  <si>
+    <t>Keyence</t>
+  </si>
+  <si>
+    <t>6861 JP</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>VOW GR</t>
+  </si>
+  <si>
+    <t>AIR FP</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>SIE GR</t>
+  </si>
+  <si>
+    <t>Canadian National Railway</t>
+  </si>
+  <si>
+    <t>CNR CN</t>
+  </si>
+  <si>
+    <t>SABIC</t>
+  </si>
+  <si>
+    <t>SABIC AB</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>INFO IN</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>Northrop Grumman</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>General Electric</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Schneider Electric</t>
+  </si>
+  <si>
+    <t>SU FP</t>
+  </si>
+  <si>
+    <t>Canadian Pacific</t>
+  </si>
+  <si>
+    <t>CP CN</t>
+  </si>
+  <si>
+    <t>Air Liquide</t>
+  </si>
+  <si>
+    <t>AI FP</t>
+  </si>
+  <si>
+    <t>Sherman-Williams</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>VALE3 BZ</t>
+  </si>
+  <si>
+    <t>Glencore</t>
+  </si>
+  <si>
+    <t>GLEN LN</t>
+  </si>
+  <si>
+    <t>Waste Management</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>General Dynamics</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>MBG GR</t>
+  </si>
+  <si>
+    <t>Fedex</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>Illinois Tool Works</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>Norfolk Southern</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>Recruit Holdings</t>
+  </si>
+  <si>
+    <t>6098 JP</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>ABBN SW</t>
+  </si>
+  <si>
+    <t>Vinci</t>
+  </si>
+  <si>
+    <t>DG FP</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>Air Products</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>BMW GR</t>
+  </si>
+  <si>
+    <t>Shin-Etsu Chemical</t>
+  </si>
+  <si>
+    <t>4063 JP</t>
+  </si>
+  <si>
+    <t>Ford Motor</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Emerson Electric</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>Marriott</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Hapag-Lloyd</t>
+  </si>
+  <si>
+    <t>HLAG GR</t>
+  </si>
+  <si>
+    <t>Daikin</t>
+  </si>
+  <si>
+    <t>6367 JP</t>
+  </si>
+  <si>
+    <t>Atlas Copco</t>
+  </si>
+  <si>
+    <t>ATCOA SS</t>
+  </si>
+  <si>
+    <t>ITC Ltd</t>
+  </si>
+  <si>
+    <t>ITC IN</t>
+  </si>
+  <si>
+    <t>Kimberly-Clark</t>
+  </si>
+  <si>
+    <t>KMB</t>
+  </si>
+  <si>
+    <t>Deutsche Post</t>
+  </si>
+  <si>
+    <t>DPW GR</t>
+  </si>
+  <si>
+    <t>Safran</t>
+  </si>
+  <si>
+    <t>SAF FP</t>
+  </si>
+  <si>
+    <t>Sysco</t>
+  </si>
+  <si>
+    <t>SYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -99,7 +509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,14 +517,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -128,6 +617,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>3133.470045</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>18915</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>66</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,44 +947,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="B2:E7"/>
+  <dimension ref="A2:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>288.08999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <f>+D3*H3</f>
+        <v>902721.38526404998</v>
+      </c>
+      <c r="F3" s="3">
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
+        <v>18849</v>
+      </c>
+      <c r="G3" s="3">
+        <f>+E3-F3</f>
+        <v>883872.38526404998</v>
+      </c>
+      <c r="H3" s="3">
+        <f>+[1]Main!$K$3</f>
+        <v>3133.470045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -472,7 +1037,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -480,20 +1048,768 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
+  <dimension ref="A1:X12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="10">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="10">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="11">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860F871-C2E5-497E-9D7C-ECCDBA7586E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC7916-3653-4B6F-8C05-54D3BC39D437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53040" yWindow="1665" windowWidth="20310" windowHeight="17790" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="63915" yWindow="3765" windowWidth="22650" windowHeight="13440" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -474,6 +474,48 @@
   </si>
   <si>
     <t>SYY</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Entrepreneur First</t>
+  </si>
+  <si>
+    <t>Ecolab</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>Maersk</t>
+  </si>
+  <si>
+    <t>MAERSKB DC</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>7267 JP</t>
+  </si>
+  <si>
+    <t>Itochu</t>
+  </si>
+  <si>
+    <t>8001 JP</t>
+  </si>
+  <si>
+    <t>Newmont</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>L3Harris</t>
+  </si>
+  <si>
+    <t>LHX</t>
   </si>
 </sst>
 </file>
@@ -949,11 +991,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1602,6 +1644,12 @@
       <c r="A56" t="s">
         <v>20</v>
       </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1614,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1812,6 +1860,71 @@
         <v>144</v>
       </c>
     </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFC7916-3653-4B6F-8C05-54D3BC39D437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34213F4B-7333-43C5-85D2-B31A6A4F08C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63915" yWindow="3765" windowWidth="22650" windowHeight="13440" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="51600" yWindow="30" windowWidth="22155" windowHeight="14205" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -516,6 +516,294 @@
   </si>
   <si>
     <t>LHX</t>
+  </si>
+  <si>
+    <t>Denso</t>
+  </si>
+  <si>
+    <t>6902 JP</t>
+  </si>
+  <si>
+    <t>Roper</t>
+  </si>
+  <si>
+    <t>ROP</t>
+  </si>
+  <si>
+    <t>Wanhua Chemical</t>
+  </si>
+  <si>
+    <t>600309 CH</t>
+  </si>
+  <si>
+    <t>Mitsubushi</t>
+  </si>
+  <si>
+    <t>8058 JP</t>
+  </si>
+  <si>
+    <t>GMKN RM</t>
+  </si>
+  <si>
+    <t>Norilsk Nickel</t>
+  </si>
+  <si>
+    <t>Republic Services</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>Nutrien</t>
+  </si>
+  <si>
+    <t>NTR CN</t>
+  </si>
+  <si>
+    <t>Li Auto</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Nidec</t>
+  </si>
+  <si>
+    <t>6594 JP</t>
+  </si>
+  <si>
+    <t>Cintas</t>
+  </si>
+  <si>
+    <t>CTAS</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>Compass Group</t>
+  </si>
+  <si>
+    <t>CPG LN</t>
+  </si>
+  <si>
+    <t>Stellantis</t>
+  </si>
+  <si>
+    <t>STLA</t>
+  </si>
+  <si>
+    <t>BASF</t>
+  </si>
+  <si>
+    <t>BAS GR</t>
+  </si>
+  <si>
+    <t>Corteva</t>
+  </si>
+  <si>
+    <t>CTVA</t>
+  </si>
+  <si>
+    <t>Freeport-McMoran</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>Anglo American</t>
+  </si>
+  <si>
+    <t>AAL LN</t>
+  </si>
+  <si>
+    <t>S F Holding Co</t>
+  </si>
+  <si>
+    <t>002352 CH</t>
+  </si>
+  <si>
+    <t>Great Wall Motor</t>
+  </si>
+  <si>
+    <t>2333 HK</t>
+  </si>
+  <si>
+    <t>Murata Manufacturing</t>
+  </si>
+  <si>
+    <t>6981 JP</t>
+  </si>
+  <si>
+    <t>Souther Copper Corporation</t>
+  </si>
+  <si>
+    <t>SCCO</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>DOW</t>
+  </si>
+  <si>
+    <t>Asian Paints</t>
+  </si>
+  <si>
+    <t>APNT IN</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>Wesfarmers</t>
+  </si>
+  <si>
+    <t>WES AU</t>
+  </si>
+  <si>
+    <t>Sika AG</t>
+  </si>
+  <si>
+    <t>SIKA SW</t>
+  </si>
+  <si>
+    <t>Nio</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>Luxshare Precision</t>
+  </si>
+  <si>
+    <t>002475 CH</t>
+  </si>
+  <si>
+    <t>Adani Enterprises</t>
+  </si>
+  <si>
+    <t>ADE IN</t>
+  </si>
+  <si>
+    <t>Beijing-Shanghai High-Speed Railway</t>
+  </si>
+  <si>
+    <t>601816 CH</t>
+  </si>
+  <si>
+    <t>Cognizant</t>
+  </si>
+  <si>
+    <t>CTSH</t>
+  </si>
+  <si>
+    <t>Fortescue Metals</t>
+  </si>
+  <si>
+    <t>FMG AU</t>
+  </si>
+  <si>
+    <t>Hoya</t>
+  </si>
+  <si>
+    <t>7741 JP</t>
+  </si>
+  <si>
+    <t>Inner Mongolia Yili</t>
+  </si>
+  <si>
+    <t>600887 CH</t>
+  </si>
+  <si>
+    <t>Mitsui</t>
+  </si>
+  <si>
+    <t>8031 JP</t>
+  </si>
+  <si>
+    <t>DSV</t>
+  </si>
+  <si>
+    <t>DSV DC</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki</t>
+  </si>
+  <si>
+    <t>MSIL IN</t>
+  </si>
+  <si>
+    <t>Lucid Group</t>
+  </si>
+  <si>
+    <t>LCID</t>
+  </si>
+  <si>
+    <t>China State Construction</t>
+  </si>
+  <si>
+    <t>601668 CH</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>66 HK</t>
+  </si>
+  <si>
+    <t>Johnson Controls</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>Haier Smart Home</t>
+  </si>
+  <si>
+    <t>600690 CH</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>VOLVB SS</t>
+  </si>
+  <si>
+    <t>Waste Connection</t>
+  </si>
+  <si>
+    <t>WCN CN</t>
+  </si>
+  <si>
+    <t>Parker Hannifin</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Cosco Shipping</t>
+  </si>
+  <si>
+    <t>1919 HK</t>
+  </si>
+  <si>
+    <t>Zijin Mining</t>
+  </si>
+  <si>
+    <t>2899 HK</t>
   </si>
 </sst>
 </file>
@@ -989,13 +1277,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K56"/>
+  <dimension ref="A2:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1651,6 +1939,435 @@
         <v>152</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
@@ -1664,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1915,6 +2632,105 @@
         <v>158</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>145</v>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34213F4B-7333-43C5-85D2-B31A6A4F08C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C49CB8-F743-4B7D-B787-FFD170454D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51600" yWindow="30" windowWidth="22155" windowHeight="14205" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="52380" yWindow="405" windowWidth="24495" windowHeight="20445" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="369">
   <si>
     <t>Name</t>
   </si>
@@ -804,13 +804,355 @@
   </si>
   <si>
     <t>2899 HK</t>
+  </si>
+  <si>
+    <t>Yunnan Energy</t>
+  </si>
+  <si>
+    <t>002812 CH</t>
+  </si>
+  <si>
+    <t>Fanuc</t>
+  </si>
+  <si>
+    <t>6954 JP</t>
+  </si>
+  <si>
+    <t>Carrier Global</t>
+  </si>
+  <si>
+    <t>CARR</t>
+  </si>
+  <si>
+    <t>Trane Technologies</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>HCL Tech</t>
+  </si>
+  <si>
+    <t>HCLT IN</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>7751 JP</t>
+  </si>
+  <si>
+    <t>Transurban</t>
+  </si>
+  <si>
+    <t>TCL AU</t>
+  </si>
+  <si>
+    <t>600406 CH</t>
+  </si>
+  <si>
+    <t>Nari Technology</t>
+  </si>
+  <si>
+    <t>Saudi Arabian Mining</t>
+  </si>
+  <si>
+    <t>MAADEN AB</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>005380 KS</t>
+  </si>
+  <si>
+    <t>Larsen &amp; Toubro</t>
+  </si>
+  <si>
+    <t>LT IN</t>
+  </si>
+  <si>
+    <t>BAE Systems</t>
+  </si>
+  <si>
+    <t>BA/ LN</t>
+  </si>
+  <si>
+    <t>Grupo Mexico</t>
+  </si>
+  <si>
+    <t>GMEXICOB MM</t>
+  </si>
+  <si>
+    <t>Otis Worldwide</t>
+  </si>
+  <si>
+    <t>OTIS</t>
+  </si>
+  <si>
+    <t>TransDigm</t>
+  </si>
+  <si>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>Nucor</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>SMC Corp</t>
+  </si>
+  <si>
+    <t>6273 JP</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>ODFL</t>
+  </si>
+  <si>
+    <t>EVE Energy</t>
+  </si>
+  <si>
+    <t>300014 CH</t>
+  </si>
+  <si>
+    <t>Tianqi Lithium</t>
+  </si>
+  <si>
+    <t>002466 CH</t>
+  </si>
+  <si>
+    <t>Kuehne &amp; Nagel</t>
+  </si>
+  <si>
+    <t>KNIN SW</t>
+  </si>
+  <si>
+    <t>CapGemini</t>
+  </si>
+  <si>
+    <t>CAP FP</t>
+  </si>
+  <si>
+    <t>Samsung SDI</t>
+  </si>
+  <si>
+    <t>006400 KS</t>
+  </si>
+  <si>
+    <t>Rivian</t>
+  </si>
+  <si>
+    <t>RIVN</t>
+  </si>
+  <si>
+    <t>Gree Electric</t>
+  </si>
+  <si>
+    <t>000651 CH</t>
+  </si>
+  <si>
+    <t>Corning</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>SAIC Motor</t>
+  </si>
+  <si>
+    <t>600104 CH</t>
+  </si>
+  <si>
+    <t>PACCAR</t>
+  </si>
+  <si>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>Ganfeng Lithium</t>
+  </si>
+  <si>
+    <t>002460 CH</t>
+  </si>
+  <si>
+    <t>Barrick Gold</t>
+  </si>
+  <si>
+    <t>ABX CN</t>
+  </si>
+  <si>
+    <t>Dupont De Nemour</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>LyondellBasell</t>
+  </si>
+  <si>
+    <t>LYB</t>
+  </si>
+  <si>
+    <t>CMI</t>
+  </si>
+  <si>
+    <t>Cummins</t>
+  </si>
+  <si>
+    <t>Fastenal</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>PPG Industries</t>
+  </si>
+  <si>
+    <t>Sungrow Power</t>
+  </si>
+  <si>
+    <t>300274 CH</t>
+  </si>
+  <si>
+    <t>LG Chem</t>
+  </si>
+  <si>
+    <t>051910 KS</t>
+  </si>
+  <si>
+    <t>Airports of Thailand</t>
+  </si>
+  <si>
+    <t>AOT TB</t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>WPRO IN</t>
+  </si>
+  <si>
+    <t>TCL Zhonghuan</t>
+  </si>
+  <si>
+    <t>002129 CH</t>
+  </si>
+  <si>
+    <t>Henkel</t>
+  </si>
+  <si>
+    <t>HEN3 GR</t>
+  </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>6702 JP</t>
+  </si>
+  <si>
+    <t>Thales</t>
+  </si>
+  <si>
+    <t>HO FP</t>
+  </si>
+  <si>
+    <t>Enphase</t>
+  </si>
+  <si>
+    <t>ENPH</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>CRH ID</t>
+  </si>
+  <si>
+    <t>Weyerhaeuser</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Dr Horton</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>Holcim</t>
+  </si>
+  <si>
+    <t>HOLN SW</t>
+  </si>
+  <si>
+    <t>Keysight</t>
+  </si>
+  <si>
+    <t>KEYS</t>
+  </si>
+  <si>
+    <t>Bridgestone</t>
+  </si>
+  <si>
+    <t>5108 JP</t>
+  </si>
+  <si>
+    <t>Ametek</t>
+  </si>
+  <si>
+    <t>AME</t>
+  </si>
+  <si>
+    <t>914 HK</t>
+  </si>
+  <si>
+    <t>Conch Cement</t>
+  </si>
+  <si>
+    <t>Xpeng</t>
+  </si>
+  <si>
+    <t>XPEV</t>
+  </si>
+  <si>
+    <t>Japan Post</t>
+  </si>
+  <si>
+    <t>6178 JP</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>DSM NA</t>
+  </si>
+  <si>
+    <t>JA Solar Technology</t>
+  </si>
+  <si>
+    <t>002459 CH</t>
+  </si>
+  <si>
+    <t>Aptiv</t>
+  </si>
+  <si>
+    <t>APTV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -825,6 +1167,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -898,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -931,6 +1281,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1277,13 +1628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K95"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2368,6 +2719,545 @@
         <v>254</v>
       </c>
     </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>275</v>
+      </c>
+      <c r="C104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>285</v>
+      </c>
+      <c r="C109" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>299</v>
+      </c>
+      <c r="C113" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>303</v>
+      </c>
+      <c r="C115" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>305</v>
+      </c>
+      <c r="C116" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>313</v>
+      </c>
+      <c r="C120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>315</v>
+      </c>
+      <c r="C121" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>324</v>
+      </c>
+      <c r="C125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>325</v>
+      </c>
+      <c r="C126" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>327</v>
+      </c>
+      <c r="C127" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>333</v>
+      </c>
+      <c r="C128" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>335</v>
+      </c>
+      <c r="C129" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>339</v>
+      </c>
+      <c r="C131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>341</v>
+      </c>
+      <c r="C132" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>347</v>
+      </c>
+      <c r="C135" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>349</v>
+      </c>
+      <c r="C136" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>351</v>
+      </c>
+      <c r="C137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>355</v>
+      </c>
+      <c r="C139" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>358</v>
+      </c>
+      <c r="C140" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>359</v>
+      </c>
+      <c r="C141" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>363</v>
+      </c>
+      <c r="C142" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>365</v>
+      </c>
+      <c r="C143" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>367</v>
+      </c>
+      <c r="C144" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
@@ -2379,16 +3269,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -2731,13 +3622,101 @@
         <v>252</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
       <c r="B29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>146</v>
       </c>
     </row>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C49CB8-F743-4B7D-B787-FFD170454D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4333039E-F051-45C9-BCA0-FB6BA529063C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52380" yWindow="405" windowWidth="24495" windowHeight="20445" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="53250" yWindow="2445" windowWidth="27720" windowHeight="16485" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -1146,6 +1146,12 @@
   </si>
   <si>
     <t>APTV</t>
+  </si>
+  <si>
+    <t>Shenzhen Innovance</t>
+  </si>
+  <si>
+    <t>300124 CH</t>
   </si>
 </sst>
 </file>
@@ -1628,13 +1634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D144" sqref="D144"/>
+      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3256,6 +3262,17 @@
       </c>
       <c r="C144" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4333039E-F051-45C9-BCA0-FB6BA529063C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EE8128-2CD2-4368-A2D8-2D61369668BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53250" yWindow="2445" windowWidth="27720" windowHeight="16485" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-27510" yWindow="2295" windowWidth="27315" windowHeight="18315" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="393">
   <si>
     <t>Name</t>
   </si>
@@ -1152,13 +1152,79 @@
   </si>
   <si>
     <t>300124 CH</t>
+  </si>
+  <si>
+    <t>Kone</t>
+  </si>
+  <si>
+    <t>KNEBV FH</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>FERG</t>
+  </si>
+  <si>
+    <t>Franco-Nevada</t>
+  </si>
+  <si>
+    <t>FNV CN</t>
+  </si>
+  <si>
+    <t>000270 KS</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Qinghai Salt</t>
+  </si>
+  <si>
+    <t>000792 CH</t>
+  </si>
+  <si>
+    <t>Industries Qatar</t>
+  </si>
+  <si>
+    <t>IQCD QD</t>
+  </si>
+  <si>
+    <t>Assa Abloy</t>
+  </si>
+  <si>
+    <t>ASSAB SS</t>
+  </si>
+  <si>
+    <t>Trina Solar</t>
+  </si>
+  <si>
+    <t>688599 CH</t>
+  </si>
+  <si>
+    <t>Albemarle</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Soquimich</t>
+  </si>
+  <si>
+    <t>SQM/B CI</t>
+  </si>
+  <si>
+    <t>Southwest Air</t>
+  </si>
+  <si>
+    <t>LUV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1185,6 +1251,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1250,9 +1320,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1289,7 +1360,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1634,16 +1706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomRight" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
@@ -1651,7 +1723,7 @@
     <col min="4" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +1785,7 @@
         <v>3133.470045</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1724,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1746,7 +1818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1757,7 +1829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1768,7 +1840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1790,7 +1862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +1884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1823,7 +1895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1834,7 +1906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1845,7 +1917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1867,7 +1939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1900,7 +1972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1911,7 +1983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1922,7 +1994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +2005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1944,7 +2016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +2027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1966,7 +2038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1977,7 +2049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1988,7 +2060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1999,7 +2071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2010,7 +2082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2021,7 +2093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2032,7 +2104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +2115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2054,7 +2126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2065,7 +2137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2076,7 +2148,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2087,7 +2159,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2098,7 +2170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2109,7 +2181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2120,7 +2192,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +2203,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2142,7 +2214,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2225,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2175,7 +2247,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -2186,7 +2258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -2197,7 +2269,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2208,7 +2280,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2219,7 +2291,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2230,7 +2302,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2241,7 +2313,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2252,7 +2324,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2263,7 +2335,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2274,7 +2346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2357,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -2296,7 +2368,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -2307,7 +2379,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2390,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +2401,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2340,7 +2412,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2423,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -2362,7 +2434,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2373,7 +2445,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2467,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2406,7 +2478,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -2417,7 +2489,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2428,7 +2500,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -2439,7 +2511,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2450,7 +2522,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2461,7 +2533,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2544,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2483,7 +2555,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2494,7 +2566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2505,7 +2577,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2588,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -2527,7 +2599,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2610,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2549,7 +2621,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -2560,7 +2632,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -2571,7 +2643,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -2582,7 +2654,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2593,7 +2665,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -2604,7 +2676,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2615,7 +2687,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2626,7 +2698,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -2637,7 +2709,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2720,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2731,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -2670,7 +2742,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -2681,7 +2753,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2764,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2703,7 +2775,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2714,7 +2786,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2725,7 +2797,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -2736,7 +2808,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -2747,7 +2819,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2841,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -2780,7 +2852,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -2791,7 +2863,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -2802,7 +2874,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -2813,7 +2885,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2896,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -2835,7 +2907,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -2846,7 +2918,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2857,7 +2929,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -2868,7 +2940,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -2879,7 +2951,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -2890,7 +2962,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -2901,7 +2973,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -2912,7 +2984,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -2923,7 +2995,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +3006,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -2945,7 +3017,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -2956,7 +3028,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -2967,7 +3039,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -2978,7 +3050,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +3061,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3000,7 +3072,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -3011,7 +3083,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -3022,7 +3094,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -3033,7 +3105,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3044,7 +3116,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3127,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -3066,7 +3138,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -3077,7 +3149,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -3088,7 +3160,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -3099,7 +3171,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -3110,7 +3182,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -3121,7 +3193,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -3132,7 +3204,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -3143,7 +3215,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -3154,7 +3226,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -3165,7 +3237,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -3176,7 +3248,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -3187,7 +3259,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -3198,7 +3270,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +3281,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -3220,7 +3292,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -3231,7 +3303,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -3242,7 +3314,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -3253,7 +3325,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -3264,7 +3336,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -3273,6 +3345,116 @@
       </c>
       <c r="C145" t="s">
         <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" t="s">
+        <v>373</v>
+      </c>
+      <c r="C147" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>375</v>
+      </c>
+      <c r="C148" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" t="s">
+        <v>378</v>
+      </c>
+      <c r="C149" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" t="s">
+        <v>379</v>
+      </c>
+      <c r="C150" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" t="s">
+        <v>381</v>
+      </c>
+      <c r="C151" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" t="s">
+        <v>387</v>
+      </c>
+      <c r="C154" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3286,25 +3468,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="4" customFormat="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3375,7 +3557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3386,7 +3568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3397,7 +3579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3408,7 +3590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3419,7 +3601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3430,7 +3612,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3441,7 +3623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3452,7 +3634,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3463,7 +3645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3474,7 +3656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3485,7 +3667,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3496,7 +3678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3507,7 +3689,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +3700,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3529,7 +3711,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3540,7 +3722,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3551,7 +3733,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3562,7 +3744,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3573,7 +3755,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3584,7 +3766,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3595,7 +3777,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3606,7 +3788,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3799,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3628,7 +3810,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3639,7 +3821,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3650,7 +3832,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -3661,7 +3843,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -3672,7 +3854,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3683,7 +3865,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -3694,7 +3876,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3705,7 +3887,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -3716,7 +3898,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3727,13 +3909,24 @@
         <v>362</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
         <v>146</v>
       </c>
     </row>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EE8128-2CD2-4368-A2D8-2D61369668BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F16C4-0DC9-4D66-838D-58C17CAB1739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27510" yWindow="2295" windowWidth="27315" windowHeight="18315" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="18015" yWindow="1170" windowWidth="33330" windowHeight="20340" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="413">
   <si>
     <t>Name</t>
   </si>
@@ -536,9 +536,6 @@
     <t>600309 CH</t>
   </si>
   <si>
-    <t>Mitsubushi</t>
-  </si>
-  <si>
     <t>8058 JP</t>
   </si>
   <si>
@@ -1218,6 +1215,69 @@
   </si>
   <si>
     <t>LUV</t>
+  </si>
+  <si>
+    <t>WW Grainger</t>
+  </si>
+  <si>
+    <t>GWW</t>
+  </si>
+  <si>
+    <t>Borouge</t>
+  </si>
+  <si>
+    <t>BOROUGE UH</t>
+  </si>
+  <si>
+    <t>Chongqing Changan</t>
+  </si>
+  <si>
+    <t>200265 CH</t>
+  </si>
+  <si>
+    <t>Extra Space Storage</t>
+  </si>
+  <si>
+    <t>EXR</t>
+  </si>
+  <si>
+    <t>Central Japan Railway</t>
+  </si>
+  <si>
+    <t>9022 JP</t>
+  </si>
+  <si>
+    <t>China Rail</t>
+  </si>
+  <si>
+    <t>390 HK</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Mitsubishi Electric</t>
+  </si>
+  <si>
+    <t>6503 JP</t>
+  </si>
+  <si>
+    <t>Lennar</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>Sany Heavy</t>
+  </si>
+  <si>
+    <t>600031 CH</t>
+  </si>
+  <si>
+    <t>Vestas Wind</t>
+  </si>
+  <si>
+    <t>VWS DC</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1359,6 +1419,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1389,17 +1455,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>3133.470045</v>
+            <v>3157.7524490000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>18915</v>
+            <v>21107</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>66</v>
+            <v>3553</v>
           </cell>
         </row>
       </sheetData>
@@ -1706,13 +1772,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K155"/>
+  <dimension ref="A2:K164"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B156" sqref="B156"/>
+      <selection pane="bottomRight" activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1720,7 +1786,9 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="11" width="9.140625" style="2"/>
+    <col min="4" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
@@ -1765,24 +1833,27 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
-        <v>288.08999999999997</v>
+      <c r="D3" s="15">
+        <v>109</v>
       </c>
       <c r="E3" s="3">
         <f>+D3*H3</f>
-        <v>902721.38526404998</v>
+        <v>344195.01694100001</v>
       </c>
       <c r="F3" s="3">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>18849</v>
+        <v>17554</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>883872.38526404998</v>
+        <v>326641.01694100001</v>
       </c>
       <c r="H3" s="3">
         <f>+[1]Main!$K$3</f>
-        <v>3133.470045</v>
+        <v>3157.7524490000001</v>
+      </c>
+      <c r="J3" s="16">
+        <v>44922</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2406,10 +2477,10 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
+        <v>404</v>
+      </c>
+      <c r="C60" t="s">
         <v>165</v>
-      </c>
-      <c r="C60" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2417,10 +2488,10 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2428,10 +2499,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
         <v>171</v>
-      </c>
-      <c r="C62" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2439,10 +2510,10 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
         <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2450,10 +2521,10 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2461,10 +2532,10 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
         <v>177</v>
-      </c>
-      <c r="C65" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2472,10 +2543,10 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" t="s">
         <v>179</v>
-      </c>
-      <c r="C66" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2483,10 +2554,10 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
         <v>185</v>
-      </c>
-      <c r="C67" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2494,10 +2565,10 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
         <v>183</v>
-      </c>
-      <c r="C68" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2505,10 +2576,10 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" t="s">
         <v>187</v>
-      </c>
-      <c r="C69" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2516,10 +2587,10 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" t="s">
         <v>189</v>
-      </c>
-      <c r="C70" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2527,10 +2598,10 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s">
         <v>191</v>
-      </c>
-      <c r="C71" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2538,10 +2609,10 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" t="s">
         <v>193</v>
-      </c>
-      <c r="C72" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2549,10 +2620,10 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" t="s">
         <v>197</v>
-      </c>
-      <c r="C73" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2560,10 +2631,10 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" t="s">
         <v>199</v>
-      </c>
-      <c r="C74" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2571,10 +2642,10 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" t="s">
         <v>201</v>
-      </c>
-      <c r="C75" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2582,10 +2653,10 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
         <v>203</v>
-      </c>
-      <c r="C76" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2593,10 +2664,10 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" t="s">
         <v>205</v>
-      </c>
-      <c r="C77" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2604,10 +2675,10 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" t="s">
         <v>207</v>
-      </c>
-      <c r="C78" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2615,10 +2686,10 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" t="s">
         <v>209</v>
-      </c>
-      <c r="C79" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2626,10 +2697,10 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
         <v>211</v>
-      </c>
-      <c r="C80" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2637,10 +2708,10 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" t="s">
         <v>213</v>
-      </c>
-      <c r="C81" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2648,10 +2719,10 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" t="s">
         <v>215</v>
-      </c>
-      <c r="C82" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2659,10 +2730,10 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" t="s">
         <v>217</v>
-      </c>
-      <c r="C83" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2670,10 +2741,10 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" t="s">
         <v>219</v>
-      </c>
-      <c r="C84" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2681,10 +2752,10 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" t="s">
         <v>223</v>
-      </c>
-      <c r="C85" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2692,10 +2763,10 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" t="s">
         <v>225</v>
-      </c>
-      <c r="C86" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2703,10 +2774,10 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" t="s">
         <v>227</v>
-      </c>
-      <c r="C87" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2714,10 +2785,10 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" t="s">
         <v>233</v>
-      </c>
-      <c r="C88" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2725,10 +2796,10 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" t="s">
         <v>235</v>
-      </c>
-      <c r="C89" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2736,10 +2807,10 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" t="s">
         <v>239</v>
-      </c>
-      <c r="C90" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2747,10 +2818,10 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" t="s">
         <v>241</v>
-      </c>
-      <c r="C91" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2758,10 +2829,10 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" t="s">
         <v>243</v>
-      </c>
-      <c r="C92" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2769,10 +2840,10 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" t="s">
         <v>245</v>
-      </c>
-      <c r="C93" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2780,10 +2851,10 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" t="s">
         <v>249</v>
-      </c>
-      <c r="C94" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2791,10 +2862,10 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" t="s">
         <v>253</v>
-      </c>
-      <c r="C95" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2802,10 +2873,10 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
+        <v>254</v>
+      </c>
+      <c r="C96" t="s">
         <v>255</v>
-      </c>
-      <c r="C96" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2813,10 +2884,10 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" t="s">
         <v>257</v>
-      </c>
-      <c r="C97" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2824,10 +2895,10 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" t="s">
         <v>259</v>
-      </c>
-      <c r="C98" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2835,10 +2906,10 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" t="s">
         <v>261</v>
-      </c>
-      <c r="C99" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2846,10 +2917,10 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" t="s">
         <v>265</v>
-      </c>
-      <c r="C100" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2857,10 +2928,10 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2868,10 +2939,10 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" t="s">
         <v>271</v>
-      </c>
-      <c r="C102" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2879,10 +2950,10 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" t="s">
         <v>273</v>
-      </c>
-      <c r="C103" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2890,10 +2961,10 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
         <v>275</v>
-      </c>
-      <c r="C104" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2901,10 +2972,10 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" t="s">
         <v>277</v>
-      </c>
-      <c r="C105" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2912,10 +2983,10 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" t="s">
         <v>279</v>
-      </c>
-      <c r="C106" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2923,10 +2994,10 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" t="s">
         <v>281</v>
-      </c>
-      <c r="C107" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2934,10 +3005,10 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" t="s">
         <v>283</v>
-      </c>
-      <c r="C108" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2945,10 +3016,10 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" t="s">
         <v>285</v>
-      </c>
-      <c r="C109" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2956,10 +3027,10 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" t="s">
         <v>287</v>
-      </c>
-      <c r="C110" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2967,10 +3038,10 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" t="s">
         <v>291</v>
-      </c>
-      <c r="C111" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2978,10 +3049,10 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" t="s">
         <v>293</v>
-      </c>
-      <c r="C112" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2989,10 +3060,10 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" t="s">
         <v>299</v>
-      </c>
-      <c r="C113" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3000,10 +3071,10 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" t="s">
         <v>301</v>
-      </c>
-      <c r="C114" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3011,10 +3082,10 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
+        <v>302</v>
+      </c>
+      <c r="C115" t="s">
         <v>303</v>
-      </c>
-      <c r="C115" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3022,10 +3093,10 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" t="s">
         <v>305</v>
-      </c>
-      <c r="C116" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3033,10 +3104,10 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
+        <v>306</v>
+      </c>
+      <c r="C117" t="s">
         <v>307</v>
-      </c>
-      <c r="C117" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3044,10 +3115,10 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" t="s">
         <v>309</v>
-      </c>
-      <c r="C118" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3055,10 +3126,10 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" t="s">
         <v>311</v>
-      </c>
-      <c r="C119" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3066,10 +3137,10 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" t="s">
         <v>313</v>
-      </c>
-      <c r="C120" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3077,10 +3148,10 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
+        <v>314</v>
+      </c>
+      <c r="C121" t="s">
         <v>315</v>
-      </c>
-      <c r="C121" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3088,10 +3159,10 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" t="s">
         <v>317</v>
-      </c>
-      <c r="C122" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3099,10 +3170,10 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3110,10 +3181,10 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
+        <v>320</v>
+      </c>
+      <c r="C124" t="s">
         <v>321</v>
-      </c>
-      <c r="C124" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3121,10 +3192,10 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3132,10 +3203,10 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" t="s">
         <v>325</v>
-      </c>
-      <c r="C126" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3143,10 +3214,10 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" t="s">
         <v>327</v>
-      </c>
-      <c r="C127" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3154,10 +3225,10 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
+        <v>332</v>
+      </c>
+      <c r="C128" t="s">
         <v>333</v>
-      </c>
-      <c r="C128" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3165,10 +3236,10 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" t="s">
         <v>335</v>
-      </c>
-      <c r="C129" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3176,10 +3247,10 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" t="s">
         <v>337</v>
-      </c>
-      <c r="C130" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3187,10 +3258,10 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
+        <v>338</v>
+      </c>
+      <c r="C131" t="s">
         <v>339</v>
-      </c>
-      <c r="C131" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3198,10 +3269,10 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132" t="s">
         <v>341</v>
-      </c>
-      <c r="C132" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3209,10 +3280,10 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
+        <v>342</v>
+      </c>
+      <c r="C133" t="s">
         <v>343</v>
-      </c>
-      <c r="C133" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3220,10 +3291,10 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
+        <v>344</v>
+      </c>
+      <c r="C134" t="s">
         <v>345</v>
-      </c>
-      <c r="C134" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3231,10 +3302,10 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C135" t="s">
         <v>347</v>
-      </c>
-      <c r="C135" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3242,10 +3313,10 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
+        <v>348</v>
+      </c>
+      <c r="C136" t="s">
         <v>349</v>
-      </c>
-      <c r="C136" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3253,10 +3324,10 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
+        <v>350</v>
+      </c>
+      <c r="C137" t="s">
         <v>351</v>
-      </c>
-      <c r="C137" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3264,10 +3335,10 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
+        <v>352</v>
+      </c>
+      <c r="C138" t="s">
         <v>353</v>
-      </c>
-      <c r="C138" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3275,10 +3346,10 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" t="s">
         <v>355</v>
-      </c>
-      <c r="C139" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3286,10 +3357,10 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3297,10 +3368,10 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" t="s">
         <v>359</v>
-      </c>
-      <c r="C141" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3308,10 +3379,10 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
+        <v>362</v>
+      </c>
+      <c r="C142" t="s">
         <v>363</v>
-      </c>
-      <c r="C142" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3319,10 +3390,10 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
+        <v>364</v>
+      </c>
+      <c r="C143" t="s">
         <v>365</v>
-      </c>
-      <c r="C143" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3330,10 +3401,10 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
+        <v>366</v>
+      </c>
+      <c r="C144" t="s">
         <v>367</v>
-      </c>
-      <c r="C144" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3341,10 +3412,10 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
+        <v>368</v>
+      </c>
+      <c r="C145" t="s">
         <v>369</v>
-      </c>
-      <c r="C145" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3352,10 +3423,10 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
+        <v>370</v>
+      </c>
+      <c r="C146" t="s">
         <v>371</v>
-      </c>
-      <c r="C146" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3363,10 +3434,10 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
+        <v>372</v>
+      </c>
+      <c r="C147" t="s">
         <v>373</v>
-      </c>
-      <c r="C147" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3374,10 +3445,10 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
+        <v>374</v>
+      </c>
+      <c r="C148" t="s">
         <v>375</v>
-      </c>
-      <c r="C148" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3385,10 +3456,10 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C149" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3396,10 +3467,10 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
+        <v>378</v>
+      </c>
+      <c r="C150" t="s">
         <v>379</v>
-      </c>
-      <c r="C150" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3407,10 +3478,10 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
+        <v>380</v>
+      </c>
+      <c r="C151" t="s">
         <v>381</v>
-      </c>
-      <c r="C151" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3418,10 +3489,10 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
+        <v>382</v>
+      </c>
+      <c r="C152" t="s">
         <v>383</v>
-      </c>
-      <c r="C152" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3429,10 +3500,10 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
+        <v>384</v>
+      </c>
+      <c r="C153" t="s">
         <v>385</v>
-      </c>
-      <c r="C153" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3440,10 +3511,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
+        <v>386</v>
+      </c>
+      <c r="C154" t="s">
         <v>387</v>
-      </c>
-      <c r="C154" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3451,10 +3522,109 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
+        <v>388</v>
+      </c>
+      <c r="C155" t="s">
         <v>389</v>
       </c>
-      <c r="C155" t="s">
-        <v>390</v>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>392</v>
+      </c>
+      <c r="C156" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s">
+        <v>400</v>
+      </c>
+      <c r="C159" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>402</v>
+      </c>
+      <c r="C160" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>405</v>
+      </c>
+      <c r="C161" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" t="s">
+        <v>407</v>
+      </c>
+      <c r="C162" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>409</v>
+      </c>
+      <c r="C163" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>411</v>
+      </c>
+      <c r="C164" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3470,9 +3640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3727,10 +3895,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
         <v>169</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3738,10 +3906,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
         <v>181</v>
-      </c>
-      <c r="C19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3749,10 +3917,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" t="s">
         <v>195</v>
-      </c>
-      <c r="C20" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3760,10 +3928,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" t="s">
         <v>221</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3771,10 +3939,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" t="s">
         <v>229</v>
-      </c>
-      <c r="C22" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3782,10 +3950,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" t="s">
         <v>231</v>
-      </c>
-      <c r="C23" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3793,10 +3961,10 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
         <v>237</v>
-      </c>
-      <c r="C24" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3804,10 +3972,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" t="s">
         <v>247</v>
-      </c>
-      <c r="C25" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3815,10 +3983,10 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
         <v>251</v>
-      </c>
-      <c r="C26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3826,10 +3994,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" t="s">
         <v>263</v>
-      </c>
-      <c r="C27" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3837,10 +4005,10 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
         <v>267</v>
-      </c>
-      <c r="C28" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3848,10 +4016,10 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" t="s">
         <v>289</v>
-      </c>
-      <c r="C29" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3859,10 +4027,10 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
         <v>295</v>
-      </c>
-      <c r="C30" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3870,10 +4038,10 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" t="s">
         <v>297</v>
-      </c>
-      <c r="C31" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3881,10 +4049,10 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" t="s">
         <v>329</v>
-      </c>
-      <c r="C32" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3892,10 +4060,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" t="s">
         <v>331</v>
-      </c>
-      <c r="C33" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3903,10 +4071,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C34" t="s">
         <v>361</v>
-      </c>
-      <c r="C34" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3914,10 +4082,21 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" t="s">
         <v>391</v>
       </c>
-      <c r="C35" t="s">
-        <v>392</v>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:3">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F16C4-0DC9-4D66-838D-58C17CAB1739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E443F-097B-4B8E-9E25-B9C4B401C96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18015" yWindow="1170" windowWidth="33330" windowHeight="20340" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="414">
   <si>
     <t>Name</t>
   </si>
@@ -1278,6 +1278,9 @@
   </si>
   <si>
     <t>VWS DC</t>
+  </si>
+  <si>
+    <t>Q322</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1472,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1774,11 +1777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C165" sqref="C165"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1852,8 +1855,11 @@
         <f>+[1]Main!$K$3</f>
         <v>3157.7524490000001</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>413</v>
+      </c>
       <c r="J3" s="16">
-        <v>44922</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="4" spans="1:11">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E443F-097B-4B8E-9E25-B9C4B401C96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4ED063-05D0-4DD9-ABEA-DBAF5088082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-41535" yWindow="3690" windowWidth="40860" windowHeight="16275" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1448,8 +1448,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -1777,11 +1780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4ED063-05D0-4DD9-ABEA-DBAF5088082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9354FA-E9D3-4E67-8306-B677CAFC9F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41535" yWindow="3690" windowWidth="40860" windowHeight="16275" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -1435,7 +1435,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0142200E-5C05-46F8-AAD3-26C8830B8072}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1770,7 +1772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1784,7 +1786,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9354FA-E9D3-4E67-8306-B677CAFC9F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E912E31-AE08-4099-B22E-4E6A2CF059D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="22935" yWindow="150" windowWidth="28575" windowHeight="20595" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="416">
   <si>
     <t>Name</t>
   </si>
@@ -59,9 +60,6 @@
     <t>MC</t>
   </si>
   <si>
-    <t>Berkshire</t>
-  </si>
-  <si>
     <t>BRK/A</t>
   </si>
   <si>
@@ -1281,6 +1279,15 @@
   </si>
   <si>
     <t>Q322</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway</t>
+  </si>
+  <si>
+    <t>BRK/B</t>
+  </si>
+  <si>
+    <t>Q421</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1484,39 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>1.4761481073333333</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>531247</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>294476</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1772,7 +1811,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1780,13 +1819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K164"/>
+  <dimension ref="A2:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1813,27 +1852,27 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1861,7 +1900,7 @@
         <v>3157.7524490000001</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J3" s="16">
         <v>44930</v>
@@ -1869,219 +1908,269 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="D4" s="3">
+        <v>474555</v>
+      </c>
+      <c r="E4" s="3">
+        <f>+D4*H4</f>
+        <v>700513.46507557004</v>
+      </c>
+      <c r="F4" s="3">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>236771</v>
+      </c>
+      <c r="G4" s="3">
+        <f>+E4-F4</f>
+        <v>463742.46507557004</v>
+      </c>
+      <c r="H4" s="3">
+        <f>+[2]Main!$K$3</f>
+        <v>1.4761481073333333</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" s="16">
+        <v>44964</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>414</v>
+      </c>
+      <c r="D5" s="2">
+        <v>312.97000000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <f>+D5*H5*1500</f>
+        <v>692985.10972817009</v>
+      </c>
+      <c r="F5" s="3">
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <v>236771</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+E5-F5</f>
+        <v>456214.10972817009</v>
+      </c>
+      <c r="H5" s="3">
+        <f>+[2]Main!$K$3</f>
+        <v>1.4761481073333333</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J5" s="16">
+        <v>44964</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -2089,1561 +2178,1574 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C104" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C108" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C111" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C113" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C116" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C117" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C118" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C123" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C125" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C128" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C129" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C130" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C132" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C134" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C135" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C138" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C141" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C142" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C143" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C144" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C145" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C146" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C147" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C148" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C149" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C150" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C151" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C152" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C153" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C154" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C155" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C156" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C157" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C158" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C159" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C160" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C161" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C162" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C163" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B164" t="s">
+        <v>408</v>
+      </c>
+      <c r="C164" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>410</v>
+      </c>
+      <c r="C165" t="s">
         <v>411</v>
-      </c>
-      <c r="C164" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3662,7 +3764,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1">
@@ -3679,49 +3781,49 @@
         <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="S2" s="11">
         <v>2025</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="10">
         <v>2023</v>
@@ -3733,391 +3835,391 @@
         <v>2025</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
         <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
         <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
         <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
         <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
         <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
         <v>149</v>
-      </c>
-      <c r="C14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
         <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
         <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
         <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
         <v>168</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" t="s">
         <v>180</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
         <v>194</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
         <v>220</v>
-      </c>
-      <c r="C21" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" t="s">
         <v>228</v>
-      </c>
-      <c r="C22" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
         <v>230</v>
-      </c>
-      <c r="C23" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s">
         <v>236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
         <v>246</v>
-      </c>
-      <c r="C25" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" t="s">
         <v>250</v>
-      </c>
-      <c r="C26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" t="s">
         <v>262</v>
-      </c>
-      <c r="C27" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" t="s">
         <v>266</v>
-      </c>
-      <c r="C28" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" t="s">
         <v>288</v>
-      </c>
-      <c r="C29" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
         <v>294</v>
-      </c>
-      <c r="C30" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" t="s">
         <v>296</v>
-      </c>
-      <c r="C31" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" t="s">
         <v>328</v>
-      </c>
-      <c r="C32" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" t="s">
         <v>330</v>
-      </c>
-      <c r="C33" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" t="s">
         <v>360</v>
-      </c>
-      <c r="C34" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" t="s">
         <v>390</v>
-      </c>
-      <c r="C35" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36" t="s">
         <v>398</v>
-      </c>
-      <c r="C36" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E912E31-AE08-4099-B22E-4E6A2CF059D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C42FC-056A-4B45-80D3-EC0E4F3C978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22935" yWindow="150" windowWidth="28575" windowHeight="20595" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1825,7 +1825,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C42FC-056A-4B45-80D3-EC0E4F3C978E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC61078E-2FDC-4610-B0E1-A35EE58118BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="20070" yWindow="735" windowWidth="30465" windowHeight="20220" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1465,6 +1465,7 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Manufacturing"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1484,7 +1485,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1825,7 +1827,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC61078E-2FDC-4610-B0E1-A35EE58118BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154B137-30D4-4581-9A87-BB560FC54DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20070" yWindow="735" windowWidth="30465" windowHeight="20220" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="23010" yWindow="3525" windowWidth="19200" windowHeight="13095" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="418">
   <si>
     <t>Name</t>
   </si>
@@ -1288,6 +1288,12 @@
   </si>
   <si>
     <t>Q421</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>P911 GR</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1491,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1821,13 +1827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K165"/>
+  <dimension ref="A2:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2161,10 +2167,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2172,10 +2178,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2183,10 +2189,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2194,10 +2200,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2205,10 +2211,10 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2216,10 +2222,10 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2227,10 +2233,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2238,10 +2244,10 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2249,10 +2255,10 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2260,10 +2266,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2271,10 +2277,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2282,10 +2288,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2293,10 +2299,10 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2304,10 +2310,10 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2315,10 +2321,10 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2326,10 +2332,10 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2337,10 +2343,10 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2348,10 +2354,10 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2359,10 +2365,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2370,10 +2376,10 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2381,10 +2387,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2392,10 +2398,10 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2403,10 +2409,10 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2414,10 +2420,10 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2425,10 +2431,10 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2436,10 +2442,10 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2447,10 +2453,10 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2458,10 +2464,10 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2469,10 +2475,10 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2480,10 +2486,10 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2491,10 +2497,10 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2502,10 +2508,10 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2513,10 +2519,10 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2524,10 +2530,10 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2535,10 +2541,10 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2546,10 +2552,10 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2557,10 +2563,10 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2568,10 +2574,10 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2579,10 +2585,10 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2590,10 +2596,10 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>403</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2601,10 +2607,10 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2612,10 +2618,10 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2623,10 +2629,10 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2634,10 +2640,10 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2645,10 +2651,10 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2656,10 +2662,10 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2667,10 +2673,10 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2678,10 +2684,10 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2689,10 +2695,10 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2700,10 +2706,10 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2711,10 +2717,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2722,10 +2728,10 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2733,10 +2739,10 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2744,10 +2750,10 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2755,10 +2761,10 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2766,10 +2772,10 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2777,10 +2783,10 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2788,10 +2794,10 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2799,10 +2805,10 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2810,10 +2816,10 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2821,10 +2827,10 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2832,10 +2838,10 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2843,10 +2849,10 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2854,10 +2860,10 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2865,10 +2871,10 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2876,10 +2882,10 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2887,10 +2893,10 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2898,10 +2904,10 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2909,10 +2915,10 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2920,10 +2926,10 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2931,10 +2937,10 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2942,10 +2948,10 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2953,10 +2959,10 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2964,10 +2970,10 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2975,10 +2981,10 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2986,10 +2992,10 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2997,10 +3003,10 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3008,10 +3014,10 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3019,10 +3025,10 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3030,10 +3036,10 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3041,10 +3047,10 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3052,10 +3058,10 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3063,10 +3069,10 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C104" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3074,10 +3080,10 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3085,10 +3091,10 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C106" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3096,10 +3102,10 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C107" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3107,10 +3113,10 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C108" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3118,10 +3124,10 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3129,10 +3135,10 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3140,10 +3146,10 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3151,10 +3157,10 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C112" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3162,10 +3168,10 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3173,10 +3179,10 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C114" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3184,10 +3190,10 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3195,10 +3201,10 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C116" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3206,10 +3212,10 @@
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C117" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3217,10 +3223,10 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3228,10 +3234,10 @@
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3239,10 +3245,10 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C120" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3250,10 +3256,10 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C121" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3261,10 +3267,10 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3272,10 +3278,10 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3283,10 +3289,10 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3294,10 +3300,10 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C125" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3305,10 +3311,10 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C126" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3316,10 +3322,10 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3327,10 +3333,10 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C128" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3338,10 +3344,10 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C129" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3349,10 +3355,10 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C130" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3360,10 +3366,10 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3371,10 +3377,10 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C132" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3382,10 +3388,10 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3393,10 +3399,10 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C134" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3404,10 +3410,10 @@
         <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C135" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3415,10 +3421,10 @@
         <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C136" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3426,10 +3432,10 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3437,10 +3443,10 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3448,10 +3454,10 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C139" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3459,10 +3465,10 @@
         <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3470,10 +3476,10 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3481,10 +3487,10 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C142" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3492,10 +3498,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C143" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3503,10 +3509,10 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C144" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3514,10 +3520,10 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C145" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3525,10 +3531,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C146" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3536,10 +3542,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C147" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3547,10 +3553,10 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C148" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3558,10 +3564,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C149" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3569,10 +3575,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C150" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3580,10 +3586,10 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C151" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3591,10 +3597,10 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C152" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3602,10 +3608,10 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3613,10 +3619,10 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C154" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3624,10 +3630,10 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3635,10 +3641,10 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C156" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3646,10 +3652,10 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C157" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3657,10 +3663,10 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C158" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3668,10 +3674,10 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C159" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3679,10 +3685,10 @@
         <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C160" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3690,10 +3696,10 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C161" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3701,10 +3707,10 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C162" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3712,10 +3718,10 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C163" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3723,10 +3729,10 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C164" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3734,9 +3740,20 @@
         <v>19</v>
       </c>
       <c r="B165" t="s">
+        <v>408</v>
+      </c>
+      <c r="C165" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
         <v>410</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3755,7 +3772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154B137-30D4-4581-9A87-BB560FC54DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4225A4-F55B-994F-8A39-C9A82B6ECBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23010" yWindow="3525" windowWidth="19200" windowHeight="13095" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-19480" yWindow="2220" windowWidth="19200" windowHeight="13100" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1300,7 +1300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1331,6 +1331,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1531,9 +1532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1571,7 +1572,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1677,7 +1678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1819,7 +1820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1830,23 +1831,23 @@
   <dimension ref="A2:K166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="9" width="9.1640625" style="2"/>
+    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1889,11 +1890,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="15">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3">
         <f>+D3*H3</f>
-        <v>344195.01694100001</v>
+        <v>555764.43102400005</v>
       </c>
       <c r="F3" s="3">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
@@ -1901,7 +1902,7 @@
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>326641.01694100001</v>
+        <v>538210.43102400005</v>
       </c>
       <c r="H3" s="3">
         <f>+[1]Main!$K$3</f>
@@ -1914,7 +1915,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -3776,19 +3777,19 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1">
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -4233,12 +4234,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>145</v>
       </c>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4225A4-F55B-994F-8A39-C9A82B6ECBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B6BB4-B367-9048-B8AD-BB86E220F13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19480" yWindow="2220" windowWidth="19200" windowHeight="13100" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-40140" yWindow="-20800" windowWidth="24600" windowHeight="14820" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1834,7 +1834,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3774,7 +3774,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B6BB4-B367-9048-B8AD-BB86E220F13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9B891-881F-4590-8FB0-23F8561B7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40140" yWindow="-20800" windowWidth="24600" windowHeight="14820" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-22305" yWindow="3405" windowWidth="18720" windowHeight="15240" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="419">
   <si>
     <t>Name</t>
   </si>
@@ -1294,13 +1295,16 @@
   </si>
   <si>
     <t>P911 GR</t>
+  </si>
+  <si>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1478,17 +1482,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>3157.7524490000001</v>
+            <v>3194.6404149999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>21107</v>
+            <v>30720</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>3553</v>
+            <v>7745</v>
           </cell>
         </row>
       </sheetData>
@@ -1526,6 +1530,40 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>610.13520500000004</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>17000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>52307</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1830,24 +1868,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="9" width="9.1640625" style="2"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1894,19 +1932,19 @@
       </c>
       <c r="E3" s="3">
         <f>+D3*H3</f>
-        <v>555764.43102400005</v>
+        <v>562256.71303999994</v>
       </c>
       <c r="F3" s="3">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>17554</v>
+        <v>22975</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>538210.43102400005</v>
+        <v>539281.71303999994</v>
       </c>
       <c r="H3" s="3">
         <f>+[1]Main!$K$3</f>
-        <v>3157.7524490000001</v>
+        <v>3194.6404149999998</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>412</v>
@@ -1915,7 +1953,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +1989,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1987,7 +2025,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1998,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2009,7 +2047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2031,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +2080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2053,7 +2091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2064,7 +2102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2075,7 +2113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2108,7 +2146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2119,7 +2157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2152,7 +2190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2163,7 +2201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2174,18 +2212,43 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="15">
+        <v>174.9</v>
+      </c>
+      <c r="E23" s="3">
+        <f>+D23*H23</f>
+        <v>106712.6473545</v>
+      </c>
+      <c r="F23" s="3">
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
+        <v>-35307</v>
+      </c>
+      <c r="G23" s="3">
+        <f>+E23-F23</f>
+        <v>142019.64735450002</v>
+      </c>
+      <c r="H23" s="3">
+        <f>+[3]Main!$J$3</f>
+        <v>610.13520500000004</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="J23" s="16">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2196,7 +2259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2292,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2240,7 +2303,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2251,7 +2314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2262,7 +2325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2273,7 +2336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2306,7 +2369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2317,7 +2380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2328,7 +2391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2339,7 +2402,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2413,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2361,7 +2424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2372,7 +2435,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2383,7 +2446,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2394,7 +2457,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2405,7 +2468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2416,7 +2479,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2427,7 +2490,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2438,7 +2501,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2512,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2460,7 +2523,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2471,7 +2534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +2545,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2493,7 +2556,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2504,7 +2567,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2515,7 +2578,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2526,7 +2589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2600,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2611,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2559,7 +2622,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2570,7 +2633,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2581,7 +2644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2592,7 +2655,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2603,7 +2666,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2614,7 +2677,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2625,7 +2688,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2636,7 +2699,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -2647,7 +2710,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -2658,7 +2721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2669,7 +2732,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2743,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -2691,7 +2754,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -2702,7 +2765,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2713,7 +2776,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -2724,7 +2787,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2735,7 +2798,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2746,7 +2809,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2820,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2768,7 +2831,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2790,7 +2853,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +2864,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -2812,7 +2875,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -2823,7 +2886,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -2834,7 +2897,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +2908,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -2856,7 +2919,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2867,7 +2930,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -2878,7 +2941,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2889,7 +2952,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -2900,7 +2963,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -2911,7 +2974,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -2922,7 +2985,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -2933,7 +2996,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -2944,7 +3007,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +3018,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2966,7 +3029,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +3040,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -2988,7 +3051,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -2999,7 +3062,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -3010,7 +3073,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3084,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -3032,7 +3095,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -3043,7 +3106,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -3054,7 +3117,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -3065,7 +3128,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -3076,7 +3139,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -3087,7 +3150,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -3098,7 +3161,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3109,7 +3172,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3183,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -3131,7 +3194,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -3142,7 +3205,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3153,7 +3216,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -3164,7 +3227,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -3175,7 +3238,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -3186,7 +3249,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -3197,7 +3260,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -3208,7 +3271,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -3219,7 +3282,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -3230,7 +3293,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -3241,7 +3304,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -3252,7 +3315,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -3263,7 +3326,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -3274,7 +3337,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -3285,7 +3348,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -3296,7 +3359,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -3307,7 +3370,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -3318,7 +3381,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -3329,7 +3392,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -3340,7 +3403,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -3351,7 +3414,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -3362,7 +3425,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -3373,7 +3436,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3384,7 +3447,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3395,7 +3458,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -3406,7 +3469,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -3417,7 +3480,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -3428,7 +3491,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -3439,7 +3502,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -3450,7 +3513,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -3461,7 +3524,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3535,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -3483,7 +3546,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -3494,7 +3557,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -3505,7 +3568,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -3516,7 +3579,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -3527,7 +3590,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -3538,7 +3601,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -3549,7 +3612,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -3560,7 +3623,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -3571,7 +3634,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -3582,7 +3645,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -3593,7 +3656,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -3604,7 +3667,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -3615,7 +3678,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -3626,7 +3689,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -3637,7 +3700,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -3648,7 +3711,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -3659,7 +3722,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -3670,7 +3733,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -3681,7 +3744,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -3692,7 +3755,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -3703,7 +3766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3714,7 +3777,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -3725,7 +3788,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -3736,7 +3799,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -3747,7 +3810,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -3763,9 +3826,10 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3777,19 +3841,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="4" customFormat="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +3924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3871,7 +3935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3882,7 +3946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3893,7 +3957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3904,7 +3968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3915,7 +3979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3926,7 +3990,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3937,7 +4001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3948,7 +4012,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3959,7 +4023,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3970,7 +4034,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3981,7 +4045,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3992,7 +4056,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4003,7 +4067,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4014,7 +4078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4025,7 +4089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4036,7 +4100,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4047,7 +4111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4058,7 +4122,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4069,7 +4133,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4080,7 +4144,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4091,7 +4155,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4102,7 +4166,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4113,7 +4177,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4124,7 +4188,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4135,7 +4199,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4146,7 +4210,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4157,7 +4221,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -4168,7 +4232,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -4179,7 +4243,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -4190,7 +4254,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -4201,7 +4265,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -4212,7 +4276,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -4223,7 +4287,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -4234,12 +4298,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="B39" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="B40" t="s">
         <v>145</v>
       </c>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9B891-881F-4590-8FB0-23F8561B7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E289B5E8-0A6C-4A7D-A342-CD48806A99FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22305" yWindow="3405" windowWidth="18720" windowHeight="15240" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-33045" yWindow="2250" windowWidth="28770" windowHeight="15450" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="422">
   <si>
     <t>Name</t>
   </si>
@@ -1298,6 +1298,15 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Symbotic</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -1866,13 +1875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K166"/>
+  <dimension ref="A2:K167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -3755,7 +3764,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -3788,7 +3797,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -3819,6 +3828,23 @@
       </c>
       <c r="C166" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="B167" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C167" t="s">
+        <v>420</v>
+      </c>
+      <c r="D167" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="I167" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="J167" s="16">
+        <v>45545</v>
       </c>
     </row>
   </sheetData>
@@ -3827,9 +3853,10 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B23" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
+    <hyperlink ref="B167" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E289B5E8-0A6C-4A7D-A342-CD48806A99FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5C93A8-5DE9-498D-9499-59FAEAA6644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33045" yWindow="2250" windowWidth="28770" windowHeight="15450" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-41895" yWindow="1470" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="424">
   <si>
     <t>Name</t>
   </si>
@@ -1307,6 +1308,12 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Applied Digital</t>
+  </si>
+  <si>
+    <t>APLD</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1422,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1455,6 +1462,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1569,6 +1578,40 @@
         <row r="6">
           <cell r="J6">
             <v>52307</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>206.820246</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>184.68799999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>89.554000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -1877,11 +1920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C154" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I168" sqref="I168"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -3864,8 +3907,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -3873,6 +3919,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4281,7 +4328,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -4292,7 +4339,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -4303,7 +4350,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -4314,7 +4361,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -4325,17 +4372,53 @@
         <v>398</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37">
+        <v>5.92</v>
+      </c>
+      <c r="E37" s="17">
+        <f>+D37*H37</f>
+        <v>1224.3758563199999</v>
+      </c>
+      <c r="F37" s="17">
+        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <v>95.133999999999986</v>
+      </c>
+      <c r="G37" s="17">
+        <f>+E37-F37</f>
+        <v>1129.2418563199999</v>
+      </c>
+      <c r="H37" s="17">
+        <f>+[4]Main!$K$3</f>
+        <v>206.820246</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="J37" s="18">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="B39" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:10">
       <c r="B40" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5C93A8-5DE9-498D-9499-59FAEAA6644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587F383A-D20E-4070-BF8A-DCD9C577F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41895" yWindow="1470" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-40050" yWindow="1635" windowWidth="28230" windowHeight="17955" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="423">
   <si>
     <t>Name</t>
   </si>
@@ -1278,9 +1280,6 @@
   </si>
   <si>
     <t>VWS DC</t>
-  </si>
-  <si>
-    <t>Q322</t>
   </si>
   <si>
     <t>Berkshire Hathaway</t>
@@ -1320,7 +1319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1351,6 +1350,13 @@
     <font>
       <sz val="9"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1422,7 +1428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1464,6 +1470,11 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1495,6 +1506,7 @@
       <sheetName val="Main"/>
       <sheetName val="Model"/>
       <sheetName val="Manufacturing"/>
+      <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1514,8 +1526,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1616,6 +1629,72 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="L4">
+            <v>13469.159202000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>30928716</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>39486312</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2909.2658550000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>72201.659999999989</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>27778.79</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1920,11 +1999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K167"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1932,7 +2011,9 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
@@ -1980,11 +2061,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="15">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="E3" s="3">
         <f>+D3*H3</f>
-        <v>562256.71303999994</v>
+        <v>811438.66541000002</v>
       </c>
       <c r="F3" s="3">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
@@ -1992,17 +2073,17 @@
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>539281.71303999994</v>
+        <v>788463.66541000002</v>
       </c>
       <c r="H3" s="3">
         <f>+[1]Main!$K$3</f>
         <v>3194.6404149999998</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="J3" s="16">
-        <v>44930</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2010,7 +2091,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2035,7 +2116,7 @@
         <v>1.4761481073333333</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J4" s="16">
         <v>44964</v>
@@ -2046,10 +2127,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" t="s">
         <v>413</v>
-      </c>
-      <c r="C5" t="s">
-        <v>414</v>
       </c>
       <c r="D5" s="2">
         <v>312.97000000000003</v>
@@ -2071,7 +2152,7 @@
         <v>1.4761481073333333</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J5" s="16">
         <v>44964</v>
@@ -2081,44 +2162,144 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="15">
+        <v>2643.5</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+D6*H6/145</f>
+        <v>245556.70586542759</v>
+      </c>
+      <c r="F6" s="3">
+        <f>+([5]Main!$L$8-[5]Main!$L$9)/145</f>
+        <v>-59017.903448275865</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+E6-F6</f>
+        <v>304574.60931370343</v>
+      </c>
+      <c r="H6" s="3">
+        <f>+[5]Main!$L$4</f>
+        <v>13469.159202000001</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J6" s="16">
+        <v>45560</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="15">
+        <v>184.11</v>
+      </c>
+      <c r="E7" s="3">
+        <f>+D7*H7/10</f>
+        <v>247980.69006802203</v>
+      </c>
+      <c r="F7" s="3">
+        <f>+([5]Main!$L$8-[5]Main!$L$9)/145</f>
+        <v>-59017.903448275865</v>
+      </c>
+      <c r="G7" s="3">
+        <f>+E7-F7</f>
+        <v>306998.59351629787</v>
+      </c>
+      <c r="H7" s="3">
+        <f>+[5]Main!$L$4</f>
+        <v>13469.159202000001</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J7" s="16">
+        <v>45560</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="D8" s="15">
+        <v>174.9</v>
+      </c>
+      <c r="E8" s="3">
+        <f>+D8*H8</f>
+        <v>106712.6473545</v>
+      </c>
+      <c r="F8" s="3">
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
+        <v>-35307</v>
+      </c>
+      <c r="G8" s="3">
+        <f>+E8-F8</f>
+        <v>142019.64735450002</v>
+      </c>
+      <c r="H8" s="3">
+        <f>+[3]Main!$J$3</f>
+        <v>610.13520500000004</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="J8" s="16">
+        <v>45527</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="D9" s="15">
+        <v>251.8</v>
+      </c>
+      <c r="E9" s="3">
+        <f>+D9*H9/7</f>
+        <v>104650.44889842859</v>
+      </c>
+      <c r="F9" s="3">
+        <f>+([6]Main!$L$5-[6]Main!$L$6)/7</f>
+        <v>6346.1242857142843</v>
+      </c>
+      <c r="G9" s="3">
+        <f>+E9-F9</f>
+        <v>98304.324612714307</v>
+      </c>
+      <c r="H9" s="3">
+        <f>+[6]Main!$L$3</f>
+        <v>2909.2658550000001</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J9" s="16">
+        <v>45560</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2126,10 +2307,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2137,10 +2318,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2148,10 +2329,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2159,10 +2340,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2170,10 +2351,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2181,10 +2362,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2192,115 +2373,90 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" t="s">
         <v>416</v>
       </c>
-      <c r="C22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="15">
-        <v>174.9</v>
-      </c>
-      <c r="E23" s="3">
-        <f>+D23*H23</f>
-        <v>106712.6473545</v>
-      </c>
-      <c r="F23" s="3">
-        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
-        <v>-35307</v>
-      </c>
-      <c r="G23" s="3">
-        <f>+E23-F23</f>
-        <v>142019.64735450002</v>
-      </c>
-      <c r="H23" s="3">
-        <f>+[3]Main!$J$3</f>
-        <v>610.13520500000004</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="J23" s="16">
-        <v>45527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2311,18 +2467,26 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:11" s="19" customFormat="1">
+      <c r="A25" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2333,7 +2497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2344,7 +2508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2355,7 +2519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2366,7 +2530,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2541,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2388,7 +2552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2399,7 +2563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2574,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2421,7 +2585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2443,7 +2607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2454,7 +2618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2465,7 +2629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2487,18 +2651,26 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:11" s="19" customFormat="1">
+      <c r="A41" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2681,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2520,7 +2692,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2531,7 +2703,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2542,7 +2714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2553,7 +2725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2564,29 +2736,45 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:11" s="19" customFormat="1">
+      <c r="A48" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" s="19" customFormat="1">
+      <c r="A49" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2597,18 +2785,26 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:11" s="19" customFormat="1">
+      <c r="A51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2619,7 +2815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2630,7 +2826,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2641,7 +2837,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2652,7 +2848,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2663,7 +2859,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2674,18 +2870,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2696,7 +2892,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2707,7 +2903,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2718,7 +2914,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2729,7 +2925,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2740,7 +2936,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2755,10 +2951,10 @@
       <c r="A65" t="s">
         <v>19</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="19" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2810,10 +3006,10 @@
       <c r="A70" t="s">
         <v>19</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="19" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2917,13 +3113,13 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="19" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2950,13 +3146,13 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="19" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3082,13 +3278,13 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="19" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3875,16 +4071,16 @@
     </row>
     <row r="167" spans="1:10">
       <c r="B167" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C167" t="s">
         <v>419</v>
-      </c>
-      <c r="C167" t="s">
-        <v>420</v>
       </c>
       <c r="D167" s="2">
         <v>17.71</v>
       </c>
       <c r="I167" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J167" s="16">
         <v>45545</v>
@@ -3895,11 +4091,14 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
-    <hyperlink ref="B23" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
     <hyperlink ref="B167" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3907,7 +4106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4374,10 +4573,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="B37" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C37" t="s">
         <v>422</v>
-      </c>
-      <c r="C37" t="s">
-        <v>423</v>
       </c>
       <c r="D37">
         <v>5.92</v>
@@ -4399,7 +4598,7 @@
         <v>206.820246</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J37" s="18">
         <v>45555</v>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587F383A-D20E-4070-BF8A-DCD9C577F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA32AD6-74B5-4B78-A3E6-B7E0FF20C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40050" yWindow="1635" windowWidth="28230" windowHeight="17955" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-39360" yWindow="2325" windowWidth="28230" windowHeight="17955" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1428,7 +1428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1474,7 +1474,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1578,6 +1577,40 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="L4">
+            <v>13469.159202000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>30928716</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>39486312</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
             <v>610.13520500000004</v>
@@ -1600,7 +1633,39 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>2909.2658550000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>72201.659999999989</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>27778.79</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1629,72 +1694,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="L4">
-            <v>13469.159202000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="L8">
-            <v>30928716</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9">
-            <v>39486312</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>2909.2658550000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>72201.659999999989</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>27778.79</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2000,17 +1999,17 @@
   <dimension ref="A2:K167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="2"/>
@@ -2072,7 +2071,7 @@
         <v>22975</v>
       </c>
       <c r="G3" s="3">
-        <f>+E3-F3</f>
+        <f t="shared" ref="G3:G9" si="0">+E3-F3</f>
         <v>788463.66541000002</v>
       </c>
       <c r="H3" s="3">
@@ -2108,7 +2107,7 @@
         <v>236771</v>
       </c>
       <c r="G4" s="3">
-        <f>+E4-F4</f>
+        <f t="shared" si="0"/>
         <v>463742.46507557004</v>
       </c>
       <c r="H4" s="3">
@@ -2144,7 +2143,7 @@
         <v>236771</v>
       </c>
       <c r="G5" s="3">
-        <f>+E5-F5</f>
+        <f t="shared" si="0"/>
         <v>456214.10972817009</v>
       </c>
       <c r="H5" s="3">
@@ -2176,15 +2175,15 @@
         <v>245556.70586542759</v>
       </c>
       <c r="F6" s="3">
-        <f>+([5]Main!$L$8-[5]Main!$L$9)/145</f>
+        <f>+([3]Main!$L$8-[3]Main!$L$9)/145</f>
         <v>-59017.903448275865</v>
       </c>
       <c r="G6" s="3">
-        <f>+E6-F6</f>
+        <f t="shared" si="0"/>
         <v>304574.60931370343</v>
       </c>
       <c r="H6" s="3">
-        <f>+[5]Main!$L$4</f>
+        <f>+[3]Main!$L$4</f>
         <v>13469.159202000001</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2212,15 +2211,15 @@
         <v>247980.69006802203</v>
       </c>
       <c r="F7" s="3">
-        <f>+([5]Main!$L$8-[5]Main!$L$9)/145</f>
+        <f>+([3]Main!$L$8-[3]Main!$L$9)/145</f>
         <v>-59017.903448275865</v>
       </c>
       <c r="G7" s="3">
-        <f>+E7-F7</f>
+        <f t="shared" si="0"/>
         <v>306998.59351629787</v>
       </c>
       <c r="H7" s="3">
-        <f>+[5]Main!$L$4</f>
+        <f>+[3]Main!$L$4</f>
         <v>13469.159202000001</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2248,15 +2247,15 @@
         <v>106712.6473545</v>
       </c>
       <c r="F8" s="3">
-        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
+        <f>+[4]Main!$J$5-[4]Main!$J$6</f>
         <v>-35307</v>
       </c>
       <c r="G8" s="3">
-        <f>+E8-F8</f>
+        <f t="shared" si="0"/>
         <v>142019.64735450002</v>
       </c>
       <c r="H8" s="3">
-        <f>+[3]Main!$J$3</f>
+        <f>+[4]Main!$J$3</f>
         <v>610.13520500000004</v>
       </c>
       <c r="I8" s="16" t="s">
@@ -2284,15 +2283,15 @@
         <v>104650.44889842859</v>
       </c>
       <c r="F9" s="3">
-        <f>+([6]Main!$L$5-[6]Main!$L$6)/7</f>
+        <f>+([5]Main!$L$5-[5]Main!$L$6)/7</f>
         <v>6346.1242857142843</v>
       </c>
       <c r="G9" s="3">
-        <f>+E9-F9</f>
+        <f t="shared" si="0"/>
         <v>98304.324612714307</v>
       </c>
       <c r="H9" s="3">
-        <f>+[6]Main!$L$3</f>
+        <f>+[5]Main!$L$3</f>
         <v>2909.2658550000001</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2468,13 +2467,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="19" customFormat="1">
-      <c r="A25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="20"/>
@@ -2652,13 +2651,13 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="19" customFormat="1">
-      <c r="A41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="21" t="s">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" t="s">
         <v>99</v>
       </c>
       <c r="D41" s="20"/>
@@ -2740,10 +2739,10 @@
       <c r="A48" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="20"/>
@@ -4586,7 +4585,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F37" s="17">
-        <f>+[4]Main!$K$5-[4]Main!$K$6</f>
+        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G37" s="17">
@@ -4594,7 +4593,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H37" s="17">
-        <f>+[4]Main!$K$3</f>
+        <f>+[6]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I37" s="16" t="s">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA32AD6-74B5-4B78-A3E6-B7E0FF20C643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D9DE9-560F-4570-AE94-4BE382E65AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39360" yWindow="2325" windowWidth="28230" windowHeight="17955" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-40320" yWindow="2925" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="425">
   <si>
     <t>Name</t>
   </si>
@@ -1313,6 +1314,12 @@
   </si>
   <si>
     <t>APLD</t>
+  </si>
+  <si>
+    <t>American Airlines</t>
+  </si>
+  <si>
+    <t>AAL</t>
   </si>
 </sst>
 </file>
@@ -1525,9 +1532,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1690,6 +1697,40 @@
         <row r="6">
           <cell r="K6">
             <v>89.554000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>656.70391300000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>9321</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>31756</v>
           </cell>
         </row>
       </sheetData>
@@ -1998,11 +2039,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4103,20 +4144,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4538,14 +4579,36 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>359</v>
+      <c r="B34" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="C34" t="s">
-        <v>360</v>
+        <v>424</v>
+      </c>
+      <c r="D34">
+        <v>11.73</v>
+      </c>
+      <c r="E34" s="17">
+        <f>+D34*H34</f>
+        <v>7703.1368994900013</v>
+      </c>
+      <c r="F34" s="17">
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <v>-22435</v>
+      </c>
+      <c r="G34" s="17">
+        <f>+E34-F34</f>
+        <v>30138.13689949</v>
+      </c>
+      <c r="H34" s="17">
+        <f>+[7]Main!$N$3</f>
+        <v>656.70391300000006</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J34" s="18">
+        <v>45561</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4553,10 +4616,10 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="C35" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4564,58 +4627,70 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>397</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:10">
+      <c r="B38" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>422</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>5.92</v>
       </c>
-      <c r="E37" s="17">
-        <f>+D37*H37</f>
+      <c r="E38" s="17">
+        <f>+D38*H38</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <f>+[6]Main!$K$5-[6]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G37" s="17">
-        <f>+E37-F37</f>
+      <c r="G38" s="17">
+        <f>+E38-F38</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <f>+[6]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I38" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J38" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="14" t="s">
+    <row r="40" spans="1:10">
+      <c r="B40" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="B40" t="s">
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B38" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D9DE9-560F-4570-AE94-4BE382E65AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB7C81F-EF2B-4DB0-B605-0E67385F8B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40320" yWindow="2925" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-31200" yWindow="270" windowWidth="29955" windowHeight="20700" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="427">
   <si>
     <t>Name</t>
   </si>
@@ -1320,6 +1321,12 @@
   </si>
   <si>
     <t>AAL</t>
+  </si>
+  <si>
+    <t>Autoliv</t>
+  </si>
+  <si>
+    <t>ALV</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1442,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1481,6 +1488,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1685,18 +1693,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>206.820246</v>
+          <cell r="N3">
+            <v>656.70391300000006</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>184.68799999999999</v>
+          <cell r="N5">
+            <v>9321</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>89.554000000000002</v>
+          <cell r="N6">
+            <v>31756</v>
           </cell>
         </row>
       </sheetData>
@@ -1719,18 +1727,52 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>656.70391300000006</v>
+          <cell r="K3">
+            <v>206.820246</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>9321</v>
+          <cell r="K5">
+            <v>184.68799999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>31756</v>
+          <cell r="K6">
+            <v>89.554000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>80.079757000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>408</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>1995</v>
           </cell>
         </row>
       </sheetData>
@@ -4144,13 +4186,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4593,7 +4635,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F34" s="17">
-        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <f>+[6]Main!$N$5-[6]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G34" s="17">
@@ -4601,7 +4643,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H34" s="17">
-        <f>+[7]Main!$N$3</f>
+        <f>+[6]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -4623,14 +4665,36 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>389</v>
+      <c r="B36" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>426</v>
+      </c>
+      <c r="D36" s="21">
+        <v>93.74</v>
+      </c>
+      <c r="E36" s="17">
+        <f>+D36*H36</f>
+        <v>7506.67642118</v>
+      </c>
+      <c r="F36" s="17">
+        <f>+[8]Main!$L$5-[8]Main!$L$6</f>
+        <v>-1587</v>
+      </c>
+      <c r="G36" s="17">
+        <f>+E36-F36</f>
+        <v>9093.67642118</v>
+      </c>
+      <c r="H36" s="17">
+        <f>+[8]Main!$L$3</f>
+        <v>80.079757000000001</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J36" s="18">
+        <v>45565</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4638,59 +4702,71 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>397</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>422</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>5.92</v>
       </c>
-      <c r="E38" s="17">
-        <f>+D38*H38</f>
+      <c r="E39" s="17">
+        <f>+D39*H39</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F38" s="17">
-        <f>+[6]Main!$K$5-[6]Main!$K$6</f>
+      <c r="F39" s="17">
+        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G38" s="17">
-        <f>+E38-F38</f>
+      <c r="G39" s="17">
+        <f>+E39-F39</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H38" s="17">
-        <f>+[6]Main!$K$3</f>
+      <c r="H39" s="17">
+        <f>+[7]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I39" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="14" t="s">
+    <row r="41" spans="1:10">
+      <c r="B41" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="B41" t="s">
+    <row r="42" spans="1:10">
+      <c r="B42" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B39" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B34" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB7C81F-EF2B-4DB0-B605-0E67385F8B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE09B0FE-C1D2-4911-98BD-1B64E6ACFEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31200" yWindow="270" windowWidth="29955" windowHeight="20700" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-41205" yWindow="1935" windowWidth="22905" windowHeight="18675" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="427">
   <si>
     <t>Name</t>
   </si>
@@ -1442,7 +1444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1489,6 +1491,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1543,6 +1556,40 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>403.298633</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>427</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>2642</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1692,19 +1739,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>656.70391300000006</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>9321</v>
+        <row r="4">
+          <cell r="J4">
+            <v>3024.45</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>31756</v>
+          <cell r="J6">
+            <v>55293</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>32174</v>
           </cell>
         </row>
       </sheetData>
@@ -1727,18 +1774,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>206.820246</v>
+          <cell r="N3">
+            <v>656.70391300000006</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>184.68799999999999</v>
+          <cell r="N5">
+            <v>9321</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>89.554000000000002</v>
+          <cell r="N6">
+            <v>31756</v>
           </cell>
         </row>
       </sheetData>
@@ -1773,6 +1820,40 @@
         <row r="6">
           <cell r="L6">
             <v>1995</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>206.820246</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>184.68799999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>89.554000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -2081,11 +2162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A2:K167"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2388,33 +2469,84 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D10" s="2">
+        <v>209.67</v>
+      </c>
+      <c r="E10" s="3">
+        <f>+D10*H10</f>
+        <v>84559.624381109999</v>
+      </c>
+      <c r="F10" s="3">
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>-2215</v>
+      </c>
+      <c r="G10" s="3">
+        <f>+E10-F10</f>
+        <v>86774.624381109999</v>
+      </c>
+      <c r="H10" s="3">
+        <f>+[10]Main!$L$3</f>
+        <v>403.298633</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J10" s="16">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="22" customFormat="1">
+      <c r="A11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="24">
+        <v>13.04</v>
+      </c>
+      <c r="E11" s="25">
+        <f>+D11*H11</f>
+        <v>39438.827999999994</v>
+      </c>
+      <c r="F11" s="25">
+        <f>([6]Main!$J$6-[6]Main!$J$7)*1.1</f>
+        <v>25430.9</v>
+      </c>
+      <c r="G11" s="25">
+        <f>+E11-F11</f>
+        <v>14007.927999999993</v>
+      </c>
+      <c r="H11" s="25">
+        <f>+[6]Main!$J$4</f>
+        <v>3024.45</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="J11" s="26">
+        <v>45578</v>
+      </c>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2422,10 +2554,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2433,10 +2565,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2444,10 +2576,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2455,10 +2587,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2466,10 +2598,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2477,10 +2609,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2488,10 +2620,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2499,10 +2631,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2510,10 +2642,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2521,10 +2653,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2532,10 +2664,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2543,62 +2675,62 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="19" customFormat="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+        <v>416</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="19" customFormat="1">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2606,10 +2738,10 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2617,10 +2749,10 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2628,10 +2760,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2639,10 +2771,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2650,10 +2782,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2661,10 +2793,10 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2672,10 +2804,10 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2683,10 +2815,10 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2694,10 +2826,10 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2705,10 +2837,10 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2716,10 +2848,10 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2727,62 +2859,62 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="19" customFormat="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="19" customFormat="1">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2790,10 +2922,10 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2801,10 +2933,10 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2812,70 +2944,62 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
         <v>114</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="19" customFormat="1">
-      <c r="A48" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="50" spans="1:11" s="19" customFormat="1">
+      <c r="A50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" s="19" customFormat="1">
-      <c r="A49" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" s="19" customFormat="1">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -2891,32 +3015,40 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="19" customFormat="1">
+      <c r="A53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2924,10 +3056,10 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2935,10 +3067,10 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2946,21 +3078,21 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>151</v>
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2968,21 +3100,21 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" t="s">
-        <v>161</v>
+      <c r="A60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2990,10 +3122,10 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3001,10 +3133,10 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3012,10 +3144,10 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3023,21 +3155,21 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>172</v>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3045,21 +3177,21 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>19</v>
       </c>
-      <c r="B67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" t="s">
-        <v>176</v>
+      <c r="B67" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3067,10 +3199,10 @@
         <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3078,21 +3210,21 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>182</v>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4178,9 +4310,11 @@
     <hyperlink ref="B6" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -4188,11 +4322,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4635,7 +4769,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F34" s="17">
-        <f>+[6]Main!$N$5-[6]Main!$N$6</f>
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G34" s="17">
@@ -4643,7 +4777,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H34" s="17">
-        <f>+[6]Main!$N$3</f>
+        <f>+[7]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -4734,7 +4868,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F39" s="17">
-        <f>+[7]Main!$K$5-[7]Main!$K$6</f>
+        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G39" s="17">
@@ -4742,7 +4876,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H39" s="17">
-        <f>+[7]Main!$K$3</f>
+        <f>+[9]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I39" s="16" t="s">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE09B0FE-C1D2-4911-98BD-1B64E6ACFEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEDF233-CE10-4551-8A41-48B1A313D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41205" yWindow="1935" windowWidth="22905" windowHeight="18675" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="19290" yWindow="2780" windowWidth="18550" windowHeight="16310" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="429">
   <si>
     <t>Name</t>
   </si>
@@ -1329,6 +1330,12 @@
   </si>
   <si>
     <t>ALV</t>
+  </si>
+  <si>
+    <t>ASPI</t>
+  </si>
+  <si>
+    <t>ASP Isotopes</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1451,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1491,17 +1498,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1574,18 +1570,52 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>403.298633</v>
+          <cell r="K3">
+            <v>206.820246</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>427</v>
+          <cell r="K5">
+            <v>184.68799999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>2642</v>
+          <cell r="K6">
+            <v>89.554000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>66.686941000000004</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>28.262332000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>29.086669000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1739,6 +1769,40 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>403.298633</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>427</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>2642</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
         <row r="4">
           <cell r="J4">
             <v>3024.45</v>
@@ -1761,7 +1825,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1795,7 +1859,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1820,40 +1884,6 @@
         <row r="6">
           <cell r="L6">
             <v>1995</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>206.820246</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>184.68799999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>89.554000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -2160,25 +2190,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K167"/>
+  <dimension ref="A2:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="9.7265625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
@@ -2483,7 +2513,7 @@
         <v>84559.624381109999</v>
       </c>
       <c r="F10" s="3">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>-2215</v>
       </c>
       <c r="G10" s="3">
@@ -2491,7 +2521,7 @@
         <v>86774.624381109999</v>
       </c>
       <c r="H10" s="3">
-        <f>+[10]Main!$L$3</f>
+        <f>+[6]Main!$L$3</f>
         <v>403.298633</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2501,42 +2531,41 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="2">
         <v>13.04</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="3">
         <f>+D11*H11</f>
         <v>39438.827999999994</v>
       </c>
-      <c r="F11" s="25">
-        <f>([6]Main!$J$6-[6]Main!$J$7)*1.1</f>
+      <c r="F11" s="3">
+        <f>([7]Main!$J$6-[7]Main!$J$7)*1.1</f>
         <v>25430.9</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="3">
         <f>+E11-F11</f>
         <v>14007.927999999993</v>
       </c>
-      <c r="H11" s="25">
-        <f>+[6]Main!$J$4</f>
+      <c r="H11" s="3">
+        <f>+[7]Main!$J$4</f>
         <v>3024.45</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="16">
         <v>45578</v>
       </c>
-      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -2703,7 +2732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="19" customFormat="1">
+    <row r="27" spans="1:11" s="19" customFormat="1" ht="13">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2916,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="19" customFormat="1">
+    <row r="43" spans="1:11" s="19" customFormat="1" ht="13">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +3001,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="19" customFormat="1">
+    <row r="50" spans="1:11" s="19" customFormat="1" ht="13">
       <c r="A50" s="19" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +3020,7 @@
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" s="19" customFormat="1">
+    <row r="51" spans="1:11" s="19" customFormat="1" ht="13">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3050,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="19" customFormat="1">
+    <row r="53" spans="1:11" s="19" customFormat="1" ht="13">
       <c r="A53" s="19" t="s">
         <v>19</v>
       </c>
@@ -3106,7 +3135,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="13">
       <c r="A60" s="19" t="s">
         <v>19</v>
       </c>
@@ -3183,7 +3212,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="13">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -3326,7 +3355,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="13">
       <c r="A80" s="19" t="s">
         <v>19</v>
       </c>
@@ -3359,7 +3388,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="13">
       <c r="A83" s="19" t="s">
         <v>19</v>
       </c>
@@ -3491,7 +3520,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="13">
       <c r="A95" s="19" t="s">
         <v>19</v>
       </c>
@@ -4298,6 +4327,39 @@
       </c>
       <c r="J167" s="16">
         <v>45545</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="B168" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C168" t="s">
+        <v>427</v>
+      </c>
+      <c r="D168" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E168" s="3">
+        <f>+D168*H168</f>
+        <v>236.73864055000001</v>
+      </c>
+      <c r="F168" s="3">
+        <f>+[11]Main!$N$5-[11]Main!$N$6</f>
+        <v>-0.82433699999999988</v>
+      </c>
+      <c r="G168" s="3">
+        <f>+E168-F168</f>
+        <v>237.56297755000003</v>
+      </c>
+      <c r="H168" s="3">
+        <f>+[11]Main!$N$3</f>
+        <v>66.686941000000004</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J168" s="16">
+        <v>45581</v>
       </c>
     </row>
   </sheetData>
@@ -4312,9 +4374,10 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B11" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B10" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
+    <hyperlink ref="B168" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -4329,12 +4392,12 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="9" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4769,7 +4832,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F34" s="17">
-        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
+        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G34" s="17">
@@ -4777,7 +4840,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H34" s="17">
-        <f>+[7]Main!$N$3</f>
+        <f>+[8]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -4813,7 +4876,7 @@
         <v>7506.67642118</v>
       </c>
       <c r="F36" s="17">
-        <f>+[8]Main!$L$5-[8]Main!$L$6</f>
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-1587</v>
       </c>
       <c r="G36" s="17">
@@ -4821,7 +4884,7 @@
         <v>9093.67642118</v>
       </c>
       <c r="H36" s="17">
-        <f>+[8]Main!$L$3</f>
+        <f>+[9]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -4868,7 +4931,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F39" s="17">
-        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G39" s="17">
@@ -4876,7 +4939,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H39" s="17">
-        <f>+[9]Main!$K$3</f>
+        <f>+[10]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I39" s="16" t="s">
@@ -4886,7 +4949,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="13">
       <c r="B41" s="14" t="s">
         <v>144</v>
       </c>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEDF233-CE10-4551-8A41-48B1A313D41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C3F1FE-9838-4E9D-B859-DEB82D25E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19290" yWindow="2780" windowWidth="18550" windowHeight="16310" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="434">
   <si>
     <t>Name</t>
   </si>
@@ -1336,6 +1336,21 @@
   </si>
   <si>
     <t>ASP Isotopes</t>
+  </si>
+  <si>
+    <t>EV/EPS</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1498,6 +1513,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="defaultsheetstyle" xfId="2" xr:uid="{1FE46ECE-F473-4431-9279-77788A764428}"/>
@@ -1570,18 +1597,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>206.820246</v>
+          <cell r="L3">
+            <v>80.079757000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>184.68799999999999</v>
+          <cell r="L5">
+            <v>408</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>89.554000000000002</v>
+          <cell r="L6">
+            <v>1995</v>
           </cell>
         </row>
       </sheetData>
@@ -1604,18 +1631,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>66.686941000000004</v>
+          <cell r="K3">
+            <v>206.820246</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>28.262332000000001</v>
+          <cell r="K5">
+            <v>184.68799999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>29.086669000000001</v>
+          <cell r="K6">
+            <v>89.554000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -1839,17 +1866,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="N3">
-            <v>656.70391300000006</v>
+            <v>66.686941000000004</v>
           </cell>
         </row>
         <row r="5">
           <cell r="N5">
-            <v>9321</v>
+            <v>28.262332000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="N6">
-            <v>31756</v>
+            <v>29.086669000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -1872,18 +1899,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>80.079757000000001</v>
+          <cell r="N3">
+            <v>656.70391300000006</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>408</v>
+          <cell r="N5">
+            <v>9321</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>1995</v>
+          <cell r="N6">
+            <v>31756</v>
           </cell>
         </row>
       </sheetData>
@@ -2190,13 +2217,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A2:K168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C168" sqref="C168"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -2204,82 +2231,152 @@
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2"/>
-    <col min="5" max="5" width="9.7265625" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="2"/>
+    <col min="4" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="B2" t="s">
+    <row r="1" spans="1:29" s="4" customFormat="1">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+    </row>
+    <row r="3" spans="1:29" s="4" customFormat="1">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I3" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="15">
-        <v>254</v>
-      </c>
-      <c r="E3" s="3">
-        <f>+D3*H3</f>
-        <v>811438.66541000002</v>
-      </c>
-      <c r="F3" s="3">
-        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>22975</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G9" si="0">+E3-F3</f>
-        <v>788463.66541000002</v>
-      </c>
-      <c r="H3" s="3">
-        <f>+[1]Main!$K$3</f>
-        <v>3194.6404149999998</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J3" s="16">
-        <v>45560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="23">
+        <v>2022</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>2023</v>
+      </c>
+      <c r="R3" s="23">
+        <v>2024</v>
+      </c>
+      <c r="S3" s="23">
+        <v>2025</v>
+      </c>
+      <c r="T3" s="23">
+        <v>2026</v>
+      </c>
+      <c r="U3" s="23">
+        <v>2027</v>
+      </c>
+      <c r="V3" s="23">
+        <v>2022</v>
+      </c>
+      <c r="W3" s="23">
+        <v>2023</v>
+      </c>
+      <c r="X3" s="23">
+        <v>2024</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>2025</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>2026</v>
+      </c>
+      <c r="AA3" s="23">
+        <v>2027</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2290,32 +2387,32 @@
         <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>474555</v>
+        <v>698340</v>
       </c>
       <c r="E4" s="3">
-        <f>+D4*H4</f>
-        <v>700513.46507557004</v>
+        <f>+D4*I4</f>
+        <v>1030853.26927516</v>
       </c>
       <c r="F4" s="3">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>236771</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>463742.46507557004</v>
-      </c>
-      <c r="H4" s="3">
+        <f t="shared" ref="G4:G10" si="0">+E4-F4</f>
+        <v>794082.26927516004</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I4" s="3">
         <f>+[2]Main!$K$3</f>
         <v>1.4761481073333333</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="J4" s="16">
         <v>44964</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2325,12 +2422,12 @@
       <c r="C5" t="s">
         <v>413</v>
       </c>
-      <c r="D5" s="2">
-        <v>312.97000000000003</v>
+      <c r="D5" s="15">
+        <v>468</v>
       </c>
       <c r="E5" s="3">
-        <f>+D5*H5*1500</f>
-        <v>692985.10972817009</v>
+        <f>+D5*I5*1500</f>
+        <v>1036255.9713480001</v>
       </c>
       <c r="F5" s="3">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
@@ -2338,56 +2435,56 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>456214.10972817009</v>
-      </c>
-      <c r="H5" s="3">
+        <v>799484.97134800011</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" s="3">
         <f>+[2]Main!$K$3</f>
         <v>1.4761481073333333</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="J5" s="16">
         <v>44964</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="15">
-        <v>2643.5</v>
+        <v>220</v>
       </c>
       <c r="E6" s="3">
-        <f>+D6*H6/145</f>
-        <v>245556.70586542759</v>
+        <f>+D6*I6</f>
+        <v>702820.89130000002</v>
       </c>
       <c r="F6" s="3">
-        <f>+([3]Main!$L$8-[3]Main!$L$9)/145</f>
-        <v>-59017.903448275865</v>
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
+        <v>22975</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>304574.60931370343</v>
-      </c>
-      <c r="H6" s="3">
-        <f>+[3]Main!$L$4</f>
-        <v>13469.159202000001</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <f>+E6-F6</f>
+        <v>679845.89130000002</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>420</v>
+      </c>
+      <c r="I6" s="3">
+        <f>+[1]Main!$K$3</f>
+        <v>3194.6404149999998</v>
       </c>
       <c r="J6" s="16">
         <v>45560</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2395,14 +2492,14 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7" s="15">
-        <v>184.11</v>
+        <v>2643.5</v>
       </c>
       <c r="E7" s="3">
-        <f>+D7*H7/10</f>
-        <v>247980.69006802203</v>
+        <f>+D7*I7/145</f>
+        <v>245556.70586542759</v>
       </c>
       <c r="F7" s="3">
         <f>+([3]Main!$L$8-[3]Main!$L$9)/145</f>
@@ -2410,625 +2507,640 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>306998.59351629787</v>
-      </c>
-      <c r="H7" s="3">
+        <v>304574.60931370343</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I7" s="3">
         <f>+[3]Main!$L$4</f>
         <v>13469.159202000001</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="J7" s="16">
         <v>45560</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15">
+        <v>184.11</v>
+      </c>
+      <c r="E8" s="3">
+        <f>+D8*I8/10</f>
+        <v>247980.69006802203</v>
+      </c>
+      <c r="F8" s="3">
+        <f>+([3]Main!$L$8-[3]Main!$L$9)/145</f>
+        <v>-59017.903448275865</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>306998.59351629787</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I8" s="3">
+        <f>+[3]Main!$L$4</f>
+        <v>13469.159202000001</v>
+      </c>
+      <c r="J8" s="16">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D9" s="15">
         <v>174.9</v>
       </c>
-      <c r="E8" s="3">
-        <f>+D8*H8</f>
+      <c r="E9" s="3">
+        <f>+D9*I9</f>
         <v>106712.6473545</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <f>+[4]Main!$J$5-[4]Main!$J$6</f>
         <v>-35307</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>142019.64735450002</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="I9" s="3">
         <f>+[4]Main!$J$3</f>
         <v>610.13520500000004</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="J9" s="16">
         <v>45527</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="15">
         <v>251.8</v>
       </c>
-      <c r="E9" s="3">
-        <f>+D9*H9/7</f>
+      <c r="E10" s="3">
+        <f>+D10*I10/7</f>
         <v>104650.44889842859</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <f>+([5]Main!$L$5-[5]Main!$L$6)/7</f>
         <v>6346.1242857142843</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>98304.324612714307</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I10" s="3">
         <f>+[5]Main!$L$3</f>
         <v>2909.2658550000001</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="J10" s="16">
         <v>45560</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>209.67</v>
       </c>
-      <c r="E10" s="3">
-        <f>+D10*H10</f>
+      <c r="E11" s="3">
+        <f>+D11*I11</f>
         <v>84559.624381109999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>-2215</v>
       </c>
-      <c r="G10" s="3">
-        <f>+E10-F10</f>
+      <c r="G11" s="3">
+        <f>+E11-F11</f>
         <v>86774.624381109999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I11" s="3">
         <f>+[6]Main!$L$3</f>
         <v>403.298633</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="J11" s="16">
         <v>45579</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>13.04</v>
       </c>
-      <c r="E11" s="3">
-        <f>+D11*H11</f>
+      <c r="E12" s="3">
+        <f>+D12*I12</f>
         <v>39438.827999999994</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <f>([7]Main!$J$6-[7]Main!$J$7)*1.1</f>
         <v>25430.9</v>
       </c>
-      <c r="G11" s="3">
-        <f>+E11-F11</f>
+      <c r="G12" s="3">
+        <f>+E12-F12</f>
         <v>14007.927999999993</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I12" s="3">
         <f>+[7]Main!$J$4</f>
         <v>3024.45</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="J12" s="16">
         <v>45578</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>415</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="19" customFormat="1" ht="13">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
         <v>79</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="19" customFormat="1" ht="13">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
         <v>104</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
         <v>108</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
         <v>110</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
         <v>112</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
         <v>114</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="19" customFormat="1" ht="13">
-      <c r="A50" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
         <v>116</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>117</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" s="19" customFormat="1" ht="13">
-      <c r="A51" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -3037,157 +3149,162 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A52" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
         <v>120</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="19" customFormat="1" ht="13">
-      <c r="A53" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="19" t="s">
+    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
         <v>124</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
         <v>130</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
         <v>132</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
         <v>134</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
         <v>136</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
         <v>140</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="13">
-      <c r="A60" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="19" t="s">
+    <row r="61" spans="1:10" ht="13">
+      <c r="A61" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
         <v>158</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
         <v>160</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
         <v>162</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" t="s">
-        <v>403</v>
-      </c>
-      <c r="C64" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3195,10 +3312,10 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3206,32 +3323,32 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
         <v>169</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13">
-      <c r="A67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="19" t="s">
+    <row r="68" spans="1:3" ht="13">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3239,10 +3356,10 @@
         <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3250,10 +3367,10 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3261,10 +3378,10 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3272,10 +3389,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3283,10 +3400,10 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3294,10 +3411,10 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3305,10 +3422,10 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3316,10 +3433,10 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3327,10 +3444,10 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3338,10 +3455,10 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3349,32 +3466,32 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
         <v>203</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13">
-      <c r="A80" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="19" t="s">
+    <row r="81" spans="1:3" ht="13">
+      <c r="A81" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3382,32 +3499,32 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
         <v>209</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13">
-      <c r="A83" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="19" t="s">
+    <row r="84" spans="1:3" ht="13">
+      <c r="A84" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3415,10 +3532,10 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3426,10 +3543,10 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3437,10 +3554,10 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3448,10 +3565,10 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3459,10 +3576,10 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3470,10 +3587,10 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3481,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3492,10 +3609,10 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3503,10 +3620,10 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3514,32 +3631,32 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
         <v>241</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13">
-      <c r="A95" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" s="19" t="s">
+    <row r="96" spans="1:3" ht="13">
+      <c r="A96" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C96" s="19" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" t="s">
-        <v>247</v>
-      </c>
-      <c r="C96" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3547,10 +3664,10 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C97" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3558,10 +3675,10 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3569,10 +3686,10 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3580,10 +3697,10 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3591,10 +3708,10 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3602,10 +3719,10 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3613,10 +3730,10 @@
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3624,10 +3741,10 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3635,10 +3752,10 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C105" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3646,10 +3763,10 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C106" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3657,10 +3774,10 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3668,10 +3785,10 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3679,10 +3796,10 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C109" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3690,10 +3807,10 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C110" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3701,10 +3818,10 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C111" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3712,10 +3829,10 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3723,10 +3840,10 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C113" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3734,10 +3851,10 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C114" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3745,10 +3862,10 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3756,10 +3873,10 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C116" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3767,10 +3884,10 @@
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C117" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3778,10 +3895,10 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3789,10 +3906,10 @@
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C119" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3800,10 +3917,10 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3811,10 +3928,10 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C121" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3822,10 +3939,10 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C122" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3833,10 +3950,10 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3844,10 +3961,10 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3855,10 +3972,10 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3866,10 +3983,10 @@
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C126" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3877,10 +3994,10 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3888,10 +4005,10 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C128" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3899,10 +4016,10 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3910,10 +4027,10 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C130" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3921,10 +4038,10 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C131" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3932,10 +4049,10 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3943,10 +4060,10 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3954,10 +4071,10 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3965,10 +4082,10 @@
         <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C135" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3976,10 +4093,10 @@
         <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C136" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3987,10 +4104,10 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C137" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3998,10 +4115,10 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C138" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4009,10 +4126,10 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C139" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4020,10 +4137,10 @@
         <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C140" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4031,10 +4148,10 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4042,10 +4159,10 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4053,10 +4170,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C143" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4064,10 +4181,10 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C144" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4075,10 +4192,10 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C145" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4086,10 +4203,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4097,10 +4214,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4108,10 +4225,10 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C148" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4119,10 +4236,10 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C149" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4130,10 +4247,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C150" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4141,10 +4258,10 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C151" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4152,10 +4269,10 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4163,10 +4280,10 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C153" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4174,10 +4291,10 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C154" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4185,10 +4302,10 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C155" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4196,10 +4313,10 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C156" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4207,10 +4324,10 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C157" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4218,10 +4335,10 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C158" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4229,10 +4346,10 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C159" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4240,141 +4357,152 @@
         <v>19</v>
       </c>
       <c r="B160" t="s">
+        <v>393</v>
+      </c>
+      <c r="C160" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
         <v>395</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
-      <c r="A161" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
         <v>399</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
-      <c r="A162" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
         <v>401</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
-      <c r="A163" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" t="s">
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
         <v>404</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
-      <c r="A164" t="s">
-        <v>19</v>
-      </c>
-      <c r="B164" t="s">
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
         <v>406</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" t="s">
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
         <v>408</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
-      <c r="A166" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" t="s">
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
         <v>410</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="1:9">
+      <c r="B168" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>419</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D168" s="2">
         <v>17.71</v>
       </c>
-      <c r="I167" s="16" t="s">
+      <c r="H168" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="J167" s="16">
+      <c r="I168" s="16">
         <v>45545</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
-      <c r="B168" s="1" t="s">
+    <row r="169" spans="1:9">
+      <c r="B169" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>427</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D169" s="2">
         <v>3.55</v>
       </c>
-      <c r="E168" s="3">
-        <f>+D168*H168</f>
-        <v>236.73864055000001</v>
-      </c>
-      <c r="F168" s="3">
-        <f>+[11]Main!$N$5-[11]Main!$N$6</f>
+      <c r="E169" s="3">
+        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>-0.82433699999999988</v>
       </c>
-      <c r="G168" s="3">
-        <f>+E168-F168</f>
-        <v>237.56297755000003</v>
-      </c>
-      <c r="H168" s="3">
-        <f>+[11]Main!$N$3</f>
+      <c r="F169" s="3" t="e">
+        <f>+#REF!-E169</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G169" s="3">
+        <f>+[8]Main!$N$3</f>
         <v>66.686941000000004</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="H169" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J168" s="16">
+      <c r="I169" s="16">
         <v>45581</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B167" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B168" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
+    <hyperlink ref="B168" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
+    <hyperlink ref="B169" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
@@ -4832,7 +4960,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F34" s="17">
-        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
+        <f>+[9]Main!$N$5-[9]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G34" s="17">
@@ -4840,7 +4968,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H34" s="17">
-        <f>+[8]Main!$N$3</f>
+        <f>+[9]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -4876,7 +5004,7 @@
         <v>7506.67642118</v>
       </c>
       <c r="F36" s="17">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
         <v>-1587</v>
       </c>
       <c r="G36" s="17">
@@ -4884,7 +5012,7 @@
         <v>9093.67642118</v>
       </c>
       <c r="H36" s="17">
-        <f>+[9]Main!$L$3</f>
+        <f>+[10]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -4931,7 +5059,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F39" s="17">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G39" s="17">
@@ -4939,7 +5067,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H39" s="17">
-        <f>+[10]Main!$K$3</f>
+        <f>+[11]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I39" s="16" t="s">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C3F1FE-9838-4E9D-B859-DEB82D25E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE238D2-3ACA-4709-9AEE-38351EBDB803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-28305" yWindow="855" windowWidth="28260" windowHeight="20325" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="435">
   <si>
     <t>Name</t>
   </si>
@@ -1351,6 +1350,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Embraer</t>
   </si>
 </sst>
 </file>
@@ -1554,71 +1556,31 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Manufacturing"/>
-      <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>3194.6404149999998</v>
+            <v>1.4761481073333333</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>30720</v>
+            <v>531247</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7745</v>
+            <v>294476</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>80.079757000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>408</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>1995</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1660,25 +1622,31 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+      <sheetName val="Manufacturing"/>
+      <sheetName val="IP"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>1.4761481073333333</v>
+            <v>3194.6404149999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>531247</v>
+            <v>30720</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>294476</v>
+            <v>7745</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1866,17 +1834,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="N3">
-            <v>66.686941000000004</v>
+            <v>656.70391300000006</v>
           </cell>
         </row>
         <row r="5">
           <cell r="N5">
-            <v>28.262332000000001</v>
+            <v>9321</v>
           </cell>
         </row>
         <row r="6">
           <cell r="N6">
-            <v>29.086669000000001</v>
+            <v>31756</v>
           </cell>
         </row>
       </sheetData>
@@ -1899,18 +1867,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>656.70391300000006</v>
+          <cell r="L3">
+            <v>80.079757000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>9321</v>
+          <cell r="L5">
+            <v>408</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>31756</v>
+          <cell r="L6">
+            <v>1995</v>
           </cell>
         </row>
       </sheetData>
@@ -2217,23 +2185,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2394,7 +2362,7 @@
         <v>1030853.26927516</v>
       </c>
       <c r="F4" s="3">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
         <v>236771</v>
       </c>
       <c r="G4" s="3">
@@ -2405,7 +2373,7 @@
         <v>414</v>
       </c>
       <c r="I4" s="3">
-        <f>+[2]Main!$K$3</f>
+        <f>+[1]Main!$K$3</f>
         <v>1.4761481073333333</v>
       </c>
       <c r="J4" s="16">
@@ -2430,7 +2398,7 @@
         <v>1036255.9713480001</v>
       </c>
       <c r="F5" s="3">
-        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
+        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
         <v>236771</v>
       </c>
       <c r="G5" s="3">
@@ -2441,7 +2409,7 @@
         <v>414</v>
       </c>
       <c r="I5" s="3">
-        <f>+[2]Main!$K$3</f>
+        <f>+[1]Main!$K$3</f>
         <v>1.4761481073333333</v>
       </c>
       <c r="J5" s="16">
@@ -2466,7 +2434,7 @@
         <v>702820.89130000002</v>
       </c>
       <c r="F6" s="3">
-        <f>+[1]Main!$K$5-[1]Main!$K$6</f>
+        <f>+[2]Main!$K$5-[2]Main!$K$6</f>
         <v>22975</v>
       </c>
       <c r="G6" s="3">
@@ -2477,7 +2445,7 @@
         <v>420</v>
       </c>
       <c r="I6" s="3">
-        <f>+[1]Main!$K$3</f>
+        <f>+[2]Main!$K$3</f>
         <v>3194.6404149999998</v>
       </c>
       <c r="J6" s="16">
@@ -2865,7 +2833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="28" spans="1:10" s="19" customFormat="1">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3048,7 +3016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="44" spans="1:10" s="19" customFormat="1">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3132,7 +3100,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="51" spans="1:10" s="19" customFormat="1">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
@@ -3150,7 +3118,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="52" spans="1:10" s="19" customFormat="1">
       <c r="A52" s="19" t="s">
         <v>19</v>
       </c>
@@ -3179,7 +3147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="54" spans="1:10" s="19" customFormat="1">
       <c r="A54" s="19" t="s">
         <v>19</v>
       </c>
@@ -3263,7 +3231,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="13">
+    <row r="61" spans="1:10">
       <c r="A61" s="19" t="s">
         <v>19</v>
       </c>
@@ -3340,7 +3308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3483,7 +3451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13">
+    <row r="81" spans="1:3">
       <c r="A81" s="19" t="s">
         <v>19</v>
       </c>
@@ -3516,7 +3484,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13">
+    <row r="84" spans="1:3">
       <c r="A84" s="19" t="s">
         <v>19</v>
       </c>
@@ -3648,7 +3616,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13">
+    <row r="96" spans="1:3">
       <c r="A96" s="19" t="s">
         <v>19</v>
       </c>
@@ -4187,7 +4155,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -4198,7 +4166,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -4209,7 +4177,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -4220,7 +4188,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -4231,7 +4199,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -4242,7 +4210,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -4253,7 +4221,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -4264,7 +4232,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -4275,7 +4243,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -4286,7 +4254,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -4297,7 +4265,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -4308,7 +4276,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -4319,48 +4287,45 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>19</v>
-      </c>
+    <row r="157" spans="1:4">
       <c r="B157" t="s">
+        <v>434</v>
+      </c>
+      <c r="D157" s="15">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
         <v>385</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
         <v>387</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
         <v>391</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" t="s">
-        <v>393</v>
-      </c>
-      <c r="C160" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -4368,10 +4333,10 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -4379,10 +4344,10 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C162" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -4390,10 +4355,10 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C163" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -4401,10 +4366,10 @@
         <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C164" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -4412,10 +4377,10 @@
         <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C165" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -4423,10 +4388,10 @@
         <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C166" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -4434,55 +4399,57 @@
         <v>19</v>
       </c>
       <c r="B167" t="s">
+        <v>408</v>
+      </c>
+      <c r="C167" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
         <v>410</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="B168" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C168" t="s">
-        <v>419</v>
-      </c>
-      <c r="D168" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H168" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="I168" s="16">
-        <v>45545</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="B169" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C169" t="s">
+        <v>419</v>
+      </c>
+      <c r="D169" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H169" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="I169" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="B170" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>427</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D170" s="2">
         <v>3.55</v>
       </c>
-      <c r="E169" s="3">
-        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
-        <v>-0.82433699999999988</v>
-      </c>
-      <c r="F169" s="3" t="e">
-        <f>+#REF!-E169</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G169" s="3">
-        <f>+[8]Main!$N$3</f>
-        <v>66.686941000000004</v>
-      </c>
-      <c r="H169" s="2" t="s">
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I169" s="16">
+      <c r="I170" s="16">
         <v>45581</v>
       </c>
     </row>
@@ -4496,13 +4463,13 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B168" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B169" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B169" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B170" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
@@ -4520,12 +4487,12 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="9" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4960,7 +4927,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F34" s="17">
-        <f>+[9]Main!$N$5-[9]Main!$N$6</f>
+        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G34" s="17">
@@ -4968,7 +4935,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H34" s="17">
-        <f>+[9]Main!$N$3</f>
+        <f>+[8]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -5004,7 +4971,7 @@
         <v>7506.67642118</v>
       </c>
       <c r="F36" s="17">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-1587</v>
       </c>
       <c r="G36" s="17">
@@ -5012,7 +4979,7 @@
         <v>9093.67642118</v>
       </c>
       <c r="H36" s="17">
-        <f>+[10]Main!$L$3</f>
+        <f>+[9]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -5059,7 +5026,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F39" s="17">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G39" s="17">
@@ -5067,7 +5034,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H39" s="17">
-        <f>+[11]Main!$K$3</f>
+        <f>+[10]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I39" s="16" t="s">
@@ -5077,7 +5044,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="13">
+    <row r="41" spans="1:10">
       <c r="B41" s="14" t="s">
         <v>144</v>
       </c>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE238D2-3ACA-4709-9AEE-38351EBDB803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDA79B-028D-40D3-9F0A-021291FE4E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28305" yWindow="855" windowWidth="28260" windowHeight="20325" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="4510" yWindow="3230" windowWidth="26500" windowHeight="15380" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="437">
   <si>
     <t>Name</t>
   </si>
@@ -1353,6 +1353,12 @@
   </si>
   <si>
     <t>Embraer</t>
+  </si>
+  <si>
+    <t>Carvana</t>
+  </si>
+  <si>
+    <t>CVNA</t>
   </si>
 </sst>
 </file>
@@ -2187,21 +2193,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2833,7 +2839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1">
+    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="19" customFormat="1">
+    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="19" customFormat="1">
+    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
@@ -3118,7 +3124,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1">
+    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A52" s="19" t="s">
         <v>19</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1">
+    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A54" s="19" t="s">
         <v>19</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="13">
       <c r="A61" s="19" t="s">
         <v>19</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="13">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="13">
       <c r="A81" s="19" t="s">
         <v>19</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="13">
       <c r="A84" s="19" t="s">
         <v>19</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="13">
       <c r="A96" s="19" t="s">
         <v>19</v>
       </c>
@@ -4478,21 +4484,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="9" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4725,7 +4731,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +4753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4813,7 +4819,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4824,7 +4830,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4846,7 +4852,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4868,37 +4874,40 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>436</v>
+      </c>
+      <c r="D30" s="21">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
         <v>293</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
         <v>295</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>327</v>
-      </c>
-      <c r="C32" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4906,98 +4915,98 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
         <v>329</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:10">
+      <c r="B35" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>424</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>11.73</v>
       </c>
-      <c r="E34" s="17">
-        <f>+D34*H34</f>
+      <c r="E35" s="17">
+        <f>+D35*H35</f>
         <v>7703.1368994900013</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>-22435</v>
       </c>
-      <c r="G34" s="17">
-        <f>+E34-F34</f>
+      <c r="G35" s="17">
+        <f>+E35-F35</f>
         <v>30138.13689949</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <f>+[8]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="18">
         <v>45561</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
         <v>359</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>426</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="21">
         <v>93.74</v>
       </c>
-      <c r="E36" s="17">
-        <f>+D36*H36</f>
+      <c r="E37" s="17">
+        <f>+D37*H37</f>
         <v>7506.67642118</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <f>+[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-1587</v>
       </c>
-      <c r="G36" s="17">
-        <f>+E36-F36</f>
+      <c r="G37" s="17">
+        <f>+E37-F37</f>
         <v>9093.67642118</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <f>+[9]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J37" s="18">
         <v>45565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>389</v>
-      </c>
-      <c r="C37" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5005,60 +5014,72 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
+        <v>389</v>
+      </c>
+      <c r="C38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
         <v>397</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:10">
+      <c r="B40" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>422</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>5.92</v>
       </c>
-      <c r="E39" s="17">
-        <f>+D39*H39</f>
+      <c r="E40" s="17">
+        <f>+D40*H40</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G39" s="17">
-        <f>+E39-F39</f>
+      <c r="G40" s="17">
+        <f>+E40-F40</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <f>+[10]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I40" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J40" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="14" t="s">
+    <row r="42" spans="1:10" ht="13">
+      <c r="B42" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="B42" t="s">
+    <row r="43" spans="1:10">
+      <c r="B43" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
-    <hyperlink ref="B34" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDA79B-028D-40D3-9F0A-021291FE4E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34943D68-4B83-42F8-9AA9-84A378E36379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4510" yWindow="3230" windowWidth="26500" windowHeight="15380" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-36645" yWindow="2160" windowWidth="16215" windowHeight="13140" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="438">
   <si>
     <t>Name</t>
   </si>
@@ -1359,6 +1359,9 @@
   </si>
   <si>
     <t>CVNA</t>
+  </si>
+  <si>
+    <t>ERJ</t>
   </si>
 </sst>
 </file>
@@ -2200,14 +2203,14 @@
       <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2839,7 +2842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="28" spans="1:10" s="19" customFormat="1">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="44" spans="1:10" s="19" customFormat="1">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="51" spans="1:10" s="19" customFormat="1">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
@@ -3124,7 +3127,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="52" spans="1:10" s="19" customFormat="1">
       <c r="A52" s="19" t="s">
         <v>19</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="54" spans="1:10" s="19" customFormat="1">
       <c r="A54" s="19" t="s">
         <v>19</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="13">
+    <row r="61" spans="1:10">
       <c r="A61" s="19" t="s">
         <v>19</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13">
+    <row r="81" spans="1:3">
       <c r="A81" s="19" t="s">
         <v>19</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13">
+    <row r="84" spans="1:3">
       <c r="A84" s="19" t="s">
         <v>19</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13">
+    <row r="96" spans="1:3">
       <c r="A96" s="19" t="s">
         <v>19</v>
       </c>
@@ -4484,21 +4487,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="9" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4911,14 +4914,14 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>434</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>437</v>
+      </c>
+      <c r="D33" s="21">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4926,98 +4929,98 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>329</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:10">
+      <c r="B36" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>424</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>11.73</v>
       </c>
-      <c r="E35" s="17">
-        <f>+D35*H35</f>
+      <c r="E36" s="17">
+        <f>+D36*H36</f>
         <v>7703.1368994900013</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>-22435</v>
       </c>
-      <c r="G35" s="17">
-        <f>+E35-F35</f>
+      <c r="G36" s="17">
+        <f>+E36-F36</f>
         <v>30138.13689949</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <f>+[8]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J36" s="18">
         <v>45561</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>359</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:10">
+      <c r="B38" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>426</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="21">
         <v>93.74</v>
       </c>
-      <c r="E37" s="17">
-        <f>+D37*H37</f>
+      <c r="E38" s="17">
+        <f>+D38*H38</f>
         <v>7506.67642118</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <f>+[9]Main!$L$5-[9]Main!$L$6</f>
         <v>-1587</v>
       </c>
-      <c r="G37" s="17">
-        <f>+E37-F37</f>
+      <c r="G38" s="17">
+        <f>+E38-F38</f>
         <v>9093.67642118</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <f>+[9]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J38" s="18">
         <v>45565</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>389</v>
-      </c>
-      <c r="C38" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5025,60 +5028,71 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>397</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:10">
+      <c r="B41" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>422</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>5.92</v>
       </c>
-      <c r="E40" s="17">
-        <f>+D40*H40</f>
+      <c r="E41" s="17">
+        <f>+D41*H41</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <f>+[10]Main!$K$5-[10]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G40" s="17">
-        <f>+E40-F40</f>
+      <c r="G41" s="17">
+        <f>+E41-F41</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <f>+[10]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I41" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J41" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="13">
-      <c r="B42" s="14" t="s">
+    <row r="43" spans="1:10">
+      <c r="B43" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="B43" t="s">
+    <row r="44" spans="1:10">
+      <c r="B44" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B40" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
-    <hyperlink ref="B35" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
-    <hyperlink ref="B37" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B41" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B38" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34943D68-4B83-42F8-9AA9-84A378E36379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1D8C2-83DF-4B0F-8E83-AC7D207B233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36645" yWindow="2160" windowWidth="16215" windowHeight="13140" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-51390" yWindow="255" windowWidth="25650" windowHeight="19635" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="438">
   <si>
     <t>Name</t>
   </si>
@@ -1614,6 +1615,40 @@
         <row r="6">
           <cell r="K6">
             <v>89.554000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>185.11625000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>1307.2</v>
           </cell>
         </row>
       </sheetData>
@@ -4493,7 +4528,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4501,7 +4536,8 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4914,14 +4950,14 @@
       </c>
     </row>
     <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
       <c r="B33" t="s">
-        <v>434</v>
+        <v>327</v>
       </c>
       <c r="C33" t="s">
-        <v>437</v>
-      </c>
-      <c r="D33" s="21">
-        <v>35</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4929,98 +4965,120 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>329</v>
+      <c r="B35" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="B36" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C36" t="s">
         <v>424</v>
       </c>
-      <c r="D36">
+      <c r="D35">
         <v>11.73</v>
       </c>
-      <c r="E36" s="17">
-        <f>+D36*H36</f>
+      <c r="E35" s="17">
+        <f>+D35*H35</f>
         <v>7703.1368994900013</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F35" s="17">
         <f>+[8]Main!$N$5-[8]Main!$N$6</f>
         <v>-22435</v>
       </c>
-      <c r="G36" s="17">
-        <f>+E36-F36</f>
+      <c r="G35" s="17">
+        <f>+E35-F35</f>
         <v>30138.13689949</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H35" s="17">
         <f>+[8]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J35" s="18">
         <v>45561</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
+    </row>
     <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>359</v>
+      <c r="B37" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C37" t="s">
-        <v>360</v>
+        <v>426</v>
+      </c>
+      <c r="D37" s="21">
+        <v>93.74</v>
+      </c>
+      <c r="E37" s="17">
+        <f>+D37*H37</f>
+        <v>7506.67642118</v>
+      </c>
+      <c r="F37" s="17">
+        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
+        <v>-1587</v>
+      </c>
+      <c r="G37" s="17">
+        <f>+E37-F37</f>
+        <v>9093.67642118</v>
+      </c>
+      <c r="H37" s="17">
+        <f>+[9]Main!$L$3</f>
+        <v>80.079757000000001</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J37" s="18">
+        <v>45565</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C38" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D38" s="21">
-        <v>93.74</v>
+        <v>35</v>
       </c>
       <c r="E38" s="17">
         <f>+D38*H38</f>
-        <v>7506.67642118</v>
+        <v>6479.0687500000004</v>
       </c>
       <c r="F38" s="17">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>-1587</v>
+        <f>+[11]Main!$H$5-[11]Main!$H$6</f>
+        <v>-1307.2</v>
       </c>
       <c r="G38" s="17">
         <f>+E38-F38</f>
-        <v>9093.67642118</v>
+        <v>7786.2687500000002</v>
       </c>
       <c r="H38" s="17">
-        <f>+[9]Main!$L$3</f>
-        <v>80.079757000000001</v>
+        <f>+[11]Main!$H$3</f>
+        <v>185.11625000000001</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>420</v>
       </c>
       <c r="J38" s="18">
-        <v>45565</v>
+        <v>45590</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5091,9 +5149,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
-    <hyperlink ref="B36" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1D8C2-83DF-4B0F-8E83-AC7D207B233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA29260-8D38-48AE-89B6-F903B223EE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51390" yWindow="255" windowWidth="25650" windowHeight="19635" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-51300" yWindow="30" windowWidth="25080" windowHeight="18540" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="443">
   <si>
     <t>Name</t>
   </si>
@@ -1363,6 +1364,21 @@
   </si>
   <si>
     <t>ERJ</t>
+  </si>
+  <si>
+    <t>RKLB</t>
+  </si>
+  <si>
+    <t>LUNR</t>
+  </si>
+  <si>
+    <t>Intuitive Machines</t>
+  </si>
+  <si>
+    <t>Rocket Lab USA</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -1603,18 +1619,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>206.820246</v>
+          <cell r="H3">
+            <v>185.11625000000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>184.68799999999999</v>
+          <cell r="H5">
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>89.554000000000002</v>
+          <cell r="H6">
+            <v>1307.2</v>
           </cell>
         </row>
       </sheetData>
@@ -1637,18 +1653,52 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="H3">
-            <v>185.11625000000001</v>
+          <cell r="K3">
+            <v>206.820246</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="H5">
-            <v>0</v>
+          <cell r="K5">
+            <v>184.68799999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="H6">
-            <v>1307.2</v>
+          <cell r="K6">
+            <v>89.554000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>140.34679399999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>91.647000000000006</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -2229,13 +2279,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G170" sqref="G170"/>
+      <selection pane="bottomRight" activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2245,7 +2295,7 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -4372,7 +4422,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -4383,7 +4433,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -4394,7 +4444,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -4405,7 +4455,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -4416,7 +4466,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -4427,7 +4477,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -4438,7 +4488,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -4449,7 +4499,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -4460,7 +4510,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="B169" s="1" t="s">
         <v>418</v>
       </c>
@@ -4473,11 +4523,12 @@
       <c r="H169" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="I169" s="16">
+      <c r="I169" s="16"/>
+      <c r="J169" s="16">
         <v>45545</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="B170" s="1" t="s">
         <v>428</v>
       </c>
@@ -4493,8 +4544,53 @@
       <c r="H170" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I170" s="16">
+      <c r="I170" s="16"/>
+      <c r="J170" s="16">
         <v>45581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="B171" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C171" t="s">
+        <v>438</v>
+      </c>
+      <c r="D171" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="B172" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C172" t="s">
+        <v>439</v>
+      </c>
+      <c r="D172" s="2">
+        <v>19.88</v>
+      </c>
+      <c r="E172" s="3">
+        <f>+D172*I172</f>
+        <v>2790.0942647199995</v>
+      </c>
+      <c r="F172" s="3">
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
+        <v>91.647000000000006</v>
+      </c>
+      <c r="G172" s="3">
+        <f>+E172-F172</f>
+        <v>2698.4472647199996</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I172" s="3">
+        <f>+[12]Main!$K$3</f>
+        <v>140.34679399999999</v>
+      </c>
+      <c r="J172" s="16">
+        <v>45659</v>
       </c>
     </row>
   </sheetData>
@@ -4514,9 +4610,11 @@
     <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
     <hyperlink ref="B170" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B171" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B172" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -4524,11 +4622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5063,7 +5161,7 @@
         <v>6479.0687500000004</v>
       </c>
       <c r="F38" s="17">
-        <f>+[11]Main!$H$5-[11]Main!$H$6</f>
+        <f>+[10]Main!$H$5-[10]Main!$H$6</f>
         <v>-1307.2</v>
       </c>
       <c r="G38" s="17">
@@ -5071,7 +5169,7 @@
         <v>7786.2687500000002</v>
       </c>
       <c r="H38" s="17">
-        <f>+[11]Main!$H$3</f>
+        <f>+[10]Main!$H$3</f>
         <v>185.11625000000001</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -5118,7 +5216,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F41" s="17">
-        <f>+[10]Main!$K$5-[10]Main!$K$6</f>
+        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G41" s="17">
@@ -5126,7 +5224,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H41" s="17">
-        <f>+[10]Main!$K$3</f>
+        <f>+[11]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I41" s="16" t="s">

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA29260-8D38-48AE-89B6-F903B223EE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639DFC5E-2E6C-4311-9AB4-A8EF80186CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51300" yWindow="30" windowWidth="25080" windowHeight="18540" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="444">
   <si>
     <t>Name</t>
   </si>
@@ -1379,6 +1380,9 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>CDW</t>
   </si>
 </sst>
 </file>
@@ -1619,6 +1623,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="L3">
+            <v>80.079757000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>408</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>1995</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="H3">
             <v>185.11625000000001</v>
           </cell>
@@ -1640,7 +1678,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1674,7 +1712,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1687,18 +1725,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="K3">
-            <v>140.34679399999999</v>
+          <cell r="P3">
+            <v>133.264062</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="K5">
-            <v>91.647000000000006</v>
+          <cell r="P5">
+            <v>1158.4000000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="K6">
-            <v>0</v>
+          <cell r="P6">
+            <v>6030.7</v>
           </cell>
         </row>
       </sheetData>
@@ -1927,18 +1965,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>656.70391300000006</v>
+          <cell r="K3">
+            <v>140.34679399999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>9321</v>
+          <cell r="K5">
+            <v>91.647000000000006</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>31756</v>
+          <cell r="K6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1961,18 +1999,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>80.079757000000001</v>
+          <cell r="N3">
+            <v>656.70391300000006</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>408</v>
+          <cell r="N5">
+            <v>9321</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>1995</v>
+          <cell r="N6">
+            <v>31756</v>
           </cell>
         </row>
       </sheetData>
@@ -2281,21 +2319,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2927,7 +2965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1">
+    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3110,7 +3148,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="19" customFormat="1">
+    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3194,7 +3232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="19" customFormat="1">
+    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3250,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1">
+    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A52" s="19" t="s">
         <v>19</v>
       </c>
@@ -3241,7 +3279,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1">
+    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A54" s="19" t="s">
         <v>19</v>
       </c>
@@ -3325,7 +3363,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="13">
       <c r="A61" s="19" t="s">
         <v>19</v>
       </c>
@@ -3402,7 +3440,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="13">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3545,7 +3583,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="13">
       <c r="A81" s="19" t="s">
         <v>19</v>
       </c>
@@ -3578,7 +3616,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="13">
       <c r="A84" s="19" t="s">
         <v>19</v>
       </c>
@@ -3710,7 +3748,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="13">
       <c r="A96" s="19" t="s">
         <v>19</v>
       </c>
@@ -4575,7 +4613,7 @@
         <v>2790.0942647199995</v>
       </c>
       <c r="F172" s="3">
-        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
+        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
       <c r="G172" s="3">
@@ -4586,7 +4624,7 @@
         <v>442</v>
       </c>
       <c r="I172" s="3">
-        <f>+[12]Main!$K$3</f>
+        <f>+[8]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
       <c r="J172" s="16">
@@ -4620,22 +4658,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5048,14 +5086,36 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>327</v>
+      <c r="B33" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>443</v>
+      </c>
+      <c r="D33" s="21">
+        <v>192.2</v>
+      </c>
+      <c r="E33" s="17">
+        <f>+D33*H33</f>
+        <v>25613.352716399997</v>
+      </c>
+      <c r="F33" s="17">
+        <f>+[13]Main!$P$5-[13]Main!$P$6</f>
+        <v>-4872.2999999999993</v>
+      </c>
+      <c r="G33" s="17">
+        <f>+E33-F33</f>
+        <v>30485.652716399996</v>
+      </c>
+      <c r="H33" s="17">
+        <f>+[13]Main!$P$3</f>
+        <v>133.264062</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J33" s="18">
+        <v>45684</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5063,131 +5123,131 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>329</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:10">
+      <c r="B36" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>424</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>11.73</v>
       </c>
-      <c r="E35" s="17">
-        <f>+D35*H35</f>
+      <c r="E36" s="17">
+        <f>+D36*H36</f>
         <v>7703.1368994900013</v>
       </c>
-      <c r="F35" s="17">
-        <f>+[8]Main!$N$5-[8]Main!$N$6</f>
+      <c r="F36" s="17">
+        <f>+[9]Main!$N$5-[9]Main!$N$6</f>
         <v>-22435</v>
       </c>
-      <c r="G35" s="17">
-        <f>+E35-F35</f>
+      <c r="G36" s="17">
+        <f>+E36-F36</f>
         <v>30138.13689949</v>
       </c>
-      <c r="H35" s="17">
-        <f>+[8]Main!$N$3</f>
+      <c r="H36" s="17">
+        <f>+[9]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J36" s="18">
         <v>45561</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>359</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C37" t="s">
-        <v>426</v>
-      </c>
-      <c r="D37" s="21">
-        <v>93.74</v>
-      </c>
-      <c r="E37" s="17">
-        <f>+D37*H37</f>
-        <v>7506.67642118</v>
-      </c>
-      <c r="F37" s="17">
-        <f>+[9]Main!$L$5-[9]Main!$L$6</f>
-        <v>-1587</v>
-      </c>
-      <c r="G37" s="17">
-        <f>+E37-F37</f>
-        <v>9093.67642118</v>
-      </c>
-      <c r="H37" s="17">
-        <f>+[9]Main!$L$3</f>
-        <v>80.079757000000001</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J37" s="18">
-        <v>45565</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C38" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D38" s="21">
-        <v>35</v>
+        <v>93.74</v>
       </c>
       <c r="E38" s="17">
         <f>+D38*H38</f>
-        <v>6479.0687500000004</v>
+        <v>7506.67642118</v>
       </c>
       <c r="F38" s="17">
-        <f>+[10]Main!$H$5-[10]Main!$H$6</f>
-        <v>-1307.2</v>
+        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <v>-1587</v>
       </c>
       <c r="G38" s="17">
         <f>+E38-F38</f>
-        <v>7786.2687500000002</v>
+        <v>9093.67642118</v>
       </c>
       <c r="H38" s="17">
-        <f>+[10]Main!$H$3</f>
-        <v>185.11625000000001</v>
+        <f>+[10]Main!$L$3</f>
+        <v>80.079757000000001</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>420</v>
       </c>
       <c r="J38" s="18">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" s="21">
+        <v>35</v>
+      </c>
+      <c r="E39" s="17">
+        <f>+D39*H39</f>
+        <v>6479.0687500000004</v>
+      </c>
+      <c r="F39" s="17">
+        <f>+[11]Main!$H$5-[11]Main!$H$6</f>
+        <v>-1307.2</v>
+      </c>
+      <c r="G39" s="17">
+        <f>+E39-F39</f>
+        <v>7786.2687500000002</v>
+      </c>
+      <c r="H39" s="17">
+        <f>+[11]Main!$H$3</f>
+        <v>185.11625000000001</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J39" s="18">
         <v>45590</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>389</v>
-      </c>
-      <c r="C39" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5195,62 +5255,74 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
         <v>397</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:10">
+      <c r="B42" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>422</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>5.92</v>
       </c>
-      <c r="E41" s="17">
-        <f>+D41*H41</f>
+      <c r="E42" s="17">
+        <f>+D42*H42</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F41" s="17">
-        <f>+[11]Main!$K$5-[11]Main!$K$6</f>
+      <c r="F42" s="17">
+        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G41" s="17">
-        <f>+E41-F41</f>
+      <c r="G42" s="17">
+        <f>+E42-F42</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H41" s="17">
-        <f>+[11]Main!$K$3</f>
+      <c r="H42" s="17">
+        <f>+[12]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J42" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="14" t="s">
+    <row r="44" spans="1:10" ht="13">
+      <c r="B44" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="B44" t="s">
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
-    <hyperlink ref="B35" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
-    <hyperlink ref="B37" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B42" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B36" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B38" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B30" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
+    <hyperlink ref="B33" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639DFC5E-2E6C-4311-9AB4-A8EF80186CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B632BBD5-447C-4798-9ABF-5144B1523B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-41640" yWindow="720" windowWidth="26610" windowHeight="13410" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1623,6 +1623,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="N3">
+            <v>656.70391300000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>9321</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>31756</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="L3">
             <v>80.079757000000001</v>
           </cell>
@@ -1644,7 +1678,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1678,7 +1712,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1703,40 +1737,6 @@
         <row r="6">
           <cell r="K6">
             <v>89.554000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="P3">
-            <v>133.264062</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="P5">
-            <v>1158.4000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6">
-            <v>6030.7</v>
           </cell>
         </row>
       </sheetData>
@@ -1776,9 +1776,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1999,18 +1999,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>656.70391300000006</v>
+          <cell r="P3">
+            <v>133.264062</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>9321</v>
+          <cell r="P5">
+            <v>1158.4000000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>31756</v>
+          <cell r="P6">
+            <v>6030.7</v>
           </cell>
         </row>
       </sheetData>
@@ -2319,21 +2319,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC172"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G169" sqref="G169"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2559,11 +2563,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="15">
-        <v>220</v>
+        <v>389</v>
       </c>
       <c r="E6" s="3">
         <f>+D6*I6</f>
-        <v>702820.89130000002</v>
+        <v>1242715.1214349999</v>
       </c>
       <c r="F6" s="3">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
@@ -2571,7 +2575,7 @@
       </c>
       <c r="G6" s="3">
         <f>+E6-F6</f>
-        <v>679845.89130000002</v>
+        <v>1219740.1214349999</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>420</v>
@@ -2965,7 +2969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="28" spans="1:10" s="19" customFormat="1">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="44" spans="1:10" s="19" customFormat="1">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="51" spans="1:10" s="19" customFormat="1">
       <c r="A51" s="19" t="s">
         <v>19</v>
       </c>
@@ -3250,7 +3254,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="52" spans="1:10" s="19" customFormat="1">
       <c r="A52" s="19" t="s">
         <v>19</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="54" spans="1:10" s="19" customFormat="1">
       <c r="A54" s="19" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="13">
+    <row r="61" spans="1:10">
       <c r="A61" s="19" t="s">
         <v>19</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13">
+    <row r="81" spans="1:3">
       <c r="A81" s="19" t="s">
         <v>19</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13">
+    <row r="84" spans="1:3">
       <c r="A84" s="19" t="s">
         <v>19</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13">
+    <row r="96" spans="1:3">
       <c r="A96" s="19" t="s">
         <v>19</v>
       </c>
@@ -4660,20 +4664,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5100,7 +5104,7 @@
         <v>25613.352716399997</v>
       </c>
       <c r="F33" s="17">
-        <f>+[13]Main!$P$5-[13]Main!$P$6</f>
+        <f>+[9]Main!$P$5-[9]Main!$P$6</f>
         <v>-4872.2999999999993</v>
       </c>
       <c r="G33" s="17">
@@ -5108,7 +5112,7 @@
         <v>30485.652716399996</v>
       </c>
       <c r="H33" s="17">
-        <f>+[13]Main!$P$3</f>
+        <f>+[9]Main!$P$3</f>
         <v>133.264062</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -5155,7 +5159,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F36" s="17">
-        <f>+[9]Main!$N$5-[9]Main!$N$6</f>
+        <f>+[10]Main!$N$5-[10]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G36" s="17">
@@ -5163,7 +5167,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H36" s="17">
-        <f>+[9]Main!$N$3</f>
+        <f>+[10]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -5199,7 +5203,7 @@
         <v>7506.67642118</v>
       </c>
       <c r="F38" s="17">
-        <f>+[10]Main!$L$5-[10]Main!$L$6</f>
+        <f>+[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1587</v>
       </c>
       <c r="G38" s="17">
@@ -5207,7 +5211,7 @@
         <v>9093.67642118</v>
       </c>
       <c r="H38" s="17">
-        <f>+[10]Main!$L$3</f>
+        <f>+[11]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -5232,7 +5236,7 @@
         <v>6479.0687500000004</v>
       </c>
       <c r="F39" s="17">
-        <f>+[11]Main!$H$5-[11]Main!$H$6</f>
+        <f>+[12]Main!$H$5-[12]Main!$H$6</f>
         <v>-1307.2</v>
       </c>
       <c r="G39" s="17">
@@ -5240,7 +5244,7 @@
         <v>7786.2687500000002</v>
       </c>
       <c r="H39" s="17">
-        <f>+[11]Main!$H$3</f>
+        <f>+[12]Main!$H$3</f>
         <v>185.11625000000001</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -5287,7 +5291,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F42" s="17">
-        <f>+[12]Main!$K$5-[12]Main!$K$6</f>
+        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G42" s="17">
@@ -5295,7 +5299,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H42" s="17">
-        <f>+[12]Main!$K$3</f>
+        <f>+[13]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I42" s="16" t="s">
@@ -5305,7 +5309,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="13">
+    <row r="44" spans="1:10">
       <c r="B44" s="14" t="s">
         <v>144</v>
       </c>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B632BBD5-447C-4798-9ABF-5144B1523B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53094CAE-36F1-4223-8297-023C1A4F0309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41640" yWindow="720" windowWidth="26610" windowHeight="13410" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="464">
   <si>
     <t>Name</t>
   </si>
@@ -176,9 +176,6 @@
     <t>LIN</t>
   </si>
   <si>
-    <t>Raytheon</t>
-  </si>
-  <si>
     <t>RTX</t>
   </si>
   <si>
@@ -1383,6 +1380,69 @@
   </si>
   <si>
     <t>CDW</t>
+  </si>
+  <si>
+    <t>Rolls-Royce</t>
+  </si>
+  <si>
+    <t>RR/ LN</t>
+  </si>
+  <si>
+    <t>RTX Corp</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>6501 JP</t>
+  </si>
+  <si>
+    <t>Prologis</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>GE Verona</t>
+  </si>
+  <si>
+    <t>GEV</t>
+  </si>
+  <si>
+    <t>International Paper</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Komatsu</t>
+  </si>
+  <si>
+    <t>6301 JP</t>
+  </si>
+  <si>
+    <t>Dassault Aviation</t>
+  </si>
+  <si>
+    <t>AM FP</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>DOV</t>
+  </si>
+  <si>
+    <t>Agnico Eagle Mines</t>
+  </si>
+  <si>
+    <t>AEM CN</t>
+  </si>
+  <si>
+    <t>East Japan Railway</t>
+  </si>
+  <si>
+    <t>9020 JP</t>
   </si>
 </sst>
 </file>
@@ -1430,12 +1490,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1498,7 +1564,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1554,8 +1620,17 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2317,27 +2392,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="11.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2377,22 +2452,22 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1">
       <c r="B3" s="4" t="s">
@@ -2408,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>14</v>
@@ -2417,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>17</v>
@@ -2477,15 +2552,15 @@
         <v>31</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2506,7 +2581,7 @@
         <v>794082.26927516004</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I4" s="3">
         <f>+[1]Main!$K$3</f>
@@ -2517,14 +2592,14 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" t="s">
+      <c r="A5" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" t="s">
         <v>412</v>
-      </c>
-      <c r="C5" t="s">
-        <v>413</v>
       </c>
       <c r="D5" s="15">
         <v>468</v>
@@ -2542,7 +2617,7 @@
         <v>799484.97134800011</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I5" s="3">
         <f>+[1]Main!$K$3</f>
@@ -2553,7 +2628,7 @@
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" t="s">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2578,7 +2653,7 @@
         <v>1219740.1214349999</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I6" s="3">
         <f>+[2]Main!$K$3</f>
@@ -2589,7 +2664,7 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" t="s">
+      <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2614,7 +2689,7 @@
         <v>304574.60931370343</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I7" s="3">
         <f>+[3]Main!$L$4</f>
@@ -2625,7 +2700,7 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" t="s">
+      <c r="A8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2650,7 +2725,7 @@
         <v>306998.59351629787</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I8" s="3">
         <f>+[3]Main!$L$4</f>
@@ -2661,14 +2736,14 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" t="s">
+      <c r="A9" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
       </c>
       <c r="D9" s="15">
         <v>174.9</v>
@@ -2686,7 +2761,7 @@
         <v>142019.64735450002</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I9" s="3">
         <f>+[4]Main!$J$3</f>
@@ -2697,14 +2772,14 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" t="s">
+      <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="15">
         <v>251.8</v>
@@ -2722,7 +2797,7 @@
         <v>98304.324612714307</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I10" s="3">
         <f>+[5]Main!$L$3</f>
@@ -2733,14 +2808,14 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" t="s">
+      <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
         <v>175</v>
-      </c>
-      <c r="C11" t="s">
-        <v>176</v>
       </c>
       <c r="D11" s="2">
         <v>209.67</v>
@@ -2758,7 +2833,7 @@
         <v>86774.624381109999</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I11" s="3">
         <f>+[6]Main!$L$3</f>
@@ -2769,14 +2844,14 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" t="s">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
         <v>181</v>
-      </c>
-      <c r="C12" t="s">
-        <v>182</v>
       </c>
       <c r="D12" s="2">
         <v>13.04</v>
@@ -2794,7 +2869,7 @@
         <v>14007.927999999993</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I12" s="3">
         <f>+[7]Main!$J$4</f>
@@ -2805,7 +2880,7 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" t="s">
+      <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
@@ -2816,7 +2891,7 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" t="s">
+      <c r="A14" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -2827,7 +2902,7 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" t="s">
+      <c r="A15" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -2838,7 +2913,7 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" t="s">
+      <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
@@ -2849,135 +2924,135 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" t="s">
+      <c r="A17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
+      <c r="A18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" t="s">
+      <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" t="s">
         <v>415</v>
       </c>
-      <c r="C26" t="s">
-        <v>416</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" t="s">
+      <c r="A27" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="19" customFormat="1">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2988,179 +3063,179 @@
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" t="s">
+      <c r="A29" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" t="s">
+      <c r="A32" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>91</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="19" customFormat="1">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -3171,80 +3246,80 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" t="s">
+      <c r="A45" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>104</v>
       </c>
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" t="s">
+      <c r="A47" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
         <v>108</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>110</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>112</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A51" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" s="19" customFormat="1">
-      <c r="A51" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -3254,15 +3329,15 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A52" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
@@ -3273,25 +3348,25 @@
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" t="s">
+      <c r="A53" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
         <v>120</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
+      <c r="A54" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" s="19" customFormat="1">
-      <c r="A54" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>123</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -3302,135 +3377,135 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" t="s">
+      <c r="A55" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
         <v>124</v>
       </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" t="s">
+      <c r="A56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" t="s">
         <v>130</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>132</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C59" t="s">
         <v>134</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C60" t="s">
         <v>136</v>
       </c>
-      <c r="C59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
         <v>140</v>
       </c>
-      <c r="C60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="19" t="s">
+    </row>
+    <row r="62" spans="1:10" ht="13">
+      <c r="A62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
         <v>158</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C64" t="s">
         <v>160</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C65" t="s">
         <v>162</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>402</v>
+      </c>
+      <c r="C66" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" t="s">
-        <v>403</v>
-      </c>
-      <c r="C65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3438,285 +3513,285 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
         <v>169</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="13">
+      <c r="A69" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C68" s="19" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C70" t="s">
         <v>173</v>
       </c>
-      <c r="C69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
         <v>183</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
         <v>185</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C74" t="s">
         <v>187</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C75" t="s">
         <v>189</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C76" t="s">
         <v>191</v>
       </c>
-      <c r="C75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" t="s">
         <v>195</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C78" t="s">
         <v>197</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C79" t="s">
         <v>199</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C80" t="s">
         <v>201</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C81" t="s">
         <v>203</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="13">
+      <c r="A82" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="19" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="19" t="s">
+      <c r="C82" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="19" t="s">
+    </row>
+    <row r="83" spans="1:3" ht="13">
+      <c r="A83" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C83" t="s">
         <v>207</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="84" spans="1:3" ht="13">
+      <c r="A84" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C84" t="s">
         <v>209</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="19" t="s">
+      <c r="C85" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C84" s="19" t="s">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C86" t="s">
         <v>213</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C87" t="s">
         <v>215</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C88" t="s">
         <v>217</v>
       </c>
-      <c r="C87" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" t="s">
         <v>221</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>19</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C90" t="s">
         <v>223</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C91" t="s">
         <v>225</v>
       </c>
-      <c r="C90" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" t="s">
         <v>231</v>
-      </c>
-      <c r="C91" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>19</v>
-      </c>
-      <c r="B92" t="s">
-        <v>233</v>
-      </c>
-      <c r="C92" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3724,87 +3799,87 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" t="s">
         <v>237</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>443</v>
+      </c>
+      <c r="C95" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C96" t="s">
         <v>239</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C97" t="s">
         <v>241</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="98" spans="1:3" ht="13">
+      <c r="A98" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="19" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="19" t="s">
+      <c r="C98" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>19</v>
-      </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" t="s">
         <v>247</v>
       </c>
-      <c r="C97" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" t="s">
         <v>251</v>
-      </c>
-      <c r="C98" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" t="s">
-        <v>253</v>
-      </c>
-      <c r="C99" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C100" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3812,175 +3887,175 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" t="s">
         <v>257</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C104" t="s">
         <v>259</v>
       </c>
-      <c r="C102" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>19</v>
-      </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
         <v>263</v>
       </c>
-      <c r="C103" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>19</v>
-      </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
         <v>268</v>
       </c>
-      <c r="C104" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>19</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C107" t="s">
         <v>269</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C108" t="s">
         <v>271</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>19</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C109" t="s">
         <v>273</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>19</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C110" t="s">
         <v>275</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>19</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C111" t="s">
         <v>277</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C112" t="s">
         <v>279</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C113" t="s">
         <v>281</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="C114" t="s">
         <v>283</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C115" t="s">
         <v>285</v>
       </c>
-      <c r="C113" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>288</v>
+      </c>
+      <c r="C116" t="s">
         <v>289</v>
-      </c>
-      <c r="C114" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" t="s">
-        <v>291</v>
-      </c>
-      <c r="C115" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>19</v>
-      </c>
-      <c r="B116" t="s">
-        <v>297</v>
-      </c>
-      <c r="C116" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3988,76 +4063,76 @@
         <v>19</v>
       </c>
       <c r="B117" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" t="s">
         <v>299</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C120" t="s">
         <v>301</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C121" t="s">
         <v>303</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="C122" t="s">
         <v>305</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C123" t="s">
         <v>307</v>
-      </c>
-      <c r="C121" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>19</v>
-      </c>
-      <c r="B122" t="s">
-        <v>309</v>
-      </c>
-      <c r="C122" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>19</v>
-      </c>
-      <c r="B123" t="s">
-        <v>311</v>
-      </c>
-      <c r="C123" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4065,98 +4140,98 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" t="s">
         <v>313</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>19</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="C127" t="s">
         <v>315</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="129" spans="1:3">
+      <c r="A129" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
         <v>318</v>
       </c>
-      <c r="C126" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="C129" t="s">
         <v>319</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="131" spans="1:3">
+      <c r="A131" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
         <v>322</v>
       </c>
-      <c r="C128" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>19</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="C131" t="s">
         <v>323</v>
       </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" t="s">
+      <c r="C132" t="s">
         <v>325</v>
-      </c>
-      <c r="C130" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131" t="s">
-        <v>331</v>
-      </c>
-      <c r="C131" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>19</v>
-      </c>
-      <c r="B132" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4164,43 +4239,43 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>334</v>
+      </c>
+      <c r="C135" t="s">
         <v>335</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>19</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C136" t="s">
         <v>337</v>
-      </c>
-      <c r="C134" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" t="s">
-        <v>339</v>
-      </c>
-      <c r="C135" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>19</v>
-      </c>
-      <c r="B136" t="s">
-        <v>341</v>
-      </c>
-      <c r="C136" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4208,430 +4283,554 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
+        <v>338</v>
+      </c>
+      <c r="C137" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>340</v>
+      </c>
+      <c r="C138" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" t="s">
         <v>343</v>
       </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>19</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="C140" t="s">
         <v>345</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>19</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="C141" t="s">
         <v>347</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>19</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C142" t="s">
         <v>349</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>19</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C143" t="s">
         <v>351</v>
       </c>
-      <c r="C141" t="s">
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>19</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="C144" t="s">
         <v>353</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>355</v>
+      </c>
+      <c r="C145" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>19</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="146" spans="1:10">
+      <c r="A146" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
         <v>356</v>
       </c>
-      <c r="C143" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>19</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="C146" t="s">
         <v>357</v>
       </c>
-      <c r="C144" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>19</v>
-      </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>360</v>
+      </c>
+      <c r="C147" t="s">
         <v>361</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>19</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C148" t="s">
         <v>363</v>
       </c>
-      <c r="C146" t="s">
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>19</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="C149" t="s">
         <v>365</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>19</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="C150" t="s">
         <v>367</v>
       </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>19</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C151" t="s">
         <v>369</v>
       </c>
-      <c r="C149" t="s">
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>19</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="C152" t="s">
         <v>371</v>
       </c>
-      <c r="C150" t="s">
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>19</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="C153" t="s">
         <v>373</v>
       </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="154" spans="1:10" s="31" customFormat="1">
+      <c r="A154" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="32"/>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>375</v>
+      </c>
+      <c r="C155" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="156" spans="1:10">
+      <c r="A156" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
         <v>376</v>
       </c>
-      <c r="C152" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="C156" t="s">
         <v>377</v>
       </c>
-      <c r="C153" t="s">
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="C157" t="s">
         <v>379</v>
       </c>
-      <c r="C154" t="s">
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>456</v>
+      </c>
+      <c r="C158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="C159" t="s">
         <v>381</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>19</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="C160" t="s">
         <v>383</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="B161" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" s="15">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>454</v>
+      </c>
+      <c r="C162" t="s">
+        <v>455</v>
+      </c>
+      <c r="D162" s="15"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="B157" t="s">
-        <v>434</v>
-      </c>
-      <c r="D157" s="15">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="C163" t="s">
         <v>385</v>
       </c>
-      <c r="C158" t="s">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>452</v>
+      </c>
+      <c r="C164" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="C165" t="s">
         <v>387</v>
       </c>
-      <c r="C159" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>390</v>
+      </c>
+      <c r="C166" t="s">
         <v>391</v>
       </c>
-      <c r="C160" t="s">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
+        <v>460</v>
+      </c>
+      <c r="C167" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161" t="s">
+      <c r="C168" t="s">
         <v>393</v>
       </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="C169" t="s">
         <v>395</v>
       </c>
-      <c r="C162" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" t="s">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>462</v>
+      </c>
+      <c r="C170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>398</v>
+      </c>
+      <c r="C171" t="s">
         <v>399</v>
       </c>
-      <c r="C163" t="s">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" t="s">
-        <v>19</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="C172" t="s">
         <v>401</v>
       </c>
-      <c r="C164" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>403</v>
+      </c>
+      <c r="C173" t="s">
         <v>404</v>
       </c>
-      <c r="C165" t="s">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>446</v>
+      </c>
+      <c r="C174" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="C175" t="s">
         <v>406</v>
       </c>
-      <c r="C166" t="s">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" t="s">
-        <v>19</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="C176" t="s">
         <v>408</v>
       </c>
-      <c r="C167" t="s">
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" t="s">
-        <v>19</v>
-      </c>
-      <c r="B168" t="s">
+      <c r="C178" t="s">
         <v>410</v>
       </c>
-      <c r="C168" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="B169" s="1" t="s">
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C179" t="s">
         <v>418</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D179" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H179" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="D169" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H169" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="I169" s="16"/>
-      <c r="J169" s="16">
+      <c r="I179" s="16"/>
+      <c r="J179" s="16">
         <v>45545</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
-      <c r="B170" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C170" t="s">
+    <row r="180" spans="1:10">
+      <c r="B180" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D170" s="2">
+      <c r="C180" t="s">
+        <v>426</v>
+      </c>
+      <c r="D180" s="2">
         <v>3.55</v>
       </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="I170" s="16"/>
-      <c r="J170" s="16">
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I180" s="16"/>
+      <c r="J180" s="16">
         <v>45581</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
-      <c r="B171" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C171" t="s">
+    <row r="181" spans="1:10">
+      <c r="A181" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C181" t="s">
+        <v>437</v>
+      </c>
+      <c r="D181" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="B182" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C182" t="s">
         <v>438</v>
       </c>
-      <c r="D171" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="B172" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C172" t="s">
-        <v>439</v>
-      </c>
-      <c r="D172" s="2">
+      <c r="D182" s="2">
         <v>19.88</v>
       </c>
-      <c r="E172" s="3">
-        <f>+D172*I172</f>
+      <c r="E182" s="3">
+        <f>+D182*I182</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F182" s="3">
         <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G172" s="3">
-        <f>+E172-F172</f>
+      <c r="G182" s="3">
+        <f>+E182-F182</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H172" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="I172" s="3">
+      <c r="H182" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I182" s="3">
         <f>+[8]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J172" s="16">
+      <c r="J182" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -4645,15 +4844,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B169" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B179" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B170" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B171" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B172" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B180" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B181" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B182" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
@@ -4664,20 +4863,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -4757,7 +4956,7 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" t="s">
+      <c r="A3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
@@ -4768,7 +4967,7 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
@@ -4779,7 +4978,7 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" t="s">
+      <c r="A5" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
@@ -4790,69 +4989,69 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" t="s">
+      <c r="A6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" t="s">
+      <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
         <v>126</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -4860,241 +5059,244 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
         <v>142</v>
       </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
         <v>146</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>148</v>
       </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
         <v>152</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>154</v>
       </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
         <v>167</v>
       </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
         <v>179</v>
       </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s">
         <v>193</v>
       </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" t="s">
         <v>219</v>
       </c>
-      <c r="C21" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
         <v>227</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>229</v>
       </c>
-      <c r="C23" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
         <v>235</v>
       </c>
-      <c r="C24" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
         <v>245</v>
       </c>
-      <c r="C25" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" t="s">
         <v>249</v>
       </c>
-      <c r="C26" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
         <v>261</v>
       </c>
-      <c r="C27" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
         <v>265</v>
       </c>
-      <c r="C28" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" t="s">
         <v>287</v>
       </c>
-      <c r="C29" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" t="s">
         <v>435</v>
-      </c>
-      <c r="C30" t="s">
-        <v>436</v>
       </c>
       <c r="D30" s="21">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" t="s">
         <v>293</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>295</v>
       </c>
-      <c r="C32" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="33" spans="1:10">
+      <c r="A33" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D33" s="21">
         <v>192.2</v>
@@ -5116,40 +5318,43 @@
         <v>133.264062</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J33" s="18">
         <v>45684</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="s">
+      <c r="A34" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" t="s">
         <v>327</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>329</v>
       </c>
-      <c r="C35" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="36" spans="1:10">
+      <c r="A36" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="B36" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" t="s">
         <v>423</v>
-      </c>
-      <c r="C36" t="s">
-        <v>424</v>
       </c>
       <c r="D36">
         <v>11.73</v>
@@ -5171,29 +5376,29 @@
         <v>656.70391300000006</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J36" s="18">
         <v>45561</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" t="s">
+      <c r="A37" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C37" t="s">
         <v>359</v>
-      </c>
-      <c r="C37" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C38" t="s">
         <v>425</v>
-      </c>
-      <c r="C38" t="s">
-        <v>426</v>
       </c>
       <c r="D38" s="21">
         <v>93.74</v>
@@ -5215,7 +5420,7 @@
         <v>80.079757000000001</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J38" s="18">
         <v>45565</v>
@@ -5223,10 +5428,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="B39" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="21">
         <v>35</v>
@@ -5248,40 +5453,40 @@
         <v>185.11625000000001</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J39" s="18">
         <v>45590</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" t="s">
+      <c r="A40" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" t="s">
         <v>389</v>
       </c>
-      <c r="C40" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" t="s">
+      <c r="A41" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" t="s">
         <v>397</v>
-      </c>
-      <c r="C41" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C42" t="s">
         <v>421</v>
-      </c>
-      <c r="C42" t="s">
-        <v>422</v>
       </c>
       <c r="D42">
         <v>5.92</v>
@@ -5303,20 +5508,20 @@
         <v>206.820246</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J42" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="13">
       <c r="B44" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53094CAE-36F1-4223-8297-023C1A4F0309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2AB154-BBBF-44C7-BE4C-6BFD28426572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="12315" yWindow="4530" windowWidth="22995" windowHeight="13695" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1564,7 +1564,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1624,13 +1624,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2394,11 +2387,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC182"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D177" sqref="D177"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -2638,11 +2631,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="15">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="E6" s="3">
         <f>+D6*I6</f>
-        <v>1242715.1214349999</v>
+        <v>1156459.83023</v>
       </c>
       <c r="F6" s="3">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
@@ -2650,7 +2643,7 @@
       </c>
       <c r="G6" s="3">
         <f>+E6-F6</f>
-        <v>1219740.1214349999</v>
+        <v>1133484.83023</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>419</v>
@@ -3707,18 +3700,18 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="29" t="s">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B86" t="s">
@@ -3729,7 +3722,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B87" t="s">
@@ -3740,7 +3733,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B88" t="s">
@@ -3751,7 +3744,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B89" t="s">
@@ -3762,7 +3755,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B90" t="s">
@@ -3773,7 +3766,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B91" t="s">
@@ -3784,7 +3777,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B92" t="s">
@@ -4366,7 +4359,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:3">
       <c r="A145" s="25" t="s">
         <v>19</v>
       </c>
@@ -4377,7 +4370,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:3">
       <c r="A146" s="25" t="s">
         <v>19</v>
       </c>
@@ -4388,7 +4381,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -4399,7 +4392,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -4410,7 +4403,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:3">
       <c r="A149" s="25" t="s">
         <v>19</v>
       </c>
@@ -4421,7 +4414,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -4432,7 +4425,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:3">
       <c r="A151" s="25" t="s">
         <v>19</v>
       </c>
@@ -4443,7 +4436,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:3">
       <c r="A152" s="25" t="s">
         <v>19</v>
       </c>
@@ -4454,7 +4447,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:3">
       <c r="A153" s="25" t="s">
         <v>19</v>
       </c>
@@ -4465,26 +4458,19 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="31" customFormat="1">
-      <c r="A154" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" s="31" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
         <v>458</v>
       </c>
-      <c r="C154" s="31" t="s">
+      <c r="C154" t="s">
         <v>459</v>
       </c>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="32"/>
-      <c r="J154" s="32"/>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="30" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B155" t="s">
@@ -4494,8 +4480,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="30" t="s">
+    <row r="156" spans="1:3">
+      <c r="A156" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B156" t="s">
@@ -4505,8 +4491,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="30" t="s">
+    <row r="157" spans="1:3">
+      <c r="A157" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B157" t="s">
@@ -4516,7 +4502,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:3">
       <c r="A158" s="25" t="s">
         <v>19</v>
       </c>
@@ -4527,7 +4513,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:3">
       <c r="A159" s="25" t="s">
         <v>19</v>
       </c>
@@ -4538,7 +4524,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -4863,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A41" sqref="A41"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2AB154-BBBF-44C7-BE4C-6BFD28426572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E939AF-B689-4F7D-B5B9-72B6AC309738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="4530" windowWidth="22995" windowHeight="13695" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="466">
   <si>
     <t>Name</t>
   </si>
@@ -1443,6 +1443,12 @@
   </si>
   <si>
     <t>9020 JP</t>
+  </si>
+  <si>
+    <t>Equinix</t>
+  </si>
+  <si>
+    <t>EQIX</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4847,13 +4853,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -5155,10 +5161,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5166,10 +5172,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5177,10 +5183,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5188,10 +5194,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5199,10 +5205,10 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5210,10 +5216,10 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5221,10 +5227,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5232,35 +5238,35 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>434</v>
+      <c r="B30" t="s">
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>435</v>
-      </c>
-      <c r="D30" s="21">
-        <v>191</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
-        <v>292</v>
+      <c r="B31" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>435</v>
+      </c>
+      <c r="D31" s="21">
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5268,57 +5274,57 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>442</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="21">
         <v>192.2</v>
       </c>
-      <c r="E33" s="17">
-        <f>+D33*H33</f>
+      <c r="E34" s="17">
+        <f>+D34*H34</f>
         <v>25613.352716399997</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <f>+[9]Main!$P$5-[9]Main!$P$6</f>
         <v>-4872.2999999999993</v>
       </c>
-      <c r="G33" s="17">
-        <f>+E33-F33</f>
+      <c r="G34" s="17">
+        <f>+E34-F34</f>
         <v>30485.652716399996</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <f>+[9]Main!$P$3</f>
         <v>133.264062</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J34" s="18">
         <v>45684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C34" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5326,134 +5332,134 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>423</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>11.73</v>
       </c>
-      <c r="E36" s="17">
-        <f>+D36*H36</f>
+      <c r="E37" s="17">
+        <f>+D37*H37</f>
         <v>7703.1368994900013</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <f>+[10]Main!$N$5-[10]Main!$N$6</f>
         <v>-22435</v>
       </c>
-      <c r="G36" s="17">
-        <f>+E36-F36</f>
+      <c r="G37" s="17">
+        <f>+E37-F37</f>
         <v>30138.13689949</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <f>+[10]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J37" s="18">
         <v>45561</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>358</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:10">
+      <c r="B39" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>425</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D39" s="21">
         <v>93.74</v>
       </c>
-      <c r="E38" s="17">
-        <f>+D38*H38</f>
+      <c r="E39" s="17">
+        <f>+D39*H39</f>
         <v>7506.67642118</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <f>+[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1587</v>
       </c>
-      <c r="G38" s="17">
-        <f>+E38-F38</f>
+      <c r="G39" s="17">
+        <f>+E39-F39</f>
         <v>9093.67642118</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <f>+[11]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="18">
         <v>45565</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:10">
+      <c r="B40" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>436</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D40" s="21">
         <v>35</v>
       </c>
-      <c r="E39" s="17">
-        <f>+D39*H39</f>
+      <c r="E40" s="17">
+        <f>+D40*H40</f>
         <v>6479.0687500000004</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <f>+[12]Main!$H$5-[12]Main!$H$6</f>
         <v>-1307.2</v>
       </c>
-      <c r="G39" s="17">
-        <f>+E39-F39</f>
+      <c r="G40" s="17">
+        <f>+E40-F40</f>
         <v>7786.2687500000002</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <f>+[12]Main!$H$3</f>
         <v>185.11625000000001</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J40" s="18">
         <v>45590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5461,63 +5467,74 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
         <v>396</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:10">
+      <c r="B43" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>421</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>5.92</v>
       </c>
-      <c r="E42" s="17">
-        <f>+D42*H42</f>
+      <c r="E43" s="17">
+        <f>+D43*H43</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G42" s="17">
-        <f>+E42-F42</f>
+      <c r="G43" s="17">
+        <f>+E43-F43</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <f>+[13]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I43" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J43" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="13">
-      <c r="B44" s="14" t="s">
+    <row r="45" spans="1:10" ht="13">
+      <c r="B45" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="B45" t="s">
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
-    <hyperlink ref="B36" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
-    <hyperlink ref="B39" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
-    <hyperlink ref="B33" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
+    <hyperlink ref="B43" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B39" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B31" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
+    <hyperlink ref="B40" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E939AF-B689-4F7D-B5B9-72B6AC309738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE765ED-1C3C-4F6E-949C-D63E3CCD252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="478">
   <si>
     <t>Name</t>
   </si>
@@ -1449,6 +1449,42 @@
   </si>
   <si>
     <t>EQIX</t>
+  </si>
+  <si>
+    <t>Saint-Gobain Glass</t>
+  </si>
+  <si>
+    <t>SGGVP BB</t>
+  </si>
+  <si>
+    <t>Schlumberger</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>LG Energy Solution</t>
+  </si>
+  <si>
+    <t>373220 KS</t>
+  </si>
+  <si>
+    <t>Public Storage</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>Howmet Aerospace</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>Siemens Energy</t>
+  </si>
+  <si>
+    <t>ENR GR</t>
   </si>
 </sst>
 </file>
@@ -1850,9 +1886,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2391,27 +2427,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2"/>
-    <col min="5" max="5" width="11.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -3043,7 +3079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="28" spans="1:10" s="19" customFormat="1">
       <c r="A28" s="25" t="s">
         <v>19</v>
       </c>
@@ -3077,10 +3113,10 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>476</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3088,10 +3124,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3099,10 +3135,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3110,10 +3146,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3121,10 +3157,10 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3132,10 +3168,10 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3143,10 +3179,10 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3154,10 +3190,10 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3165,10 +3201,10 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3176,10 +3212,10 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3187,10 +3223,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3198,10 +3234,10 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3209,10 +3245,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3220,50 +3256,50 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A44" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:10" s="19" customFormat="1">
+      <c r="A45" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3271,10 +3307,10 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3282,10 +3318,10 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3293,10 +3329,10 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3304,39 +3340,32 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A51" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:10" s="19" customFormat="1">
+      <c r="A52" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>116</v>
-      </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A52" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
@@ -3346,55 +3375,62 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" s="19" customFormat="1">
       <c r="A53" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A54" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="19" t="s">
+    <row r="55" spans="1:10" s="19" customFormat="1">
+      <c r="A55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>124</v>
-      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3402,10 +3438,10 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3413,10 +3449,10 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>450</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3424,10 +3460,10 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3435,10 +3471,10 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3446,32 +3482,32 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
         <v>139</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="13">
-      <c r="A62" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
+      <c r="B63" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3479,10 +3515,10 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3490,10 +3526,10 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3501,54 +3537,54 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
         <v>402</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
         <v>165</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
         <v>168</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="13">
-      <c r="A69" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" t="s">
-        <v>173</v>
+      <c r="B70" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3556,10 +3592,10 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3567,10 +3603,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3578,10 +3614,10 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3589,10 +3625,10 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3600,10 +3636,10 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3611,10 +3647,10 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3622,10 +3658,10 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3633,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3644,10 +3680,10 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3655,10 +3691,10 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3666,76 +3702,76 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
         <v>202</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13">
-      <c r="A82" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="19" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13">
-      <c r="A83" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
         <v>206</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13">
-      <c r="A84" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
         <v>208</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
         <v>210</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3743,10 +3779,10 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3754,10 +3790,10 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3765,10 +3801,10 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3776,10 +3812,10 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3787,21 +3823,21 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A93" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3809,21 +3845,21 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="25" t="s">
+      <c r="A95" t="s">
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>443</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s">
-        <v>444</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3831,10 +3867,10 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3842,21 +3878,21 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>443</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="13">
-      <c r="A98" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>243</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3864,32 +3900,32 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
         <v>246</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C100" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>19</v>
-      </c>
-      <c r="B101" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3897,21 +3933,21 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="25" t="s">
+      <c r="A103" t="s">
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3919,10 +3955,10 @@
         <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3930,10 +3966,10 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C105" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3941,10 +3977,10 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3952,10 +3988,10 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3963,10 +3999,10 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3974,10 +4010,10 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3985,10 +4021,10 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C110" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3996,10 +4032,10 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4007,10 +4043,10 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4018,10 +4054,10 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C113" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4029,10 +4065,10 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C114" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4040,10 +4076,10 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4051,21 +4087,21 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C116" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="A117" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4073,21 +4109,21 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C118" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="25" t="s">
+      <c r="A119" t="s">
         <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C119" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4095,10 +4131,10 @@
         <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4106,10 +4142,10 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C121" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4117,10 +4153,10 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4128,21 +4164,21 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C123" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
+      <c r="A124" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C124" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4150,21 +4186,21 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C125" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="25" t="s">
+      <c r="A126" t="s">
         <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C126" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4172,10 +4208,10 @@
         <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4183,10 +4219,10 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4194,10 +4230,10 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4205,10 +4241,10 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C130" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4216,10 +4252,10 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C131" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4227,21 +4263,21 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C132" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="A133" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4249,21 +4285,21 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="25" t="s">
+      <c r="A135" t="s">
         <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4271,21 +4307,21 @@
         <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C136" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="A137" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C137" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4293,21 +4329,21 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C138" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="25" t="s">
+      <c r="A139" t="s">
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C139" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4315,10 +4351,10 @@
         <v>19</v>
       </c>
       <c r="B140" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C140" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4326,10 +4362,10 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4337,10 +4373,10 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C142" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4348,10 +4384,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C143" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4359,10 +4395,10 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C144" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4370,10 +4406,10 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4381,43 +4417,43 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>355</v>
+      </c>
+      <c r="C147" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
         <v>356</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>19</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
         <v>360</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C149" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>19</v>
-      </c>
-      <c r="B148" t="s">
-        <v>362</v>
-      </c>
-      <c r="C148" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B149" t="s">
-        <v>364</v>
-      </c>
-      <c r="C149" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4425,10 +4461,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4436,21 +4472,21 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C151" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="25" t="s">
+      <c r="A152" t="s">
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C152" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4458,10 +4494,10 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C153" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4469,10 +4505,10 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s">
-        <v>459</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4480,10 +4516,10 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C155" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4491,10 +4527,10 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="C156" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4502,10 +4538,10 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4513,10 +4549,10 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="C158" t="s">
-        <v>457</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4524,85 +4560,85 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>456</v>
+      </c>
+      <c r="C160" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
         <v>380</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C161" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
         <v>382</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C162" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="B161" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>474</v>
+      </c>
+      <c r="C163" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="B164" t="s">
         <v>433</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D164" s="15">
         <v>34.5</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
         <v>454</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C165" t="s">
         <v>455</v>
       </c>
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="D165" s="15"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
         <v>384</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C166" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B164" t="s">
-        <v>452</v>
-      </c>
-      <c r="C164" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" t="s">
-        <v>386</v>
-      </c>
-      <c r="C165" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" t="s">
-        <v>390</v>
-      </c>
-      <c r="C166" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4610,21 +4646,21 @@
         <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C167" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="25" t="s">
+      <c r="A168" t="s">
         <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C168" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4632,10 +4668,10 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C169" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4643,10 +4679,10 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C170" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4654,10 +4690,10 @@
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C171" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4665,10 +4701,10 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C172" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4676,10 +4712,10 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="C173" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4687,10 +4723,10 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C174" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4698,10 +4734,10 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C175" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4709,10 +4745,10 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C176" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -4720,10 +4756,10 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>155</v>
+        <v>446</v>
       </c>
       <c r="C177" t="s">
-        <v>156</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -4731,98 +4767,131 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C178" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>417</v>
+      <c r="B179" t="s">
+        <v>407</v>
       </c>
       <c r="C179" t="s">
-        <v>418</v>
-      </c>
-      <c r="D179" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H179" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="I179" s="16"/>
-      <c r="J179" s="16">
-        <v>45545</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:10">
-      <c r="B180" s="1" t="s">
-        <v>427</v>
+      <c r="A180" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" t="s">
+        <v>155</v>
       </c>
       <c r="C180" t="s">
-        <v>426</v>
-      </c>
-      <c r="D180" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I180" s="16"/>
-      <c r="J180" s="16">
-        <v>45581</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
+        <v>409</v>
+      </c>
+      <c r="C181" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C182" t="s">
+        <v>418</v>
+      </c>
+      <c r="D182" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H182" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="I182" s="16"/>
+      <c r="J182" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="B183" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C183" t="s">
+        <v>426</v>
+      </c>
+      <c r="D183" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I183" s="16"/>
+      <c r="J183" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C184" t="s">
         <v>437</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D184" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
-      <c r="B182" s="1" t="s">
+    <row r="185" spans="1:10">
+      <c r="B185" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C185" t="s">
         <v>438</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D185" s="2">
         <v>19.88</v>
       </c>
-      <c r="E182" s="3">
-        <f>+D182*I182</f>
+      <c r="E185" s="3">
+        <f>+D185*I185</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F185" s="3">
         <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G182" s="3">
-        <f>+E182-F182</f>
+      <c r="G185" s="3">
+        <f>+E185-F185</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="H185" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I182" s="3">
+      <c r="I185" s="3">
         <f>+[8]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J182" s="16">
+      <c r="J185" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -4836,15 +4905,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B179" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B182" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B180" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B181" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B182" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B183" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B184" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B185" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
@@ -4853,22 +4922,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5205,10 +5274,10 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>466</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5216,10 +5285,10 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5227,10 +5296,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5238,10 +5307,10 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5249,35 +5318,35 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>434</v>
+      <c r="B31" t="s">
+        <v>286</v>
       </c>
       <c r="C31" t="s">
-        <v>435</v>
-      </c>
-      <c r="D31" s="21">
-        <v>191</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
-        <v>292</v>
+      <c r="B32" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="C32" t="s">
-        <v>293</v>
+        <v>435</v>
+      </c>
+      <c r="D32" s="21">
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5285,57 +5354,57 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>442</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="21">
         <v>192.2</v>
       </c>
-      <c r="E34" s="17">
-        <f>+D34*H34</f>
+      <c r="E35" s="17">
+        <f>+D35*H35</f>
         <v>25613.352716399997</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <f>+[9]Main!$P$5-[9]Main!$P$6</f>
         <v>-4872.2999999999993</v>
       </c>
-      <c r="G34" s="17">
-        <f>+E34-F34</f>
+      <c r="G35" s="17">
+        <f>+E35-F35</f>
         <v>30485.652716399996</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <f>+[9]Main!$P$3</f>
         <v>133.264062</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="18">
         <v>45684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5343,198 +5412,231 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>423</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>11.73</v>
       </c>
-      <c r="E37" s="17">
-        <f>+D37*H37</f>
+      <c r="E39" s="17">
+        <f>+D39*H39</f>
         <v>7703.1368994900013</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F39" s="17">
         <f>+[10]Main!$N$5-[10]Main!$N$6</f>
         <v>-22435</v>
       </c>
-      <c r="G37" s="17">
-        <f>+E37-F37</f>
+      <c r="G39" s="17">
+        <f>+E39-F39</f>
         <v>30138.13689949</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H39" s="17">
         <f>+[10]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J39" s="18">
         <v>45561</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>358</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:10">
+      <c r="B41" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>425</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D41" s="21">
         <v>93.74</v>
       </c>
-      <c r="E39" s="17">
-        <f>+D39*H39</f>
+      <c r="E41" s="17">
+        <f>+D41*H41</f>
         <v>7506.67642118</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F41" s="17">
         <f>+[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1587</v>
       </c>
-      <c r="G39" s="17">
-        <f>+E39-F39</f>
+      <c r="G41" s="17">
+        <f>+E41-F41</f>
         <v>9093.67642118</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H41" s="17">
         <f>+[11]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J41" s="18">
         <v>45565</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:10">
+      <c r="B42" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>436</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D42" s="21">
         <v>35</v>
       </c>
-      <c r="E40" s="17">
-        <f>+D40*H40</f>
+      <c r="E42" s="17">
+        <f>+D42*H42</f>
         <v>6479.0687500000004</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F42" s="17">
         <f>+[12]Main!$H$5-[12]Main!$H$6</f>
         <v>-1307.2</v>
       </c>
-      <c r="G40" s="17">
-        <f>+E40-F40</f>
+      <c r="G42" s="17">
+        <f>+E42-F42</f>
         <v>7786.2687500000002</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H42" s="17">
         <f>+[12]Main!$H$3</f>
         <v>185.11625000000001</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J42" s="18">
         <v>45590</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
         <v>388</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>468</v>
+      </c>
+      <c r="C44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
         <v>396</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="1" t="s">
+    <row r="46" spans="1:10">
+      <c r="B46" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>421</v>
       </c>
-      <c r="D43">
+      <c r="D46">
         <v>5.92</v>
       </c>
-      <c r="E43" s="17">
-        <f>+D43*H43</f>
+      <c r="E46" s="17">
+        <f>+D46*H46</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F46" s="17">
         <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G43" s="17">
-        <f>+E43-F43</f>
+      <c r="G46" s="17">
+        <f>+E46-F46</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H46" s="17">
         <f>+[13]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I46" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J46" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="13">
-      <c r="B45" s="14" t="s">
+    <row r="48" spans="1:10">
+      <c r="B48" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="B46" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
-    <hyperlink ref="B37" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
-    <hyperlink ref="B39" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
-    <hyperlink ref="B31" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
-    <hyperlink ref="B40" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
-    <hyperlink ref="B34" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
+    <hyperlink ref="B46" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B41" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B32" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
+    <hyperlink ref="B42" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
+    <hyperlink ref="B35" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE765ED-1C3C-4F6E-949C-D63E3CCD252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53067757-72B5-4E69-B482-28ADD64875EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="500">
   <si>
     <t>Name</t>
   </si>
@@ -1485,6 +1485,72 @@
   </si>
   <si>
     <t>ENR GR</t>
+  </si>
+  <si>
+    <t>Compagnie de Saint Gobain</t>
+  </si>
+  <si>
+    <t>SGO FP</t>
+  </si>
+  <si>
+    <t>Axon Enterprise</t>
+  </si>
+  <si>
+    <t>AXON</t>
+  </si>
+  <si>
+    <t>Mitsubishi Heavy Industries</t>
+  </si>
+  <si>
+    <t>7011 JP</t>
+  </si>
+  <si>
+    <t>United Rentals</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>DHL GR</t>
+  </si>
+  <si>
+    <t>Baker Hughes</t>
+  </si>
+  <si>
+    <t>BKR</t>
+  </si>
+  <si>
+    <t>Quanta Services</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>Mahindra &amp; Mahindra</t>
+  </si>
+  <si>
+    <t>MM IN</t>
+  </si>
+  <si>
+    <t>Bayan Resources</t>
+  </si>
+  <si>
+    <t>BYAN IJ</t>
+  </si>
+  <si>
+    <t>Delta Air</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>Vertiv</t>
+  </si>
+  <si>
+    <t>VRT</t>
   </si>
 </sst>
 </file>
@@ -2427,13 +2493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4723,10 +4789,10 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="C174" t="s">
-        <v>399</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4734,10 +4800,10 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="C175" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4745,10 +4811,10 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>403</v>
+        <v>488</v>
       </c>
       <c r="C176" t="s">
-        <v>404</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -4756,10 +4822,10 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="C177" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -4767,10 +4833,10 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C178" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -4778,10 +4844,10 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C179" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -4789,10 +4855,10 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>155</v>
+        <v>490</v>
       </c>
       <c r="C180" t="s">
-        <v>156</v>
+        <v>491</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -4800,98 +4866,175 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C181" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>417</v>
+      <c r="B182" t="s">
+        <v>446</v>
       </c>
       <c r="C182" t="s">
-        <v>418</v>
-      </c>
-      <c r="D182" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H182" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="I182" s="16"/>
-      <c r="J182" s="16">
-        <v>45545</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:10">
-      <c r="B183" s="1" t="s">
-        <v>427</v>
+      <c r="A183" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="s">
+        <v>494</v>
       </c>
       <c r="C183" t="s">
-        <v>426</v>
-      </c>
-      <c r="D183" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I183" s="16"/>
-      <c r="J183" s="16">
-        <v>45581</v>
+        <v>495</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
+        <v>405</v>
+      </c>
+      <c r="C184" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>407</v>
+      </c>
+      <c r="C185" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="s">
+        <v>155</v>
+      </c>
+      <c r="C186" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>492</v>
+      </c>
+      <c r="C187" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188" t="s">
+        <v>409</v>
+      </c>
+      <c r="C188" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C189" t="s">
+        <v>418</v>
+      </c>
+      <c r="D189" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H189" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="I189" s="16"/>
+      <c r="J189" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="B190" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C190" t="s">
+        <v>426</v>
+      </c>
+      <c r="D190" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I190" s="16"/>
+      <c r="J190" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C191" t="s">
         <v>437</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D191" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
-      <c r="B185" s="1" t="s">
+    <row r="192" spans="1:10">
+      <c r="B192" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C192" t="s">
         <v>438</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D192" s="2">
         <v>19.88</v>
       </c>
-      <c r="E185" s="3">
-        <f>+D185*I185</f>
+      <c r="E192" s="3">
+        <f>+D192*I192</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F192" s="3">
         <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G185" s="3">
-        <f>+E185-F185</f>
+      <c r="G192" s="3">
+        <f>+E192-F192</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H185" s="2" t="s">
+      <c r="H192" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I192" s="3">
         <f>+[8]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J185" s="16">
+      <c r="J192" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -4905,15 +5048,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B182" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B189" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B183" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B184" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B185" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B190" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B191" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B192" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
@@ -4922,13 +5065,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5170,7 +5313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
         <v>19</v>
       </c>
@@ -5181,7 +5324,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
         <v>19</v>
       </c>
@@ -5192,7 +5335,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
@@ -5203,7 +5346,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
@@ -5214,7 +5357,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
@@ -5225,7 +5368,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="25" t="s">
         <v>19</v>
       </c>
@@ -5236,7 +5379,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="25" t="s">
         <v>19</v>
       </c>
@@ -5247,7 +5390,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="25" t="s">
         <v>19</v>
       </c>
@@ -5258,7 +5401,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="25" t="s">
         <v>19</v>
       </c>
@@ -5269,7 +5412,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
@@ -5280,7 +5423,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="25" t="s">
         <v>19</v>
       </c>
@@ -5291,7 +5434,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="25" t="s">
         <v>19</v>
       </c>
@@ -5302,51 +5445,48 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
         <v>260</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
         <v>264</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C32" t="s">
-        <v>435</v>
-      </c>
-      <c r="D32" s="21">
-        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5354,79 +5494,82 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
-        <v>294</v>
+      <c r="B34" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
+        <v>435</v>
+      </c>
+      <c r="D34" s="21">
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>442</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D37" s="21">
         <v>192.2</v>
       </c>
-      <c r="E35" s="17">
-        <f>+D35*H35</f>
+      <c r="E37" s="17">
+        <f>+D37*H37</f>
         <v>25613.352716399997</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F37" s="17">
         <f>+[9]Main!$P$5-[9]Main!$P$6</f>
         <v>-4872.2999999999993</v>
       </c>
-      <c r="G35" s="17">
-        <f>+E35-F35</f>
+      <c r="G37" s="17">
+        <f>+E37-F37</f>
         <v>30485.652716399996</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H37" s="17">
         <f>+[9]Main!$P$3</f>
         <v>133.264062</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J37" s="18">
         <v>45684</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>472</v>
-      </c>
-      <c r="C37" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5434,209 +5577,253 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>496</v>
+      </c>
+      <c r="C39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>472</v>
+      </c>
+      <c r="C41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>423</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <v>11.73</v>
       </c>
-      <c r="E39" s="17">
-        <f>+D39*H39</f>
+      <c r="E43" s="17">
+        <f>+D43*H43</f>
         <v>7703.1368994900013</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F43" s="17">
         <f>+[10]Main!$N$5-[10]Main!$N$6</f>
         <v>-22435</v>
       </c>
-      <c r="G39" s="17">
-        <f>+E39-F39</f>
+      <c r="G43" s="17">
+        <f>+E43-F43</f>
         <v>30138.13689949</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H43" s="17">
         <f>+[10]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J43" s="18">
         <v>45561</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
         <v>358</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="1" t="s">
+    <row r="45" spans="1:10">
+      <c r="B45" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>425</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D45" s="21">
         <v>93.74</v>
       </c>
-      <c r="E41" s="17">
-        <f>+D41*H41</f>
+      <c r="E45" s="17">
+        <f>+D45*H45</f>
         <v>7506.67642118</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F45" s="17">
         <f>+[11]Main!$L$5-[11]Main!$L$6</f>
         <v>-1587</v>
       </c>
-      <c r="G41" s="17">
-        <f>+E41-F41</f>
+      <c r="G45" s="17">
+        <f>+E45-F45</f>
         <v>9093.67642118</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H45" s="17">
         <f>+[11]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J45" s="18">
         <v>45565</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="B42" s="1" t="s">
+    <row r="46" spans="1:10">
+      <c r="B46" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>436</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D46" s="21">
         <v>35</v>
       </c>
-      <c r="E42" s="17">
-        <f>+D42*H42</f>
+      <c r="E46" s="17">
+        <f>+D46*H46</f>
         <v>6479.0687500000004</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F46" s="17">
         <f>+[12]Main!$H$5-[12]Main!$H$6</f>
         <v>-1307.2</v>
       </c>
-      <c r="G42" s="17">
-        <f>+E42-F42</f>
+      <c r="G46" s="17">
+        <f>+E46-F46</f>
         <v>7786.2687500000002</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H46" s="17">
         <f>+[12]Main!$H$3</f>
         <v>185.11625000000001</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J46" s="18">
         <v>45590</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
         <v>388</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
         <v>468</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
         <v>396</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="B46" s="1" t="s">
+    <row r="50" spans="1:10">
+      <c r="B50" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
         <v>421</v>
       </c>
-      <c r="D46">
+      <c r="D50">
         <v>5.92</v>
       </c>
-      <c r="E46" s="17">
-        <f>+D46*H46</f>
+      <c r="E50" s="17">
+        <f>+D50*H50</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F50" s="17">
         <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G46" s="17">
-        <f>+E46-F46</f>
+      <c r="G50" s="17">
+        <f>+E50-F50</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H50" s="17">
         <f>+[13]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I50" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J50" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="B48" s="14" t="s">
+    <row r="52" spans="1:10">
+      <c r="B52" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="53" spans="1:10">
+      <c r="B53" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B46" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
-    <hyperlink ref="B41" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
-    <hyperlink ref="B32" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
-    <hyperlink ref="B42" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
-    <hyperlink ref="B35" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
+    <hyperlink ref="B50" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
+    <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
+    <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>
+    <hyperlink ref="B46" r:id="rId5" xr:uid="{63BA1E06-255B-4EB1-8678-DDBD2CA94724}"/>
+    <hyperlink ref="B37" r:id="rId6" xr:uid="{799133E6-77ED-4BF4-A4EA-ADF98A7D402C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53067757-72B5-4E69-B482-28ADD64875EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB4124-BDB9-4F84-92AB-9A812CC6EAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25890" yWindow="2055" windowWidth="25590" windowHeight="15345" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-50970" yWindow="1500" windowWidth="21720" windowHeight="17280" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="522">
   <si>
     <t>Name</t>
   </si>
@@ -1551,6 +1551,72 @@
   </si>
   <si>
     <t>VRT</t>
+  </si>
+  <si>
+    <t>Givaudan</t>
+  </si>
+  <si>
+    <t>GIVN SW</t>
+  </si>
+  <si>
+    <t>Ultratech Cement</t>
+  </si>
+  <si>
+    <t>UTCEM IN</t>
+  </si>
+  <si>
+    <t>Weg</t>
+  </si>
+  <si>
+    <t>WEGE3 BZ</t>
+  </si>
+  <si>
+    <t>Chandra Asri Petrochemical</t>
+  </si>
+  <si>
+    <t>TPIA IJ</t>
+  </si>
+  <si>
+    <t>Ingersoll-Rand</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Vulcan Materials</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>Daimler Truck Holding</t>
+  </si>
+  <si>
+    <t>DTG GR</t>
+  </si>
+  <si>
+    <t>Aena</t>
+  </si>
+  <si>
+    <t>AENA SM</t>
+  </si>
+  <si>
+    <t>Rheinmetall</t>
+  </si>
+  <si>
+    <t>RHM GR</t>
+  </si>
+  <si>
+    <t>Rockwell Automation</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>Wabtec</t>
+  </si>
+  <si>
+    <t>WAB</t>
   </si>
 </sst>
 </file>
@@ -1762,25 +1828,27 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>1.4761481073333333</v>
+            <v>492.18</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>531247</v>
+            <v>1006756.3981999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>294476</v>
+            <v>652287</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2493,13 +2561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C169" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C184" sqref="C184"/>
+      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2671,22 +2739,22 @@
       </c>
       <c r="E4" s="3">
         <f>+D4*I4</f>
-        <v>1030853.26927516</v>
+        <v>343708981.19999999</v>
       </c>
       <c r="F4" s="3">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>236771</v>
+        <v>354469.39819999994</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G10" si="0">+E4-F4</f>
-        <v>794082.26927516004</v>
+        <v>343354511.80180001</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>413</v>
       </c>
       <c r="I4" s="3">
         <f>+[1]Main!$K$3</f>
-        <v>1.4761481073333333</v>
+        <v>492.18</v>
       </c>
       <c r="J4" s="16">
         <v>44964</v>
@@ -2707,22 +2775,22 @@
       </c>
       <c r="E5" s="3">
         <f>+D5*I5*1500</f>
-        <v>1036255.9713480001</v>
+        <v>345510360</v>
       </c>
       <c r="F5" s="3">
         <f>+[1]Main!$K$5-[1]Main!$K$6</f>
-        <v>236771</v>
+        <v>354469.39819999994</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>799484.97134800011</v>
+        <v>345155890.60180002</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>413</v>
       </c>
       <c r="I5" s="3">
         <f>+[1]Main!$K$3</f>
-        <v>1.4761481073333333</v>
+        <v>492.18</v>
       </c>
       <c r="J5" s="16">
         <v>44964</v>
@@ -4817,7 +4885,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:3">
       <c r="A177" s="25" t="s">
         <v>19</v>
       </c>
@@ -4828,7 +4896,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:3">
       <c r="A178" s="25" t="s">
         <v>19</v>
       </c>
@@ -4839,7 +4907,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:3">
       <c r="A179" s="25" t="s">
         <v>19</v>
       </c>
@@ -4850,7 +4918,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:3">
       <c r="A180" s="25" t="s">
         <v>19</v>
       </c>
@@ -4861,7 +4929,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:3">
       <c r="A181" s="25" t="s">
         <v>19</v>
       </c>
@@ -4872,7 +4940,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:3">
       <c r="A182" s="25" t="s">
         <v>19</v>
       </c>
@@ -4883,7 +4951,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:3">
       <c r="A183" s="25" t="s">
         <v>19</v>
       </c>
@@ -4894,7 +4962,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:3">
       <c r="A184" s="25" t="s">
         <v>19</v>
       </c>
@@ -4905,7 +4973,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:3">
       <c r="A185" s="25" t="s">
         <v>19</v>
       </c>
@@ -4916,7 +4984,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:3">
       <c r="A186" s="25" t="s">
         <v>19</v>
       </c>
@@ -4927,7 +4995,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:3">
       <c r="A187" s="25" t="s">
         <v>19</v>
       </c>
@@ -4938,103 +5006,213 @@
         <v>493</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:3">
       <c r="A188" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B188" t="s">
+        <v>504</v>
+      </c>
+      <c r="C188" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" t="s">
+        <v>510</v>
+      </c>
+      <c r="C189" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" t="s">
+        <v>508</v>
+      </c>
+      <c r="C190" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>506</v>
+      </c>
+      <c r="C191" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>512</v>
+      </c>
+      <c r="C192" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>518</v>
+      </c>
+      <c r="C193" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>516</v>
+      </c>
+      <c r="C194" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" t="s">
+        <v>502</v>
+      </c>
+      <c r="C195" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>520</v>
+      </c>
+      <c r="C196" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
         <v>409</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C197" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
-      <c r="A189" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B189" s="1" t="s">
+    <row r="198" spans="1:10">
+      <c r="A198" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="s">
+        <v>500</v>
+      </c>
+      <c r="C198" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C199" t="s">
         <v>418</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D199" s="2">
         <v>17.71</v>
       </c>
-      <c r="H189" s="16" t="s">
+      <c r="H199" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="I189" s="16"/>
-      <c r="J189" s="16">
+      <c r="I199" s="16"/>
+      <c r="J199" s="16">
         <v>45545</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
-      <c r="B190" s="1" t="s">
+    <row r="200" spans="1:10">
+      <c r="B200" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C200" t="s">
         <v>426</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D200" s="2">
         <v>3.55</v>
       </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="2" t="s">
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I190" s="16"/>
-      <c r="J190" s="16">
+      <c r="I200" s="16"/>
+      <c r="J200" s="16">
         <v>45581</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
-      <c r="A191" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B191" s="1" t="s">
+    <row r="201" spans="1:10">
+      <c r="A201" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C201" t="s">
         <v>437</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D201" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
-      <c r="B192" s="1" t="s">
+    <row r="202" spans="1:10">
+      <c r="B202" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C202" t="s">
         <v>438</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D202" s="2">
         <v>19.88</v>
       </c>
-      <c r="E192" s="3">
-        <f>+D192*I192</f>
+      <c r="E202" s="3">
+        <f>+D202*I202</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F202" s="3">
         <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G192" s="3">
-        <f>+E192-F192</f>
+      <c r="G202" s="3">
+        <f>+E202-F202</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H192" s="2" t="s">
+      <c r="H202" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I192" s="3">
+      <c r="I202" s="3">
         <f>+[8]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J192" s="16">
+      <c r="J202" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -5048,15 +5226,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B189" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B199" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B190" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B191" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B192" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B200" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B201" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B202" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
@@ -5065,13 +5243,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5767,58 +5945,69 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
         <v>396</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:10">
+      <c r="B51" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>421</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>5.92</v>
       </c>
-      <c r="E50" s="17">
-        <f>+D50*H50</f>
+      <c r="E51" s="17">
+        <f>+D51*H51</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G50" s="17">
-        <f>+E50-F50</f>
+      <c r="G51" s="17">
+        <f>+E51-F51</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <f>+[13]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I51" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J51" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="B52" s="14" t="s">
+    <row r="53" spans="1:10">
+      <c r="B53" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="B53" t="s">
+    <row r="54" spans="1:10">
+      <c r="B54" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B51" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB4124-BDB9-4F84-92AB-9A812CC6EAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D34FF66-5AF8-4929-BB01-77AD1B41E703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50970" yWindow="1500" windowWidth="21720" windowHeight="17280" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-42435" yWindow="2160" windowWidth="21045" windowHeight="13620" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="528">
   <si>
     <t>Name</t>
   </si>
@@ -1617,6 +1617,24 @@
   </si>
   <si>
     <t>WAB</t>
+  </si>
+  <si>
+    <t>Tata Motors</t>
+  </si>
+  <si>
+    <t>TTAN IN</t>
+  </si>
+  <si>
+    <t>United Airlines</t>
+  </si>
+  <si>
+    <t>UAL</t>
+  </si>
+  <si>
+    <t>Ferrovial</t>
+  </si>
+  <si>
+    <t>FER SM</t>
   </si>
 </sst>
 </file>
@@ -2561,13 +2579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C170" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D196" sqref="D196"/>
+      <selection pane="bottomRight" activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5077,10 +5095,10 @@
         <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C194" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -5088,10 +5106,10 @@
         <v>19</v>
       </c>
       <c r="B195" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="C195" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -5099,10 +5117,10 @@
         <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C196" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -5110,10 +5128,10 @@
         <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="C197" t="s">
-        <v>410</v>
+        <v>521</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -5121,52 +5139,32 @@
         <v>19</v>
       </c>
       <c r="B198" t="s">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="C198" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>417</v>
+      <c r="B199" t="s">
+        <v>526</v>
       </c>
       <c r="C199" t="s">
-        <v>418</v>
-      </c>
-      <c r="D199" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H199" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="I199" s="16"/>
-      <c r="J199" s="16">
-        <v>45545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="1:10">
-      <c r="B200" s="1" t="s">
-        <v>427</v>
+      <c r="A200" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" t="s">
+        <v>500</v>
       </c>
       <c r="C200" t="s">
-        <v>426</v>
-      </c>
-      <c r="D200" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I200" s="16"/>
-      <c r="J200" s="16">
-        <v>45581</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -5174,45 +5172,87 @@
         <v>19</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="C201" t="s">
-        <v>437</v>
-      </c>
-      <c r="D201" s="15">
-        <v>20</v>
+        <v>418</v>
+      </c>
+      <c r="D201" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H201" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="I201" s="16"/>
+      <c r="J201" s="16">
+        <v>45545</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="B202" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C202" t="s">
+        <v>426</v>
+      </c>
+      <c r="D202" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I202" s="16"/>
+      <c r="J202" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C203" t="s">
+        <v>437</v>
+      </c>
+      <c r="D203" s="15">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="B204" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C204" t="s">
         <v>438</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D204" s="2">
         <v>19.88</v>
       </c>
-      <c r="E202" s="3">
-        <f>+D202*I202</f>
+      <c r="E204" s="3">
+        <f>+D204*I204</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F204" s="3">
         <f>+[8]Main!$K$5-[8]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G202" s="3">
-        <f>+E202-F202</f>
+      <c r="G204" s="3">
+        <f>+E204-F204</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H202" s="2" t="s">
+      <c r="H204" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I202" s="3">
+      <c r="I204" s="3">
         <f>+[8]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J202" s="16">
+      <c r="J204" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -5226,15 +5266,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B199" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B201" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B200" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B201" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B202" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B202" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B203" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B204" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
@@ -5243,13 +5283,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5934,10 +5974,10 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="C48" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5945,10 +5985,10 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="C49" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5956,58 +5996,69 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
         <v>396</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:10">
+      <c r="B52" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>421</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>5.92</v>
       </c>
-      <c r="E51" s="17">
-        <f>+D51*H51</f>
+      <c r="E52" s="17">
+        <f>+D52*H52</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <f>+[13]Main!$K$5-[13]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G51" s="17">
-        <f>+E51-F51</f>
+      <c r="G52" s="17">
+        <f>+E52-F52</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <f>+[13]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I52" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J52" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="B53" s="14" t="s">
+    <row r="54" spans="1:10">
+      <c r="B54" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="B54" t="s">
+    <row r="55" spans="1:10">
+      <c r="B55" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B52" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D34FF66-5AF8-4929-BB01-77AD1B41E703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E38D3-3A8E-48C6-81C3-71EA70F47F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42435" yWindow="2160" windowWidth="21045" windowHeight="13620" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-27840" yWindow="765" windowWidth="27150" windowHeight="18675" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="529">
   <si>
     <t>Name</t>
   </si>
@@ -1635,6 +1636,9 @@
   </si>
   <si>
     <t>FER SM</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -2003,6 +2007,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>482.09199999999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>6980</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>21623</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2582,10 +2620,10 @@
   <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I199" sqref="I199"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2594,9 +2632,9 @@
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
@@ -2764,7 +2802,7 @@
         <v>354469.39819999994</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G10" si="0">+E4-F4</f>
+        <f t="shared" ref="G4:G11" si="0">+E4-F4</f>
         <v>343354511.80180001</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2927,154 +2965,179 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D9" s="15">
-        <v>174.9</v>
+        <v>462.6</v>
       </c>
       <c r="E9" s="3">
         <f>+D9*I9</f>
+        <v>223015.7592</v>
+      </c>
+      <c r="F9" s="3">
+        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
+        <v>-14643</v>
+      </c>
+      <c r="G9" s="3">
+        <f>+E9-F9</f>
+        <v>237658.7592</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I9" s="3">
+        <f>+[14]Main!$J$3</f>
+        <v>482.09199999999998</v>
+      </c>
+      <c r="J9" s="16">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="15">
+        <v>174.9</v>
+      </c>
+      <c r="E10" s="3">
+        <f>+D10*I10</f>
         <v>106712.6473545</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <f>+[4]Main!$J$5-[4]Main!$J$6</f>
         <v>-35307</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>142019.64735450002</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <f>+[4]Main!$J$3</f>
         <v>610.13520500000004</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J10" s="16">
         <v>45527</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:29">
+      <c r="A11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="15">
         <v>251.8</v>
       </c>
-      <c r="E10" s="3">
-        <f>+D10*I10/7</f>
+      <c r="E11" s="3">
+        <f>+D11*I11/7</f>
         <v>104650.44889842859</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <f>+([5]Main!$L$5-[5]Main!$L$6)/7</f>
         <v>6346.1242857142843</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>98304.324612714307</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <f>+[5]Main!$L$3</f>
         <v>2909.2658550000001</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J11" s="16">
         <v>45560</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:29">
+      <c r="A12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>209.67</v>
       </c>
-      <c r="E11" s="3">
-        <f>+D11*I11</f>
+      <c r="E12" s="3">
+        <f>+D12*I12</f>
         <v>84559.624381109999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <f>+[6]Main!$L$5-[6]Main!$L$6</f>
         <v>-2215</v>
       </c>
-      <c r="G11" s="3">
-        <f>+E11-F11</f>
+      <c r="G12" s="3">
+        <f>+E12-F12</f>
         <v>86774.624381109999</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <f>+[6]Main!$L$3</f>
         <v>403.298633</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J12" s="16">
         <v>45579</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:29">
+      <c r="A13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>13.04</v>
       </c>
-      <c r="E12" s="3">
-        <f>+D12*I12</f>
+      <c r="E13" s="3">
+        <f>+D13*I13</f>
         <v>39438.827999999994</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <f>([7]Main!$J$6-[7]Main!$J$7)*1.1</f>
         <v>25430.9</v>
       </c>
-      <c r="G12" s="3">
-        <f>+E12-F12</f>
+      <c r="G13" s="3">
+        <f>+E13-F13</f>
         <v>14007.927999999993</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <f>+[7]Main!$J$4</f>
         <v>3024.45</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J13" s="16">
         <v>45578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -3082,10 +3145,10 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -3093,10 +3156,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3104,10 +3167,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5265,19 +5328,20 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A10232A7-6D7E-4EDF-93AD-D782AE764D1D}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
     <hyperlink ref="B201" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
     <hyperlink ref="B202" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
     <hyperlink ref="B203" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
     <hyperlink ref="B204" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614E38D3-3A8E-48C6-81C3-71EA70F47F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E745375E-EBEF-40B1-8480-520348A65722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="765" windowWidth="27150" windowHeight="18675" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="537">
   <si>
     <t>Name</t>
   </si>
@@ -1639,6 +1639,30 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Martin Marietta</t>
+  </si>
+  <si>
+    <t>MLM</t>
+  </si>
+  <si>
+    <t>Schindler Holding</t>
+  </si>
+  <si>
+    <t>SCHP SW</t>
+  </si>
+  <si>
+    <t>Xylem</t>
+  </si>
+  <si>
+    <t>XYL</t>
+  </si>
+  <si>
+    <t>Wheaton Precious Metals</t>
+  </si>
+  <si>
+    <t>WPM CN</t>
   </si>
 </sst>
 </file>
@@ -1889,6 +1913,40 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
+          <cell r="P3">
+            <v>133.264062</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="P5">
+            <v>1158.4000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6">
+            <v>6030.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
           <cell r="N3">
             <v>656.70391300000006</v>
           </cell>
@@ -1910,7 +1968,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1944,7 +2002,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -1978,7 +2036,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2007,40 +2065,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="J3">
-            <v>482.09199999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>6980</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>21623</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2132,6 +2156,40 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="J3">
+            <v>482.09199999999998</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>6980</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>21623</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
             <v>610.13520500000004</v>
           </cell>
         </row>
@@ -2152,7 +2210,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2184,7 +2242,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2218,7 +2276,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2252,7 +2310,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2277,40 +2335,6 @@
         <row r="6">
           <cell r="K6">
             <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="P3">
-            <v>133.264062</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="P5">
-            <v>1158.4000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6">
-            <v>6030.7</v>
           </cell>
         </row>
       </sheetData>
@@ -2617,27 +2641,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="11.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2978,7 +3002,7 @@
         <v>223015.7592</v>
       </c>
       <c r="F9" s="3">
-        <f>+[14]Main!$J$5-[14]Main!$J$6</f>
+        <f>+[4]Main!$J$5-[4]Main!$J$6</f>
         <v>-14643</v>
       </c>
       <c r="G9" s="3">
@@ -2989,7 +3013,7 @@
         <v>528</v>
       </c>
       <c r="I9" s="3">
-        <f>+[14]Main!$J$3</f>
+        <f>+[4]Main!$J$3</f>
         <v>482.09199999999998</v>
       </c>
       <c r="J9" s="16">
@@ -3014,7 +3038,7 @@
         <v>106712.6473545</v>
       </c>
       <c r="F10" s="3">
-        <f>+[4]Main!$J$5-[4]Main!$J$6</f>
+        <f>+[5]Main!$J$5-[5]Main!$J$6</f>
         <v>-35307</v>
       </c>
       <c r="G10" s="3">
@@ -3025,7 +3049,7 @@
         <v>416</v>
       </c>
       <c r="I10" s="3">
-        <f>+[4]Main!$J$3</f>
+        <f>+[5]Main!$J$3</f>
         <v>610.13520500000004</v>
       </c>
       <c r="J10" s="16">
@@ -3050,7 +3074,7 @@
         <v>104650.44889842859</v>
       </c>
       <c r="F11" s="3">
-        <f>+([5]Main!$L$5-[5]Main!$L$6)/7</f>
+        <f>+([6]Main!$L$5-[6]Main!$L$6)/7</f>
         <v>6346.1242857142843</v>
       </c>
       <c r="G11" s="3">
@@ -3061,7 +3085,7 @@
         <v>419</v>
       </c>
       <c r="I11" s="3">
-        <f>+[5]Main!$L$3</f>
+        <f>+[6]Main!$L$3</f>
         <v>2909.2658550000001</v>
       </c>
       <c r="J11" s="16">
@@ -3086,7 +3110,7 @@
         <v>84559.624381109999</v>
       </c>
       <c r="F12" s="3">
-        <f>+[6]Main!$L$5-[6]Main!$L$6</f>
+        <f>+[7]Main!$L$5-[7]Main!$L$6</f>
         <v>-2215</v>
       </c>
       <c r="G12" s="3">
@@ -3097,7 +3121,7 @@
         <v>419</v>
       </c>
       <c r="I12" s="3">
-        <f>+[6]Main!$L$3</f>
+        <f>+[7]Main!$L$3</f>
         <v>403.298633</v>
       </c>
       <c r="J12" s="16">
@@ -3122,7 +3146,7 @@
         <v>39438.827999999994</v>
       </c>
       <c r="F13" s="3">
-        <f>([7]Main!$J$6-[7]Main!$J$7)*1.1</f>
+        <f>([8]Main!$J$6-[8]Main!$J$7)*1.1</f>
         <v>25430.9</v>
       </c>
       <c r="G13" s="3">
@@ -3133,7 +3157,7 @@
         <v>419</v>
       </c>
       <c r="I13" s="3">
-        <f>+[7]Main!$J$4</f>
+        <f>+[8]Main!$J$4</f>
         <v>3024.45</v>
       </c>
       <c r="J13" s="16">
@@ -3294,7 +3318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1">
+    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A28" s="25" t="s">
         <v>19</v>
       </c>
@@ -3488,7 +3512,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="19" customFormat="1">
+    <row r="45" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A45" s="25" t="s">
         <v>19</v>
       </c>
@@ -3572,7 +3596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1">
+    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A52" s="25" t="s">
         <v>19</v>
       </c>
@@ -3590,7 +3614,7 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="1:10" s="19" customFormat="1">
+    <row r="53" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A53" s="25" t="s">
         <v>19</v>
       </c>
@@ -3619,7 +3643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="19" customFormat="1">
+    <row r="55" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A55" s="25" t="s">
         <v>19</v>
       </c>
@@ -3714,7 +3738,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" ht="13">
       <c r="A63" s="25" t="s">
         <v>19</v>
       </c>
@@ -3791,7 +3815,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="13">
       <c r="A70" s="25" t="s">
         <v>19</v>
       </c>
@@ -3945,7 +3969,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="13">
       <c r="A84" s="26" t="s">
         <v>19</v>
       </c>
@@ -3956,7 +3980,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="13">
       <c r="A85" s="26" t="s">
         <v>19</v>
       </c>
@@ -3967,7 +3991,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="13">
       <c r="A86" s="26" t="s">
         <v>19</v>
       </c>
@@ -4121,7 +4145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="13">
       <c r="A100" s="26" t="s">
         <v>19</v>
       </c>
@@ -5224,98 +5248,142 @@
         <v>19</v>
       </c>
       <c r="B200" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="C200" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>417</v>
+      <c r="B201" t="s">
+        <v>531</v>
       </c>
       <c r="C201" t="s">
-        <v>418</v>
-      </c>
-      <c r="D201" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H201" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="I201" s="16"/>
-      <c r="J201" s="16">
-        <v>45545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="202" spans="1:10">
-      <c r="B202" s="1" t="s">
-        <v>427</v>
+      <c r="A202" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" t="s">
+        <v>535</v>
       </c>
       <c r="C202" t="s">
-        <v>426</v>
-      </c>
-      <c r="D202" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I202" s="16"/>
-      <c r="J202" s="16">
-        <v>45581</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
+        <v>533</v>
+      </c>
+      <c r="C203" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
+        <v>500</v>
+      </c>
+      <c r="C204" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C205" t="s">
+        <v>418</v>
+      </c>
+      <c r="D205" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H205" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="I205" s="16"/>
+      <c r="J205" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="B206" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" t="s">
+        <v>426</v>
+      </c>
+      <c r="D206" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I206" s="16"/>
+      <c r="J206" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C207" t="s">
         <v>437</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D207" s="15">
         <v>19.79</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
-      <c r="B204" s="1" t="s">
+    <row r="208" spans="1:10">
+      <c r="B208" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C208" t="s">
         <v>438</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D208" s="2">
         <v>19.88</v>
       </c>
-      <c r="E204" s="3">
-        <f>+D204*I204</f>
+      <c r="E208" s="3">
+        <f>+D208*I208</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F204" s="3">
-        <f>+[8]Main!$K$5-[8]Main!$K$6</f>
+      <c r="F208" s="3">
+        <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G204" s="3">
-        <f>+E204-F204</f>
+      <c r="G208" s="3">
+        <f>+E208-F208</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H204" s="2" t="s">
+      <c r="H208" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I204" s="3">
-        <f>+[8]Main!$K$3</f>
+      <c r="I208" s="3">
+        <f>+[9]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J204" s="16">
+      <c r="J208" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -5329,15 +5397,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B201" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B205" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B202" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B203" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B204" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B206" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B207" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B208" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
     <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5356,13 +5424,13 @@
       <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5836,7 +5904,7 @@
         <v>25613.352716399997</v>
       </c>
       <c r="F37" s="17">
-        <f>+[9]Main!$P$5-[9]Main!$P$6</f>
+        <f>+[10]Main!$P$5-[10]Main!$P$6</f>
         <v>-4872.2999999999993</v>
       </c>
       <c r="G37" s="17">
@@ -5844,7 +5912,7 @@
         <v>30485.652716399996</v>
       </c>
       <c r="H37" s="17">
-        <f>+[9]Main!$P$3</f>
+        <f>+[10]Main!$P$3</f>
         <v>133.264062</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -5927,7 +5995,7 @@
         <v>7703.1368994900013</v>
       </c>
       <c r="F43" s="17">
-        <f>+[10]Main!$N$5-[10]Main!$N$6</f>
+        <f>+[11]Main!$N$5-[11]Main!$N$6</f>
         <v>-22435</v>
       </c>
       <c r="G43" s="17">
@@ -5935,7 +6003,7 @@
         <v>30138.13689949</v>
       </c>
       <c r="H43" s="17">
-        <f>+[10]Main!$N$3</f>
+        <f>+[11]Main!$N$3</f>
         <v>656.70391300000006</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -5971,7 +6039,7 @@
         <v>7506.67642118</v>
       </c>
       <c r="F45" s="17">
-        <f>+[11]Main!$L$5-[11]Main!$L$6</f>
+        <f>+[12]Main!$L$5-[12]Main!$L$6</f>
         <v>-1587</v>
       </c>
       <c r="G45" s="17">
@@ -5979,7 +6047,7 @@
         <v>9093.67642118</v>
       </c>
       <c r="H45" s="17">
-        <f>+[11]Main!$L$3</f>
+        <f>+[12]Main!$L$3</f>
         <v>80.079757000000001</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -6004,7 +6072,7 @@
         <v>6479.0687500000004</v>
       </c>
       <c r="F46" s="17">
-        <f>+[12]Main!$H$5-[12]Main!$H$6</f>
+        <f>+[13]Main!$H$5-[13]Main!$H$6</f>
         <v>-1307.2</v>
       </c>
       <c r="G46" s="17">
@@ -6012,7 +6080,7 @@
         <v>7786.2687500000002</v>
       </c>
       <c r="H46" s="17">
-        <f>+[12]Main!$H$3</f>
+        <f>+[13]Main!$H$3</f>
         <v>185.11625000000001</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -6092,7 +6160,7 @@
         <v>1224.3758563199999</v>
       </c>
       <c r="F52" s="17">
-        <f>+[13]Main!$K$5-[13]Main!$K$6</f>
+        <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
       <c r="G52" s="17">
@@ -6100,7 +6168,7 @@
         <v>1129.2418563199999</v>
       </c>
       <c r="H52" s="17">
-        <f>+[13]Main!$K$3</f>
+        <f>+[14]Main!$K$3</f>
         <v>206.820246</v>
       </c>
       <c r="I52" s="16" t="s">
@@ -6110,7 +6178,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" ht="13">
       <c r="B54" s="14" t="s">
         <v>143</v>
       </c>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E745375E-EBEF-40B1-8480-520348A65722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6CDA5-598C-40AC-B478-3B192C796781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46500" yWindow="5660" windowWidth="21420" windowHeight="16260" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="57510" yWindow="3210" windowWidth="17210" windowHeight="12590" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2100,9 +2100,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2643,11 +2643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C183" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C200" sqref="C200"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -2887,11 +2887,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="15">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="E6" s="3">
         <f>+D6*I6</f>
-        <v>1156459.83023</v>
+        <v>827411.86748499994</v>
       </c>
       <c r="F6" s="3">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G6" s="3">
         <f>+E6-F6</f>
-        <v>1133484.83023</v>
+        <v>804436.86748499994</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>419</v>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B6CDA5-598C-40AC-B478-3B192C796781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60984558-06DD-4F48-85F0-A77299205F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57510" yWindow="3210" windowWidth="17210" windowHeight="12590" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -1134,12 +1134,6 @@
     <t>6178 JP</t>
   </si>
   <si>
-    <t>DSM</t>
-  </si>
-  <si>
-    <t>DSM NA</t>
-  </si>
-  <si>
     <t>JA Solar Technology</t>
   </si>
   <si>
@@ -1663,6 +1657,60 @@
   </si>
   <si>
     <t>WPM CN</t>
+  </si>
+  <si>
+    <t>Amman Mineral</t>
+  </si>
+  <si>
+    <t>AMMN JK</t>
+  </si>
+  <si>
+    <t>Legrand</t>
+  </si>
+  <si>
+    <t>LR FP</t>
+  </si>
+  <si>
+    <t>Iron Mountain</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>Fortive</t>
+  </si>
+  <si>
+    <t>FTV</t>
+  </si>
+  <si>
+    <t>Smurfit Westrock</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Hindustan Aeronautics</t>
+  </si>
+  <si>
+    <t>HAL IN</t>
+  </si>
+  <si>
+    <t>NTT Data</t>
+  </si>
+  <si>
+    <t>9613 JP</t>
+  </si>
+  <si>
+    <t>Bajaj Auto</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO IN</t>
+  </si>
+  <si>
+    <t>Sandvik</t>
+  </si>
+  <si>
+    <t>SAND SS</t>
   </si>
 </sst>
 </file>
@@ -2641,27 +2689,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2"/>
-    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="11.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2702,7 +2750,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
@@ -2710,7 +2758,7 @@
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W2" s="27"/>
       <c r="X2" s="27"/>
@@ -2732,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>14</v>
@@ -2741,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>17</v>
@@ -2801,7 +2849,7 @@
         <v>31</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -2809,7 +2857,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2830,7 +2878,7 @@
         <v>343354511.80180001</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I4" s="3">
         <f>+[1]Main!$K$3</f>
@@ -2845,10 +2893,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D5" s="15">
         <v>468</v>
@@ -2866,7 +2914,7 @@
         <v>345155890.60180002</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I5" s="3">
         <f>+[1]Main!$K$3</f>
@@ -2902,7 +2950,7 @@
         <v>804436.86748499994</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I6" s="3">
         <f>+[2]Main!$K$3</f>
@@ -2938,7 +2986,7 @@
         <v>304574.60931370343</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I7" s="3">
         <f>+[3]Main!$L$4</f>
@@ -2974,7 +3022,7 @@
         <v>306998.59351629787</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I8" s="3">
         <f>+[3]Main!$L$4</f>
@@ -3010,7 +3058,7 @@
         <v>237658.7592</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I9" s="3">
         <f>+[4]Main!$J$3</f>
@@ -3046,7 +3094,7 @@
         <v>142019.64735450002</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I10" s="3">
         <f>+[5]Main!$J$3</f>
@@ -3082,7 +3130,7 @@
         <v>98304.324612714307</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I11" s="3">
         <f>+[6]Main!$L$3</f>
@@ -3118,7 +3166,7 @@
         <v>86774.624381109999</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I12" s="3">
         <f>+[7]Main!$L$3</f>
@@ -3154,7 +3202,7 @@
         <v>14007.927999999993</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I13" s="3">
         <f>+[8]Main!$J$4</f>
@@ -3202,7 +3250,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -3268,21 +3316,28 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>541</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3290,10 +3345,10 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3301,10 +3356,10 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3312,50 +3367,50 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A28" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:10" s="19" customFormat="1">
+      <c r="A29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>476</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3363,10 +3418,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>474</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3374,10 +3429,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3385,10 +3440,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3396,10 +3451,10 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3407,10 +3462,10 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3418,10 +3473,10 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3429,10 +3484,10 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3440,10 +3495,10 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3451,10 +3506,10 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3462,10 +3517,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3473,10 +3528,10 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3484,10 +3539,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3495,10 +3550,10 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3506,50 +3561,50 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A45" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:10" s="19" customFormat="1">
+      <c r="A46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3557,10 +3612,10 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3568,10 +3623,10 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3579,10 +3634,10 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3590,39 +3645,32 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A52" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:10" s="19" customFormat="1">
+      <c r="A53" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
         <v>115</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>116</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A53" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -3632,55 +3680,62 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" s="19" customFormat="1">
       <c r="A54" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
         <v>119</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="19" customFormat="1" ht="13">
-      <c r="A55" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="19" t="s">
+    <row r="56" spans="1:10" s="19" customFormat="1">
+      <c r="A56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>124</v>
-      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3688,10 +3743,10 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3699,10 +3754,10 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>450</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3710,10 +3765,10 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>448</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3721,10 +3776,10 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3732,32 +3787,32 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
         <v>139</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="13">
-      <c r="A63" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>158</v>
+      <c r="B64" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3765,10 +3820,10 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3776,10 +3831,10 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3787,54 +3842,54 @@
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>402</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>400</v>
+      </c>
+      <c r="C68" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
         <v>165</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
         <v>168</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="13">
-      <c r="A70" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" t="s">
-        <v>173</v>
+      <c r="B71" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3842,10 +3897,10 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3853,10 +3908,10 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3864,10 +3919,10 @@
         <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3875,10 +3930,10 @@
         <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3886,10 +3941,10 @@
         <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>470</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>471</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3897,10 +3952,10 @@
         <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3908,10 +3963,10 @@
         <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3919,10 +3974,10 @@
         <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3930,10 +3985,10 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3941,10 +3996,10 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3952,10 +4007,10 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3963,65 +4018,65 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
         <v>202</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13">
-      <c r="A84" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="19" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13">
-      <c r="A85" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
         <v>206</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13">
-      <c r="A86" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
         <v>208</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
         <v>210</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4029,10 +4084,10 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4040,10 +4095,10 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4051,10 +4106,10 @@
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4062,10 +4117,10 @@
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4073,10 +4128,10 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4084,32 +4139,32 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
         <v>230</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
         <v>232</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4117,10 +4172,10 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>443</v>
+        <v>236</v>
       </c>
       <c r="C97" t="s">
-        <v>444</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4128,10 +4183,10 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>441</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4139,32 +4194,32 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
         <v>240</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13">
-      <c r="A100" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="19" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C101" s="19" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B101" t="s">
-        <v>246</v>
-      </c>
-      <c r="C101" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4172,32 +4227,32 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
         <v>250</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>19</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
         <v>252</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B104" t="s">
-        <v>254</v>
-      </c>
-      <c r="C104" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4205,10 +4260,10 @@
         <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4216,10 +4271,10 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4227,10 +4282,10 @@
         <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4238,10 +4293,10 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4249,10 +4304,10 @@
         <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4260,10 +4315,10 @@
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C110" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4271,10 +4326,10 @@
         <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C111" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4282,10 +4337,10 @@
         <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4293,10 +4348,10 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4304,10 +4359,10 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C114" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4315,10 +4370,10 @@
         <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C115" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4326,10 +4381,10 @@
         <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4337,10 +4392,10 @@
         <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C117" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4348,32 +4403,32 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
         <v>288</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
         <v>290</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" t="s">
-        <v>296</v>
-      </c>
-      <c r="C120" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4381,10 +4436,10 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C121" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4392,10 +4447,10 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4403,10 +4458,10 @@
         <v>19</v>
       </c>
       <c r="B123" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C123" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4414,10 +4469,10 @@
         <v>19</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4425,32 +4480,32 @@
         <v>19</v>
       </c>
       <c r="B125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
         <v>306</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
         <v>308</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" t="s">
-        <v>310</v>
-      </c>
-      <c r="C127" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4458,10 +4513,10 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4469,10 +4524,10 @@
         <v>19</v>
       </c>
       <c r="B129" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C129" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4480,10 +4535,10 @@
         <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4491,10 +4546,10 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4502,10 +4557,10 @@
         <v>19</v>
       </c>
       <c r="B132" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C132" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4513,10 +4568,10 @@
         <v>19</v>
       </c>
       <c r="B133" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4524,32 +4579,32 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
+        <v>322</v>
+      </c>
+      <c r="C134" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
         <v>324</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
         <v>330</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B136" t="s">
-        <v>332</v>
-      </c>
-      <c r="C136" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4557,10 +4612,10 @@
         <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4568,32 +4623,32 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
+        <v>334</v>
+      </c>
+      <c r="C138" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
         <v>336</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>19</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
         <v>338</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B140" t="s">
-        <v>340</v>
-      </c>
-      <c r="C140" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4601,10 +4656,10 @@
         <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C141" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4612,10 +4667,10 @@
         <v>19</v>
       </c>
       <c r="B142" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4623,10 +4678,10 @@
         <v>19</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4634,10 +4689,10 @@
         <v>19</v>
       </c>
       <c r="B144" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C144" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4645,10 +4700,10 @@
         <v>19</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4656,10 +4711,10 @@
         <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C146" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4667,10 +4722,10 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C147" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4678,21 +4733,21 @@
         <v>19</v>
       </c>
       <c r="B148" t="s">
+        <v>355</v>
+      </c>
+      <c r="C148" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
         <v>356</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>19</v>
-      </c>
-      <c r="B149" t="s">
-        <v>360</v>
-      </c>
-      <c r="C149" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4700,10 +4755,10 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C150" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4711,10 +4766,10 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C151" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4722,10 +4777,10 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C152" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4733,10 +4788,10 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C153" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4744,10 +4799,10 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C154" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4755,10 +4810,10 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C155" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4766,10 +4821,10 @@
         <v>19</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C156" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4777,10 +4832,10 @@
         <v>19</v>
       </c>
       <c r="B157" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C157" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4788,10 +4843,10 @@
         <v>19</v>
       </c>
       <c r="B158" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C158" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4799,10 +4854,10 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C159" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4810,10 +4865,10 @@
         <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C160" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4821,10 +4876,10 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C161" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4832,10 +4887,10 @@
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C162" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4843,15 +4898,15 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="B164" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D164" s="15">
         <v>34.5</v>
@@ -4862,10 +4917,10 @@
         <v>19</v>
       </c>
       <c r="B165" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C165" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D165" s="15"/>
     </row>
@@ -4874,10 +4929,10 @@
         <v>19</v>
       </c>
       <c r="B166" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C166" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4885,10 +4940,10 @@
         <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C167" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4896,10 +4951,10 @@
         <v>19</v>
       </c>
       <c r="B168" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C168" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4907,10 +4962,10 @@
         <v>19</v>
       </c>
       <c r="B169" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C169" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4918,10 +4973,10 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C170" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4929,10 +4984,10 @@
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C171" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4940,10 +4995,10 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C172" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4951,10 +5006,10 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C173" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4962,10 +5017,10 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C174" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4973,10 +5028,10 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C175" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4984,10 +5039,10 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C176" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4995,10 +5050,10 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C177" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5006,10 +5061,10 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C178" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5017,10 +5072,10 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C179" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5028,10 +5083,10 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C180" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5039,10 +5094,10 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C181" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5050,10 +5105,10 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C182" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5061,10 +5116,10 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C183" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5072,10 +5127,10 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C184" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5083,10 +5138,10 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C185" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5105,10 +5160,10 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C187" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5116,10 +5171,10 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C188" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5127,10 +5182,10 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C189" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5138,10 +5193,10 @@
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C190" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5149,10 +5204,10 @@
         <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C191" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5160,10 +5215,10 @@
         <v>19</v>
       </c>
       <c r="B192" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C192" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -5171,10 +5226,10 @@
         <v>19</v>
       </c>
       <c r="B193" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C193" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -5182,10 +5237,10 @@
         <v>19</v>
       </c>
       <c r="B194" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="C194" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -5193,10 +5248,10 @@
         <v>19</v>
       </c>
       <c r="B195" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C195" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -5204,10 +5259,10 @@
         <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C196" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -5215,10 +5270,10 @@
         <v>19</v>
       </c>
       <c r="B197" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="C197" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -5226,10 +5281,10 @@
         <v>19</v>
       </c>
       <c r="B198" t="s">
-        <v>409</v>
+        <v>518</v>
       </c>
       <c r="C198" t="s">
-        <v>410</v>
+        <v>519</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -5237,10 +5292,10 @@
         <v>19</v>
       </c>
       <c r="B199" t="s">
-        <v>526</v>
+        <v>407</v>
       </c>
       <c r="C199" t="s">
-        <v>527</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -5248,10 +5303,10 @@
         <v>19</v>
       </c>
       <c r="B200" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C200" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -5259,10 +5314,10 @@
         <v>19</v>
       </c>
       <c r="B201" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C201" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -5270,10 +5325,10 @@
         <v>19</v>
       </c>
       <c r="B202" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C202" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -5292,98 +5347,185 @@
         <v>19</v>
       </c>
       <c r="B204" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="C204" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>417</v>
+      <c r="B205" t="s">
+        <v>535</v>
       </c>
       <c r="C205" t="s">
-        <v>418</v>
-      </c>
-      <c r="D205" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H205" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="I205" s="16"/>
-      <c r="J205" s="16">
-        <v>45545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="206" spans="1:10">
-      <c r="B206" s="1" t="s">
-        <v>427</v>
+      <c r="A206" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" t="s">
+        <v>498</v>
       </c>
       <c r="C206" t="s">
-        <v>426</v>
-      </c>
-      <c r="D206" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I206" s="16"/>
-      <c r="J206" s="16">
-        <v>45581</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>440</v>
+      <c r="B207" t="s">
+        <v>537</v>
       </c>
       <c r="C207" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s">
+        <v>545</v>
+      </c>
+      <c r="C208" t="s">
+        <v>546</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>551</v>
+      </c>
+      <c r="C209" t="s">
+        <v>552</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" t="s">
+        <v>543</v>
+      </c>
+      <c r="C210" t="s">
+        <v>544</v>
+      </c>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C211" t="s">
+        <v>416</v>
+      </c>
+      <c r="D211" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H211" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="I211" s="16"/>
+      <c r="J211" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="B212" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C212" t="s">
+        <v>424</v>
+      </c>
+      <c r="D212" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I212" s="16"/>
+      <c r="J212" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C213" t="s">
+        <v>435</v>
+      </c>
+      <c r="D213" s="15">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="B214" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D207" s="15">
-        <v>19.79</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="B208" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C208" t="s">
-        <v>438</v>
-      </c>
-      <c r="D208" s="2">
+      <c r="C214" t="s">
+        <v>436</v>
+      </c>
+      <c r="D214" s="2">
         <v>19.88</v>
       </c>
-      <c r="E208" s="3">
-        <f>+D208*I208</f>
+      <c r="E214" s="3">
+        <f>+D214*I214</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F208" s="3">
+      <c r="F214" s="3">
         <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G208" s="3">
-        <f>+E208-F208</f>
+      <c r="G214" s="3">
+        <f>+E214-F214</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H208" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I208" s="3">
+      <c r="H214" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I214" s="3">
         <f>+[9]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J208" s="16">
+      <c r="J214" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -5397,15 +5539,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B205" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B211" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B206" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B207" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B208" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B212" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B213" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B214" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
     <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5415,22 +5557,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X55"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -5558,10 +5700,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -5723,10 +5865,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5767,10 +5909,10 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5800,10 +5942,10 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5822,10 +5964,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5855,10 +5997,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C34" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D34" s="21">
         <v>191</v>
@@ -5891,10 +6033,10 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D37" s="21">
         <v>192.2</v>
@@ -5916,7 +6058,7 @@
         <v>133.264062</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J37" s="18">
         <v>45684</v>
@@ -5938,10 +6080,10 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5949,10 +6091,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5960,10 +6102,10 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5982,10 +6124,10 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D43">
         <v>11.73</v>
@@ -6007,7 +6149,7 @@
         <v>656.70391300000006</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J43" s="18">
         <v>45561</v>
@@ -6026,10 +6168,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="B45" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C45" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D45" s="21">
         <v>93.74</v>
@@ -6051,7 +6193,7 @@
         <v>80.079757000000001</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J45" s="18">
         <v>45565</v>
@@ -6059,10 +6201,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="B46" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D46" s="21">
         <v>35</v>
@@ -6084,7 +6226,7 @@
         <v>185.11625000000001</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J46" s="18">
         <v>45590</v>
@@ -6095,10 +6237,10 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6106,10 +6248,10 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6117,10 +6259,10 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="C49" t="s">
-        <v>469</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6128,10 +6270,10 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>514</v>
+        <v>466</v>
       </c>
       <c r="C50" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6139,58 +6281,80 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C51" t="s">
-        <v>397</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="B52" s="1" t="s">
-        <v>420</v>
+      <c r="A52" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>512</v>
       </c>
       <c r="C52" t="s">
-        <v>421</v>
-      </c>
-      <c r="D52">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C54" t="s">
+        <v>419</v>
+      </c>
+      <c r="D54">
         <v>5.92</v>
       </c>
-      <c r="E52" s="17">
-        <f>+D52*H52</f>
+      <c r="E54" s="17">
+        <f>+D54*H54</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F54" s="17">
         <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G52" s="17">
-        <f>+E52-F52</f>
+      <c r="G54" s="17">
+        <f>+E54-F54</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H54" s="17">
         <f>+[14]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I52" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="J52" s="18">
+      <c r="I54" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="J54" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="13">
-      <c r="B54" s="14" t="s">
+    <row r="56" spans="1:10">
+      <c r="B56" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="B55" t="s">
+    <row r="57" spans="1:10">
+      <c r="B57" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B54" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60984558-06DD-4F48-85F0-A77299205F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1750D67D-9F68-43C2-A9AA-8EEDFA72D82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-30375" yWindow="3765" windowWidth="26790" windowHeight="16005" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="555">
   <si>
     <t>Name</t>
   </si>
@@ -1711,6 +1711,12 @@
   </si>
   <si>
     <t>SAND SS</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>GIB/A</t>
   </si>
 </sst>
 </file>
@@ -2148,9 +2154,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2218,7 +2224,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2691,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5557,13 +5563,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -6292,10 +6298,10 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="C52" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6303,58 +6309,69 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
+        <v>512</v>
+      </c>
+      <c r="C53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
         <v>394</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:10">
+      <c r="B55" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>419</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>5.92</v>
       </c>
-      <c r="E54" s="17">
-        <f>+D54*H54</f>
+      <c r="E55" s="17">
+        <f>+D55*H55</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G54" s="17">
-        <f>+E54-F54</f>
+      <c r="G55" s="17">
+        <f>+E55-F55</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H55" s="17">
         <f>+[14]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I54" s="16" t="s">
+      <c r="I55" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J55" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="B56" s="14" t="s">
+    <row r="57" spans="1:10">
+      <c r="B57" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="B57" t="s">
+    <row r="58" spans="1:10">
+      <c r="B58" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B54" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B55" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1750D67D-9F68-43C2-A9AA-8EEDFA72D82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1891A99-8B3E-4037-8B1F-44D7FA893DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30375" yWindow="3765" windowWidth="26790" windowHeight="16005" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="573">
   <si>
     <t>Name</t>
   </si>
@@ -1717,6 +1717,60 @@
   </si>
   <si>
     <t>GIB/A</t>
+  </si>
+  <si>
+    <t>ADANIPORTS</t>
+  </si>
+  <si>
+    <t>Adani Ports &amp; Special Economic Zone</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>HEI GR</t>
+  </si>
+  <si>
+    <t>Heico</t>
+  </si>
+  <si>
+    <t>HEI</t>
+  </si>
+  <si>
+    <t>Ashtead</t>
+  </si>
+  <si>
+    <t>AHT LN</t>
+  </si>
+  <si>
+    <t>CRRC</t>
+  </si>
+  <si>
+    <t>601766 CH</t>
+  </si>
+  <si>
+    <t>JSW Steel</t>
+  </si>
+  <si>
+    <t>JSWSTEEL IN</t>
+  </si>
+  <si>
+    <t>Novonesis (Novozymes)</t>
+  </si>
+  <si>
+    <t>NSISB DC</t>
+  </si>
+  <si>
+    <t>Avic Chengdu Aircraft</t>
+  </si>
+  <si>
+    <t>300114 CH</t>
+  </si>
+  <si>
+    <t>Sumitomo</t>
+  </si>
+  <si>
+    <t>8053 JP</t>
   </si>
 </sst>
 </file>
@@ -2695,27 +2749,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C189" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C209" sqref="C209"/>
+      <selection pane="bottomRight" activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="11.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -3390,7 +3444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="19" customFormat="1">
+    <row r="29" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A29" s="25" t="s">
         <v>19</v>
       </c>
@@ -3584,7 +3638,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="19" customFormat="1">
+    <row r="46" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A46" s="25" t="s">
         <v>19</v>
       </c>
@@ -3668,7 +3722,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="19" customFormat="1">
+    <row r="53" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A53" s="25" t="s">
         <v>19</v>
       </c>
@@ -3686,7 +3740,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1">
+    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A54" s="25" t="s">
         <v>19</v>
       </c>
@@ -3715,7 +3769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="19" customFormat="1">
+    <row r="56" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A56" s="25" t="s">
         <v>19</v>
       </c>
@@ -3810,7 +3864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="13">
       <c r="A64" s="25" t="s">
         <v>19</v>
       </c>
@@ -3887,7 +3941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="13">
       <c r="A71" s="25" t="s">
         <v>19</v>
       </c>
@@ -4041,7 +4095,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="13">
       <c r="A85" s="26" t="s">
         <v>19</v>
       </c>
@@ -4052,7 +4106,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="13">
       <c r="A86" s="26" t="s">
         <v>19</v>
       </c>
@@ -4063,7 +4117,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="13">
       <c r="A87" s="26" t="s">
         <v>19</v>
       </c>
@@ -4217,7 +4271,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="13">
       <c r="A101" s="26" t="s">
         <v>19</v>
       </c>
@@ -5433,10 +5487,10 @@
         <v>19</v>
       </c>
       <c r="B210" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="C210" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="D210"/>
       <c r="E210"/>
@@ -5450,88 +5504,182 @@
       <c r="A211" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>415</v>
+      <c r="B211" t="s">
+        <v>563</v>
       </c>
       <c r="C211" t="s">
-        <v>416</v>
-      </c>
-      <c r="D211" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H211" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="I211" s="16"/>
-      <c r="J211" s="16">
-        <v>45545</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="1:10">
-      <c r="B212" s="1" t="s">
-        <v>425</v>
+      <c r="A212" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>565</v>
       </c>
       <c r="C212" t="s">
-        <v>424</v>
-      </c>
-      <c r="D212" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I212" s="16"/>
-      <c r="J212" s="16">
-        <v>45581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
+        <v>543</v>
+      </c>
+      <c r="C213" t="s">
+        <v>544</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" t="s">
+        <v>567</v>
+      </c>
+      <c r="C214" t="s">
+        <v>568</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" t="s">
+        <v>569</v>
+      </c>
+      <c r="C215" t="s">
+        <v>570</v>
+      </c>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" t="s">
+        <v>571</v>
+      </c>
+      <c r="C216" t="s">
+        <v>572</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216"/>
+      <c r="J216"/>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C217" t="s">
+        <v>416</v>
+      </c>
+      <c r="D217" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H217" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="I217" s="16"/>
+      <c r="J217" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="B218" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C218" t="s">
+        <v>424</v>
+      </c>
+      <c r="D218" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I218" s="16"/>
+      <c r="J218" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C219" t="s">
         <v>435</v>
       </c>
-      <c r="D213" s="15">
+      <c r="D219" s="15">
         <v>19.79</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
-      <c r="B214" s="1" t="s">
+    <row r="220" spans="1:10">
+      <c r="B220" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C220" t="s">
         <v>436</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D220" s="2">
         <v>19.88</v>
       </c>
-      <c r="E214" s="3">
-        <f>+D214*I214</f>
+      <c r="E220" s="3">
+        <f>+D220*I220</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F214" s="3">
+      <c r="F220" s="3">
         <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G214" s="3">
-        <f>+E214-F214</f>
+      <c r="G220" s="3">
+        <f>+E220-F220</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H214" s="2" t="s">
+      <c r="H220" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I214" s="3">
+      <c r="I220" s="3">
         <f>+[9]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J214" s="16">
+      <c r="J220" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -5545,15 +5693,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B211" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B217" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B212" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B213" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B214" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B218" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B219" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B220" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
     <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5563,22 +5711,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -6276,10 +6424,10 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="C50" t="s">
-        <v>467</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6287,10 +6435,10 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
       <c r="C51" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6298,10 +6446,10 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="C52" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6309,10 +6457,10 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="C53" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6320,58 +6468,91 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
+        <v>561</v>
+      </c>
+      <c r="C54" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>553</v>
+      </c>
+      <c r="C55" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>512</v>
+      </c>
+      <c r="C56" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
         <v>394</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="1" t="s">
+    <row r="58" spans="1:10">
+      <c r="B58" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>419</v>
       </c>
-      <c r="D55">
+      <c r="D58">
         <v>5.92</v>
       </c>
-      <c r="E55" s="17">
-        <f>+D55*H55</f>
+      <c r="E58" s="17">
+        <f>+D58*H58</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F58" s="17">
         <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G55" s="17">
-        <f>+E55-F55</f>
+      <c r="G58" s="17">
+        <f>+E58-F58</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H58" s="17">
         <f>+[14]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I58" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J58" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="14" t="s">
+    <row r="60" spans="1:10" ht="13">
+      <c r="B60" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="B58" t="s">
+    <row r="61" spans="1:10">
+      <c r="B61" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B55" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B58" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1891A99-8B3E-4037-8B1F-44D7FA893DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEFFD92-44E0-4321-BD78-A96ECA735008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="599">
   <si>
     <t>Name</t>
   </si>
@@ -1771,6 +1771,84 @@
   </si>
   <si>
     <t>8053 JP</t>
+  </si>
+  <si>
+    <t>Golden MV</t>
+  </si>
+  <si>
+    <t>HVN PM</t>
+  </si>
+  <si>
+    <t>Marubeni</t>
+  </si>
+  <si>
+    <t>8002 JP</t>
+  </si>
+  <si>
+    <t>Rollins</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Techtronic</t>
+  </si>
+  <si>
+    <t>669 HK</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>7269 JP</t>
+  </si>
+  <si>
+    <t>Michelin</t>
+  </si>
+  <si>
+    <t>ML FP</t>
+  </si>
+  <si>
+    <t>Seres</t>
+  </si>
+  <si>
+    <t>601127 CH</t>
+  </si>
+  <si>
+    <t>Veralto</t>
+  </si>
+  <si>
+    <t>VLTO</t>
+  </si>
+  <si>
+    <t>ArcelorMittal</t>
+  </si>
+  <si>
+    <t>MT NA</t>
+  </si>
+  <si>
+    <t>Nippon Steel</t>
+  </si>
+  <si>
+    <t>5401 JP</t>
+  </si>
+  <si>
+    <t>WSP Global</t>
+  </si>
+  <si>
+    <t>WSP CN</t>
+  </si>
+  <si>
+    <t>Epiroc</t>
+  </si>
+  <si>
+    <t>EPIA SS</t>
+  </si>
+  <si>
+    <t>Teledyne</t>
+  </si>
+  <si>
+    <t>TDY</t>
   </si>
 </sst>
 </file>
@@ -2194,17 +2272,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="K3">
-            <v>3194.6404149999998</v>
+            <v>3521</v>
           </cell>
         </row>
         <row r="5">
           <cell r="K5">
-            <v>30720</v>
+            <v>36996</v>
           </cell>
         </row>
         <row r="6">
           <cell r="K6">
-            <v>7745</v>
+            <v>7529</v>
           </cell>
         </row>
       </sheetData>
@@ -2749,27 +2827,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D216" sqref="D216"/>
+      <selection pane="bottomRight" activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2"/>
-    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="11.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -2999,22 +3077,22 @@
       </c>
       <c r="E6" s="3">
         <f>+D6*I6</f>
-        <v>827411.86748499994</v>
+        <v>911939</v>
       </c>
       <c r="F6" s="3">
         <f>+[2]Main!$K$5-[2]Main!$K$6</f>
-        <v>22975</v>
+        <v>29467</v>
       </c>
       <c r="G6" s="3">
         <f>+E6-F6</f>
-        <v>804436.86748499994</v>
+        <v>882472</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>417</v>
       </c>
       <c r="I6" s="3">
         <f>+[2]Main!$K$3</f>
-        <v>3194.6404149999998</v>
+        <v>3521</v>
       </c>
       <c r="J6" s="16">
         <v>45560</v>
@@ -3444,7 +3522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="29" spans="1:10" s="19" customFormat="1">
       <c r="A29" s="25" t="s">
         <v>19</v>
       </c>
@@ -3638,7 +3716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="46" spans="1:10" s="19" customFormat="1">
       <c r="A46" s="25" t="s">
         <v>19</v>
       </c>
@@ -3722,7 +3800,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="53" spans="1:10" s="19" customFormat="1">
       <c r="A53" s="25" t="s">
         <v>19</v>
       </c>
@@ -3740,7 +3818,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="54" spans="1:10" s="19" customFormat="1">
       <c r="A54" s="25" t="s">
         <v>19</v>
       </c>
@@ -3769,7 +3847,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="19" customFormat="1" ht="13">
+    <row r="56" spans="1:10" s="19" customFormat="1">
       <c r="A56" s="25" t="s">
         <v>19</v>
       </c>
@@ -3864,7 +3942,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="13">
+    <row r="64" spans="1:10">
       <c r="A64" s="25" t="s">
         <v>19</v>
       </c>
@@ -3941,7 +4019,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13">
+    <row r="71" spans="1:3">
       <c r="A71" s="25" t="s">
         <v>19</v>
       </c>
@@ -4095,7 +4173,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13">
+    <row r="85" spans="1:3">
       <c r="A85" s="26" t="s">
         <v>19</v>
       </c>
@@ -4106,7 +4184,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13">
+    <row r="86" spans="1:3">
       <c r="A86" s="26" t="s">
         <v>19</v>
       </c>
@@ -4117,7 +4195,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13">
+    <row r="87" spans="1:3">
       <c r="A87" s="26" t="s">
         <v>19</v>
       </c>
@@ -4271,7 +4349,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13">
+    <row r="101" spans="1:3">
       <c r="A101" s="26" t="s">
         <v>19</v>
       </c>
@@ -4833,7 +4911,7 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
+      <c r="A152" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B152" t="s">
@@ -4936,21 +5014,21 @@
         <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>378</v>
+        <v>587</v>
       </c>
       <c r="C161" t="s">
-        <v>379</v>
+        <v>588</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" t="s">
+      <c r="A162" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B162" t="s">
-        <v>380</v>
+        <v>589</v>
       </c>
       <c r="C162" t="s">
-        <v>381</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4958,74 +5036,74 @@
         <v>19</v>
       </c>
       <c r="B163" t="s">
+        <v>585</v>
+      </c>
+      <c r="C163" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>380</v>
+      </c>
+      <c r="C165" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
         <v>472</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C166" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="B164" t="s">
+    <row r="167" spans="1:4">
+      <c r="B167" t="s">
         <v>431</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D167" s="15">
         <v>34.5</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
         <v>452</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C168" t="s">
         <v>453</v>
       </c>
-      <c r="D165" s="15"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="D168" s="15"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
         <v>382</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C169" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B167" t="s">
-        <v>450</v>
-      </c>
-      <c r="C167" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>19</v>
-      </c>
-      <c r="B168" t="s">
-        <v>384</v>
-      </c>
-      <c r="C168" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B169" t="s">
-        <v>388</v>
-      </c>
-      <c r="C169" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5033,21 +5111,21 @@
         <v>19</v>
       </c>
       <c r="B170" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C170" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="25" t="s">
+      <c r="A171" t="s">
         <v>19</v>
       </c>
       <c r="B171" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C171" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5055,10 +5133,10 @@
         <v>19</v>
       </c>
       <c r="B172" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C172" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5066,10 +5144,10 @@
         <v>19</v>
       </c>
       <c r="B173" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C173" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5077,10 +5155,10 @@
         <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="C174" t="s">
-        <v>477</v>
+        <v>391</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5088,10 +5166,10 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="C175" t="s">
-        <v>481</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5099,10 +5177,10 @@
         <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="C176" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5110,10 +5188,10 @@
         <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C177" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5121,10 +5199,10 @@
         <v>19</v>
       </c>
       <c r="B178" t="s">
-        <v>396</v>
+        <v>480</v>
       </c>
       <c r="C178" t="s">
-        <v>397</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5132,10 +5210,10 @@
         <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="C179" t="s">
-        <v>399</v>
+        <v>487</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5143,10 +5221,10 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C180" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5154,10 +5232,10 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C181" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5165,10 +5243,10 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="C182" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5176,10 +5254,10 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C183" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5187,10 +5265,10 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C184" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5198,10 +5276,10 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="C185" t="s">
-        <v>406</v>
+        <v>445</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5209,10 +5287,10 @@
         <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>155</v>
+        <v>492</v>
       </c>
       <c r="C186" t="s">
-        <v>156</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5220,10 +5298,10 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="C187" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5231,10 +5309,10 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="C188" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5242,10 +5320,10 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>508</v>
+        <v>155</v>
       </c>
       <c r="C189" t="s">
-        <v>509</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5253,10 +5331,10 @@
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C190" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5264,10 +5342,10 @@
         <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C191" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5275,262 +5353,255 @@
         <v>19</v>
       </c>
       <c r="B192" t="s">
+        <v>508</v>
+      </c>
+      <c r="C192" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>506</v>
+      </c>
+      <c r="C193" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>504</v>
+      </c>
+      <c r="C194" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" t="s">
         <v>510</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C195" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
-      <c r="A193" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B193" t="s">
+    <row r="196" spans="1:3">
+      <c r="A196" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
         <v>516</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C196" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
-      <c r="A194" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B194" t="s">
+    <row r="197" spans="1:3">
+      <c r="A197" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
         <v>549</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C197" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
-      <c r="A195" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B195" t="s">
+    <row r="198" spans="1:3">
+      <c r="A198" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="s">
         <v>520</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C198" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B196" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="s">
         <v>514</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C199" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
-      <c r="A197" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B197" t="s">
+    <row r="200" spans="1:3">
+      <c r="A200" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" t="s">
         <v>500</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C200" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
-      <c r="A198" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" t="s">
+    <row r="201" spans="1:3">
+      <c r="A201" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" t="s">
         <v>518</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C201" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
-      <c r="A199" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B199" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" t="s">
         <v>407</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C202" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
-      <c r="A200" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B200" t="s">
+    <row r="203" spans="1:3">
+      <c r="A203" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s">
         <v>524</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C203" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
-      <c r="A201" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201" t="s">
+    <row r="204" spans="1:3">
+      <c r="A204" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
         <v>527</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C204" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
-      <c r="A202" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" t="s">
+    <row r="205" spans="1:3">
+      <c r="A205" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" t="s">
         <v>529</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C205" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
-      <c r="A203" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" t="s">
+    <row r="206" spans="1:3">
+      <c r="A206" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" t="s">
         <v>533</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C206" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
-      <c r="A204" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" t="s">
+    <row r="207" spans="1:3">
+      <c r="A207" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" t="s">
         <v>531</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C207" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
-      <c r="A205" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" t="s">
+    <row r="208" spans="1:3">
+      <c r="A208" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s">
         <v>535</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C208" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B206" t="s">
-        <v>498</v>
-      </c>
-      <c r="C206" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B207" t="s">
-        <v>537</v>
-      </c>
-      <c r="C207" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B208" t="s">
-        <v>545</v>
-      </c>
-      <c r="C208" t="s">
-        <v>546</v>
-      </c>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B209" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="C209" t="s">
-        <v>552</v>
-      </c>
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209"/>
-      <c r="I209"/>
-      <c r="J209"/>
+        <v>499</v>
+      </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B210" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C210" t="s">
-        <v>560</v>
-      </c>
-      <c r="D210"/>
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
+        <v>538</v>
+      </c>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B211" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="C211" t="s">
-        <v>564</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B212" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="C212" t="s">
-        <v>566</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="C213" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="D213"/>
       <c r="E213"/>
@@ -5545,46 +5616,32 @@
         <v>19</v>
       </c>
       <c r="B214" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C214" t="s">
-        <v>568</v>
-      </c>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
+        <v>564</v>
+      </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B215" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C215" t="s">
-        <v>570</v>
-      </c>
-      <c r="D215"/>
-      <c r="E215"/>
-      <c r="F215"/>
-      <c r="G215"/>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
+        <v>566</v>
+      </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B216" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="C216" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="D216"/>
       <c r="E216"/>
@@ -5598,88 +5655,268 @@
       <c r="A217" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>415</v>
+      <c r="B217" t="s">
+        <v>567</v>
       </c>
       <c r="C217" t="s">
-        <v>416</v>
-      </c>
-      <c r="D217" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H217" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="I217" s="16"/>
-      <c r="J217" s="16">
-        <v>45545</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217"/>
+      <c r="J217"/>
     </row>
     <row r="218" spans="1:10">
-      <c r="B218" s="1" t="s">
-        <v>425</v>
+      <c r="A218" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" t="s">
+        <v>569</v>
       </c>
       <c r="C218" t="s">
-        <v>424</v>
-      </c>
-      <c r="D218" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I218" s="16"/>
-      <c r="J218" s="16">
-        <v>45581</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218"/>
+      <c r="J218"/>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" t="s">
+        <v>571</v>
+      </c>
+      <c r="C219" t="s">
+        <v>572</v>
+      </c>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219"/>
+      <c r="J219"/>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" t="s">
+        <v>575</v>
+      </c>
+      <c r="C220" t="s">
+        <v>576</v>
+      </c>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" t="s">
+        <v>581</v>
+      </c>
+      <c r="C221" t="s">
+        <v>582</v>
+      </c>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>583</v>
+      </c>
+      <c r="C222" t="s">
+        <v>584</v>
+      </c>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>591</v>
+      </c>
+      <c r="C223" t="s">
+        <v>592</v>
+      </c>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s">
+        <v>579</v>
+      </c>
+      <c r="C224" t="s">
+        <v>580</v>
+      </c>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" t="s">
+        <v>595</v>
+      </c>
+      <c r="C225" t="s">
+        <v>596</v>
+      </c>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" t="s">
+        <v>597</v>
+      </c>
+      <c r="C226" t="s">
+        <v>598</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C227" t="s">
+        <v>416</v>
+      </c>
+      <c r="D227" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H227" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="I227" s="16"/>
+      <c r="J227" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="B228" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C228" t="s">
+        <v>424</v>
+      </c>
+      <c r="D228" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I228" s="16"/>
+      <c r="J228" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C229" t="s">
         <v>435</v>
       </c>
-      <c r="D219" s="15">
+      <c r="D229" s="15">
         <v>19.79</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
-      <c r="B220" s="1" t="s">
+    <row r="230" spans="1:10">
+      <c r="B230" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C230" t="s">
         <v>436</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D230" s="2">
         <v>19.88</v>
       </c>
-      <c r="E220" s="3">
-        <f>+D220*I220</f>
+      <c r="E230" s="3">
+        <f>+D230*I230</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F220" s="3">
+      <c r="F230" s="3">
         <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G220" s="3">
-        <f>+E220-F220</f>
+      <c r="G230" s="3">
+        <f>+E230-F230</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H220" s="2" t="s">
+      <c r="H230" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I220" s="3">
+      <c r="I230" s="3">
         <f>+[9]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J220" s="16">
+      <c r="J230" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -5693,15 +5930,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B217" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B227" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B218" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B219" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B220" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B228" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B229" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B230" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
     <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5711,22 +5948,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -6501,58 +6738,91 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
+        <v>573</v>
+      </c>
+      <c r="C57" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>577</v>
+      </c>
+      <c r="C58" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>593</v>
+      </c>
+      <c r="C59" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
         <v>394</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="B58" s="1" t="s">
+    <row r="61" spans="1:10">
+      <c r="B61" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>419</v>
       </c>
-      <c r="D58">
+      <c r="D61">
         <v>5.92</v>
       </c>
-      <c r="E58" s="17">
-        <f>+D58*H58</f>
+      <c r="E61" s="17">
+        <f>+D61*H61</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F61" s="17">
         <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G58" s="17">
-        <f>+E58-F58</f>
+      <c r="G61" s="17">
+        <f>+E61-F61</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H61" s="17">
         <f>+[14]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="I61" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J61" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="13">
-      <c r="B60" s="14" t="s">
+    <row r="63" spans="1:10">
+      <c r="B63" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" t="s">
+    <row r="64" spans="1:10">
+      <c r="B64" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B58" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B61" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEFFD92-44E0-4321-BD78-A96ECA735008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A676BF-0E8C-40FB-915A-E1DD72D04C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51405" yWindow="2040" windowWidth="29535" windowHeight="15345" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-24405" yWindow="1260" windowWidth="24105" windowHeight="18210" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="603">
   <si>
     <t>Name</t>
   </si>
@@ -1849,6 +1849,18 @@
   </si>
   <si>
     <t>TDY</t>
+  </si>
+  <si>
+    <t>Halliburton</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>ELM Co</t>
+  </si>
+  <si>
+    <t>ELM AB</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
   <dimension ref="A1:AC230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5948,13 +5960,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -6771,58 +6783,80 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
+        <v>599</v>
+      </c>
+      <c r="C60" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>601</v>
+      </c>
+      <c r="C61" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
         <v>394</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="1:10">
+      <c r="B63" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>419</v>
       </c>
-      <c r="D61">
+      <c r="D63">
         <v>5.92</v>
       </c>
-      <c r="E61" s="17">
-        <f>+D61*H61</f>
+      <c r="E63" s="17">
+        <f>+D63*H63</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F63" s="17">
         <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G61" s="17">
-        <f>+E61-F61</f>
+      <c r="G63" s="17">
+        <f>+E63-F63</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H63" s="17">
         <f>+[14]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="I63" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="J61" s="18">
+      <c r="J63" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="14" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="B64" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B61" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B63" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A676BF-0E8C-40FB-915A-E1DD72D04C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4BBA3D-AC76-4035-93C8-03D1FADDC62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24405" yWindow="1260" windowWidth="24105" windowHeight="18210" activeTab="1" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="-42060" yWindow="3075" windowWidth="22335" windowHeight="13230" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="611">
   <si>
     <t>Name</t>
   </si>
@@ -1861,6 +1861,30 @@
   </si>
   <si>
     <t>ELM AB</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>ANTO LN</t>
+  </si>
+  <si>
+    <t>Ryanair</t>
+  </si>
+  <si>
+    <t>RYA ID</t>
+  </si>
+  <si>
+    <t>Tenaris</t>
+  </si>
+  <si>
+    <t>TEN IM</t>
+  </si>
+  <si>
+    <t>HD Hyundai Heavy</t>
+  </si>
+  <si>
+    <t>329180 KS</t>
   </si>
 </sst>
 </file>
@@ -2839,13 +2863,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC230"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C207" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D226" sqref="D226"/>
+      <selection pane="bottomRight" activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5830,10 +5854,10 @@
         <v>19</v>
       </c>
       <c r="B226" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C226" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D226"/>
       <c r="E226"/>
@@ -5847,88 +5871,142 @@
       <c r="A227" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>415</v>
+      <c r="B227" t="s">
+        <v>597</v>
       </c>
       <c r="C227" t="s">
-        <v>416</v>
-      </c>
-      <c r="D227" s="2">
-        <v>17.71</v>
-      </c>
-      <c r="H227" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="I227" s="16"/>
-      <c r="J227" s="16">
-        <v>45545</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
     </row>
     <row r="228" spans="1:10">
-      <c r="B228" s="1" t="s">
-        <v>425</v>
+      <c r="A228" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" t="s">
+        <v>607</v>
       </c>
       <c r="C228" t="s">
-        <v>424</v>
-      </c>
-      <c r="D228" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I228" s="16"/>
-      <c r="J228" s="16">
-        <v>45581</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228"/>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" t="s">
+        <v>609</v>
+      </c>
+      <c r="C229" t="s">
+        <v>610</v>
+      </c>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229"/>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C230" t="s">
+        <v>416</v>
+      </c>
+      <c r="D230" s="2">
+        <v>17.71</v>
+      </c>
+      <c r="H230" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="I230" s="16"/>
+      <c r="J230" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="B231" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C231" t="s">
+        <v>424</v>
+      </c>
+      <c r="D231" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I231" s="16"/>
+      <c r="J231" s="16">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C232" t="s">
         <v>435</v>
       </c>
-      <c r="D229" s="15">
+      <c r="D232" s="15">
         <v>19.79</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
-      <c r="B230" s="1" t="s">
+    <row r="233" spans="1:10">
+      <c r="B233" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C233" t="s">
         <v>436</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D233" s="2">
         <v>19.88</v>
       </c>
-      <c r="E230" s="3">
-        <f>+D230*I230</f>
+      <c r="E233" s="3">
+        <f>+D233*I233</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F230" s="3">
+      <c r="F233" s="3">
         <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G230" s="3">
-        <f>+E230-F230</f>
+      <c r="G233" s="3">
+        <f>+E233-F233</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H230" s="2" t="s">
+      <c r="H233" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I230" s="3">
+      <c r="I233" s="3">
         <f>+[9]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J230" s="16">
+      <c r="J233" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -5942,15 +6020,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B227" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B230" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B228" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B229" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B230" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B231" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B232" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B233" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
     <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5960,13 +6038,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4474E56-FB77-4B77-9CE1-6E407783E14B}">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -6657,7 +6735,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:3">
       <c r="A49" s="25" t="s">
         <v>19</v>
       </c>
@@ -6668,7 +6746,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:3">
       <c r="A50" s="25" t="s">
         <v>19</v>
       </c>
@@ -6679,7 +6757,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:3">
       <c r="A51" s="25" t="s">
         <v>19</v>
       </c>
@@ -6690,7 +6768,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:3">
       <c r="A52" s="25" t="s">
         <v>19</v>
       </c>
@@ -6701,7 +6779,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:3">
       <c r="A53" s="25" t="s">
         <v>19</v>
       </c>
@@ -6712,7 +6790,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:3">
       <c r="A54" s="25" t="s">
         <v>19</v>
       </c>
@@ -6723,7 +6801,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:3">
       <c r="A55" s="25" t="s">
         <v>19</v>
       </c>
@@ -6734,7 +6812,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:3">
       <c r="A56" s="25" t="s">
         <v>19</v>
       </c>
@@ -6745,7 +6823,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:3">
       <c r="A57" s="25" t="s">
         <v>19</v>
       </c>
@@ -6756,7 +6834,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:3">
       <c r="A58" s="25" t="s">
         <v>19</v>
       </c>
@@ -6767,7 +6845,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:3">
       <c r="A59" s="25" t="s">
         <v>19</v>
       </c>
@@ -6778,7 +6856,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:3">
       <c r="A60" s="25" t="s">
         <v>19</v>
       </c>
@@ -6789,7 +6867,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:3">
       <c r="A61" s="25" t="s">
         <v>19</v>
       </c>
@@ -6800,63 +6878,85 @@
         <v>602</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:3">
       <c r="A62" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B62" t="s">
+        <v>605</v>
+      </c>
+      <c r="C62" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>607</v>
+      </c>
+      <c r="C63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
         <v>394</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="2:10">
+      <c r="B65" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>419</v>
       </c>
-      <c r="D63">
+      <c r="D65">
         <v>5.92</v>
       </c>
-      <c r="E63" s="17">
-        <f>+D63*H63</f>
+      <c r="E65" s="17">
+        <f>+D65*H65</f>
         <v>1224.3758563199999</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F65" s="17">
         <f>+[14]Main!$K$5-[14]Main!$K$6</f>
         <v>95.133999999999986</v>
       </c>
-      <c r="G63" s="17">
-        <f>+E63-F63</f>
+      <c r="G65" s="17">
+        <f>+E65-F65</f>
         <v>1129.2418563199999</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H65" s="17">
         <f>+[14]Main!$K$3</f>
         <v>206.820246</v>
       </c>
-      <c r="I63" s="16" t="s">
+      <c r="I65" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J65" s="18">
         <v>45555</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="14" t="s">
+    <row r="67" spans="2:10">
+      <c r="B67" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="68" spans="2:10">
+      <c r="B68" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B63" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
+    <hyperlink ref="B65" r:id="rId1" xr:uid="{E9CEDD0D-C68A-4B79-8732-15DD4A2D41B2}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{C57F97EF-8A9F-4353-A72B-DB7E3526D2F3}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{0E2AC1C1-44FE-4C5D-90D1-A980F64EE9C9}"/>
     <hyperlink ref="B34" r:id="rId4" xr:uid="{E488D252-1EB4-4CE7-A8EB-3D04741A62CB}"/>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4BBA3D-AC76-4035-93C8-03D1FADDC62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE43AF-39EE-41A7-BE7F-DA927968EECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42060" yWindow="3075" windowWidth="22335" windowHeight="13230" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="45950" yWindow="2380" windowWidth="18350" windowHeight="15420" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="613">
   <si>
     <t>Name</t>
   </si>
@@ -1885,6 +1885,12 @@
   </si>
   <si>
     <t>329180 KS</t>
+  </si>
+  <si>
+    <t>Teck Resources</t>
+  </si>
+  <si>
+    <t>TECK/B CN</t>
   </si>
 </sst>
 </file>
@@ -2863,27 +2869,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D229" sqref="D229"/>
+      <selection pane="bottomRight" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="12.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="11.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="4" customFormat="1">
@@ -3558,7 +3564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="19" customFormat="1">
+    <row r="29" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A29" s="25" t="s">
         <v>19</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="19" customFormat="1">
+    <row r="46" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A46" s="25" t="s">
         <v>19</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="19" customFormat="1">
+    <row r="53" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A53" s="25" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +3860,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="1:10" s="19" customFormat="1">
+    <row r="54" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A54" s="25" t="s">
         <v>19</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="19" customFormat="1">
+    <row r="56" spans="1:10" s="19" customFormat="1" ht="13">
       <c r="A56" s="25" t="s">
         <v>19</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" ht="13">
       <c r="A64" s="25" t="s">
         <v>19</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="13">
       <c r="A71" s="25" t="s">
         <v>19</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="13">
       <c r="A85" s="26" t="s">
         <v>19</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="13">
       <c r="A86" s="26" t="s">
         <v>19</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="13">
       <c r="A87" s="26" t="s">
         <v>19</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="13">
       <c r="A101" s="26" t="s">
         <v>19</v>
       </c>
@@ -5925,88 +5931,106 @@
       <c r="A230" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" t="s">
+        <v>611</v>
+      </c>
+      <c r="C230" t="s">
+        <v>612</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
+      <c r="G230"/>
+      <c r="H230"/>
+      <c r="I230"/>
+      <c r="J230"/>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
         <v>416</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D231" s="2">
         <v>17.71</v>
       </c>
-      <c r="H230" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="I230" s="16"/>
-      <c r="J230" s="16">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
-      <c r="B231" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C231" t="s">
-        <v>424</v>
-      </c>
-      <c r="D231" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="2" t="s">
+      <c r="H231" s="16" t="s">
         <v>417</v>
       </c>
       <c r="I231" s="16"/>
       <c r="J231" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="B232" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C232" t="s">
+        <v>424</v>
+      </c>
+      <c r="D232" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I232" s="16"/>
+      <c r="J232" s="16">
         <v>45581</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
-      <c r="A232" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B232" s="1" t="s">
+    <row r="233" spans="1:10">
+      <c r="A233" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>435</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D233" s="15">
         <v>19.79</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
-      <c r="B233" s="1" t="s">
+    <row r="234" spans="1:10">
+      <c r="B234" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>436</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D234" s="2">
         <v>19.88</v>
       </c>
-      <c r="E233" s="3">
-        <f>+D233*I233</f>
+      <c r="E234" s="3">
+        <f>+D234*I234</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F233" s="3">
+      <c r="F234" s="3">
         <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G233" s="3">
-        <f>+E233-F233</f>
+      <c r="G234" s="3">
+        <f>+E234-F234</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H233" s="2" t="s">
+      <c r="H234" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I233" s="3">
+      <c r="I234" s="3">
         <f>+[9]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J233" s="16">
+      <c r="J234" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -6020,15 +6044,15 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B230" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B231" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B231" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B232" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B233" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B232" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B233" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B234" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
     <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6047,13 +6071,13 @@
       <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -6944,7 +6968,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" ht="13">
       <c r="B67" s="14" t="s">
         <v>143</v>
       </c>

--- a/Industrials.xlsx
+++ b/Industrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FE43AF-39EE-41A7-BE7F-DA927968EECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24962246-3400-43D3-8109-247F20049682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45950" yWindow="2380" windowWidth="18350" windowHeight="15420" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
+    <workbookView xWindow="47510" yWindow="2100" windowWidth="23810" windowHeight="16130" xr2:uid="{B093D665-270D-44A5-96DD-79BA04ADB2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="616">
   <si>
     <t>Name</t>
   </si>
@@ -1891,6 +1892,15 @@
   </si>
   <si>
     <t>TECK/B CN</t>
+  </si>
+  <si>
+    <t>Joby</t>
+  </si>
+  <si>
+    <t>JOBY</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -2293,6 +2303,38 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>791.79807600000004</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>812.524</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2869,13 +2911,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B56EF2F-9AAA-4E23-B670-1242386800FF}">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D230" sqref="D230"/>
+      <selection pane="bottomRight" activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -5874,32 +5916,47 @@
       <c r="J226"/>
     </row>
     <row r="227" spans="1:10">
-      <c r="A227" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B227" t="s">
-        <v>597</v>
+      <c r="B227" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="C227" t="s">
-        <v>598</v>
-      </c>
-      <c r="D227"/>
-      <c r="E227"/>
-      <c r="F227"/>
-      <c r="G227"/>
-      <c r="H227"/>
-      <c r="I227"/>
-      <c r="J227"/>
+        <v>614</v>
+      </c>
+      <c r="D227">
+        <v>9.02</v>
+      </c>
+      <c r="E227" s="17">
+        <f>+D227*I227</f>
+        <v>7142.0186455200001</v>
+      </c>
+      <c r="F227" s="17">
+        <f>[15]Main!$K$5-[15]Main!$K$6</f>
+        <v>812.524</v>
+      </c>
+      <c r="G227" s="17">
+        <f>+E227-F227</f>
+        <v>6329.4946455199997</v>
+      </c>
+      <c r="H227" t="s">
+        <v>615</v>
+      </c>
+      <c r="I227" s="17">
+        <f>[15]Main!$K$3</f>
+        <v>791.79807600000004</v>
+      </c>
+      <c r="J227" s="18">
+        <v>45824</v>
+      </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B228" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C228" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D228"/>
       <c r="E228"/>
@@ -5914,10 +5971,10 @@
         <v>19</v>
       </c>
       <c r="B229" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C229" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D229"/>
       <c r="E229"/>
@@ -5932,10 +5989,10 @@
         <v>19</v>
       </c>
       <c r="B230" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C230" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D230"/>
       <c r="E230"/>
@@ -5949,88 +6006,106 @@
       <c r="A231" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" t="s">
+        <v>611</v>
+      </c>
+      <c r="C231" t="s">
+        <v>612</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>416</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D232" s="2">
         <v>17.71</v>
       </c>
-      <c r="H231" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="I231" s="16"/>
-      <c r="J231" s="16">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
-      <c r="B232" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C232" t="s">
-        <v>424</v>
-      </c>
-      <c r="D232" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="2" t="s">
+      <c r="H232" s="16" t="s">
         <v>417</v>
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="16">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="B233" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C233" t="s">
+        <v>424</v>
+      </c>
+      <c r="D233" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I233" s="16"/>
+      <c r="J233" s="16">
         <v>45581</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
-      <c r="A233" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B233" s="1" t="s">
+    <row r="234" spans="1:10">
+      <c r="A234" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>435</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D234" s="15">
         <v>19.79</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
-      <c r="B234" s="1" t="s">
+    <row r="235" spans="1:10">
+      <c r="B235" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
         <v>436</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D235" s="2">
         <v>19.88</v>
       </c>
-      <c r="E234" s="3">
-        <f>+D234*I234</f>
+      <c r="E235" s="3">
+        <f>+D235*I235</f>
         <v>2790.0942647199995</v>
       </c>
-      <c r="F234" s="3">
+      <c r="F235" s="3">
         <f>+[9]Main!$K$5-[9]Main!$K$6</f>
         <v>91.647000000000006</v>
       </c>
-      <c r="G234" s="3">
-        <f>+E234-F234</f>
+      <c r="G235" s="3">
+        <f>+E235-F235</f>
         <v>2698.4472647199996</v>
       </c>
-      <c r="H234" s="2" t="s">
+      <c r="H235" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I234" s="3">
+      <c r="I235" s="3">
         <f>+[9]Main!$K$3</f>
         <v>140.34679399999999</v>
       </c>
-      <c r="J234" s="16">
+      <c r="J235" s="16">
         <v>45659</v>
       </c>
     </row>
@@ -6044,19 +6119,20 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{12810A9F-061A-4E6E-AA3F-8DB3F3413560}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{56EE368F-C030-4C14-9D83-DFB7F84F7540}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{490CE38D-A8DB-4F5E-BAA9-72EFF0E65C54}"/>
-    <hyperlink ref="B231" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
+    <hyperlink ref="B232" r:id="rId5" xr:uid="{F783B162-8945-4038-B21B-71A7FC54EA00}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{6EB7F145-14EB-4DF3-9241-A7BBFC152602}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{080A2B62-2090-42D3-9C6A-9C89DB9A9BF0}"/>
     <hyperlink ref="B11" r:id="rId8" xr:uid="{99DC6962-93B7-4C3C-AFAB-867F77F0A131}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{48AAE3B7-A16F-4BBD-9E00-368D9ABFA13C}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{DB20D182-627B-49D8-A0E5-268EFFF8960F}"/>
-    <hyperlink ref="B232" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
-    <hyperlink ref="B233" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
-    <hyperlink ref="B234" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
+    <hyperlink ref="B233" r:id="rId11" xr:uid="{246165DE-E878-4578-94A2-93BD0ABE32FE}"/>
+    <hyperlink ref="B234" r:id="rId12" xr:uid="{C0DF0C06-13BF-4EC8-BAC1-D9516357868E}"/>
+    <hyperlink ref="B235" r:id="rId13" xr:uid="{CAC1DA11-2160-43FB-96E4-19B4A929DA43}"/>
     <hyperlink ref="B9" r:id="rId14" xr:uid="{8C3466D6-7FE8-4C98-9106-6EAD2D7F3F9F}"/>
+    <hyperlink ref="B227" r:id="rId15" xr:uid="{C65ED2D7-04E9-4094-881D-6748397BDDB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
 </worksheet>
 </file>
 
